--- a/Project Spyn Gantt Chart.xlsx
+++ b/Project Spyn Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tydng\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tydng\Desktop\FSE-100-Team-4-Sheibanian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{569208D4-19E1-490E-9E73-6FBDF2E18445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49679D53-7A36-4A85-B6EF-7613B86E3018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="3165" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -1136,22 +1136,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1163,14 +1160,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1654,10 +1654,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1866,8 +1862,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="F24" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AU31" sqref="AU31"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1893,29 +1889,29 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="115" t="s">
+      <c r="I1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="114">
+      <c r="Q1" s="113">
         <f ca="1">TODAY()</f>
-        <v>45195</v>
-      </c>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
+        <v>45204</v>
+      </c>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="96" t="s">
@@ -1927,28 +1923,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="112">
+      <c r="Q2" s="111">
         <v>1</v>
       </c>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
     </row>
     <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -1957,78 +1953,78 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
-      <c r="I3" s="117" t="s">
+      <c r="I3" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="117" t="s">
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="117" t="s">
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="118"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="118"/>
-      <c r="AD3" s="117" t="s">
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="118"/>
-      <c r="AG3" s="118"/>
-      <c r="AH3" s="118"/>
-      <c r="AI3" s="118"/>
-      <c r="AJ3" s="118"/>
-      <c r="AK3" s="117" t="s">
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="118"/>
-      <c r="AM3" s="118"/>
-      <c r="AN3" s="118"/>
-      <c r="AO3" s="118"/>
-      <c r="AP3" s="118"/>
-      <c r="AQ3" s="118"/>
-      <c r="AR3" s="117" t="s">
+      <c r="AL3" s="107"/>
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="107"/>
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="107"/>
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="AS3" s="118"/>
-      <c r="AT3" s="118"/>
-      <c r="AU3" s="118"/>
-      <c r="AV3" s="118"/>
-      <c r="AW3" s="118"/>
-      <c r="AX3" s="118"/>
-      <c r="AY3" s="117" t="s">
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="107"/>
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="107"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="107"/>
+      <c r="AY3" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="AZ3" s="118"/>
-      <c r="BA3" s="118"/>
-      <c r="BB3" s="118"/>
-      <c r="BC3" s="118"/>
-      <c r="BD3" s="118"/>
-      <c r="BE3" s="118"/>
-      <c r="BF3" s="117" t="s">
+      <c r="AZ3" s="107"/>
+      <c r="BA3" s="107"/>
+      <c r="BB3" s="107"/>
+      <c r="BC3" s="107"/>
+      <c r="BD3" s="107"/>
+      <c r="BE3" s="107"/>
+      <c r="BF3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="BG3" s="118"/>
-      <c r="BH3" s="118"/>
-      <c r="BI3" s="118"/>
-      <c r="BJ3" s="118"/>
-      <c r="BK3" s="118"/>
-      <c r="BL3" s="118"/>
+      <c r="BG3" s="107"/>
+      <c r="BH3" s="107"/>
+      <c r="BI3" s="107"/>
+      <c r="BJ3" s="107"/>
+      <c r="BK3" s="107"/>
+      <c r="BL3" s="107"/>
     </row>
     <row r="4" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -2036,332 +2032,332 @@
         <v>14</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="I4" s="117">
+      <c r="I4" s="106">
         <f ca="1">I5</f>
-        <v>45194</v>
-      </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118">
+        <v>45201</v>
+      </c>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107">
         <f ca="1">P5</f>
-        <v>45201</v>
-      </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118">
+        <v>45208</v>
+      </c>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107">
         <f ca="1">W5</f>
-        <v>45208</v>
-      </c>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118">
+        <v>45215</v>
+      </c>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107">
         <f ca="1">AD5</f>
-        <v>45215</v>
-      </c>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="118">
+        <v>45222</v>
+      </c>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107">
         <f ca="1">AK5</f>
-        <v>45222</v>
-      </c>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118">
+        <v>45229</v>
+      </c>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107">
         <f ca="1">AR5</f>
-        <v>45229</v>
-      </c>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="118">
+        <v>45236</v>
+      </c>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="107">
         <f ca="1">AY5</f>
-        <v>45236</v>
-      </c>
-      <c r="AZ4" s="118"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118">
+        <v>45243</v>
+      </c>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="107">
         <f ca="1">BF5</f>
-        <v>45243</v>
-      </c>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="119"/>
+        <v>45250</v>
+      </c>
+      <c r="BG4" s="107"/>
+      <c r="BH4" s="107"/>
+      <c r="BI4" s="107"/>
+      <c r="BJ4" s="107"/>
+      <c r="BK4" s="107"/>
+      <c r="BL4" s="108"/>
     </row>
     <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107" t="s">
+      <c r="A5" s="116"/>
+      <c r="B5" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="109" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="31">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45194</v>
+        <v>45201</v>
       </c>
       <c r="J5" s="31">
         <f ca="1">I5+1</f>
-        <v>45195</v>
+        <v>45202</v>
       </c>
       <c r="K5" s="31">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45196</v>
+        <v>45203</v>
       </c>
       <c r="L5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="M5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45198</v>
+        <v>45205</v>
       </c>
       <c r="N5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45199</v>
+        <v>45206</v>
       </c>
       <c r="O5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45200</v>
+        <v>45207</v>
       </c>
       <c r="P5" s="33">
         <f ca="1">O5+1</f>
-        <v>45201</v>
+        <v>45208</v>
       </c>
       <c r="Q5" s="31">
         <f ca="1">P5+1</f>
-        <v>45202</v>
+        <v>45209</v>
       </c>
       <c r="R5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45203</v>
+        <v>45210</v>
       </c>
       <c r="S5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="T5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45205</v>
+        <v>45212</v>
       </c>
       <c r="U5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45206</v>
+        <v>45213</v>
       </c>
       <c r="V5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45207</v>
+        <v>45214</v>
       </c>
       <c r="W5" s="33">
         <f ca="1">V5+1</f>
-        <v>45208</v>
+        <v>45215</v>
       </c>
       <c r="X5" s="31">
         <f ca="1">W5+1</f>
-        <v>45209</v>
+        <v>45216</v>
       </c>
       <c r="Y5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45210</v>
+        <v>45217</v>
       </c>
       <c r="Z5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45211</v>
+        <v>45218</v>
       </c>
       <c r="AA5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45212</v>
+        <v>45219</v>
       </c>
       <c r="AB5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45213</v>
+        <v>45220</v>
       </c>
       <c r="AC5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="AD5" s="33">
         <f ca="1">AC5+1</f>
-        <v>45215</v>
+        <v>45222</v>
       </c>
       <c r="AE5" s="31">
         <f ca="1">AD5+1</f>
-        <v>45216</v>
+        <v>45223</v>
       </c>
       <c r="AF5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="AG5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45218</v>
+        <v>45225</v>
       </c>
       <c r="AH5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="AI5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45220</v>
+        <v>45227</v>
       </c>
       <c r="AJ5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="AK5" s="33">
         <f ca="1">AJ5+1</f>
-        <v>45222</v>
+        <v>45229</v>
       </c>
       <c r="AL5" s="31">
         <f ca="1">AK5+1</f>
-        <v>45223</v>
+        <v>45230</v>
       </c>
       <c r="AM5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45224</v>
+        <v>45231</v>
       </c>
       <c r="AN5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="AO5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45226</v>
+        <v>45233</v>
       </c>
       <c r="AP5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="AQ5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="AR5" s="33">
         <f ca="1">AQ5+1</f>
-        <v>45229</v>
+        <v>45236</v>
       </c>
       <c r="AS5" s="31">
         <f ca="1">AR5+1</f>
-        <v>45230</v>
+        <v>45237</v>
       </c>
       <c r="AT5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45231</v>
+        <v>45238</v>
       </c>
       <c r="AU5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45232</v>
+        <v>45239</v>
       </c>
       <c r="AV5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45233</v>
+        <v>45240</v>
       </c>
       <c r="AW5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="AX5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="AY5" s="33">
         <f ca="1">AX5+1</f>
-        <v>45236</v>
+        <v>45243</v>
       </c>
       <c r="AZ5" s="31">
         <f ca="1">AY5+1</f>
-        <v>45237</v>
+        <v>45244</v>
       </c>
       <c r="BA5" s="31">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45238</v>
+        <v>45245</v>
       </c>
       <c r="BB5" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>45239</v>
+        <v>45246</v>
       </c>
       <c r="BC5" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="BD5" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>45241</v>
+        <v>45248</v>
       </c>
       <c r="BE5" s="32">
         <f t="shared" ca="1" si="1"/>
-        <v>45242</v>
+        <v>45249</v>
       </c>
       <c r="BF5" s="33">
         <f ca="1">BE5+1</f>
-        <v>45243</v>
+        <v>45250</v>
       </c>
       <c r="BG5" s="31">
         <f ca="1">BF5+1</f>
-        <v>45244</v>
+        <v>45251</v>
       </c>
       <c r="BH5" s="31">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45245</v>
+        <v>45252</v>
       </c>
       <c r="BI5" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>45246</v>
+        <v>45253</v>
       </c>
       <c r="BJ5" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>45247</v>
+        <v>45254</v>
       </c>
       <c r="BK5" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>45248</v>
+        <v>45255</v>
       </c>
       <c r="BL5" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>45249</v>
+        <v>45256</v>
       </c>
     </row>
     <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
-      <c r="B6" s="108"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="110"/>
       <c r="D6" s="110"/>
       <c r="E6" s="110"/>
@@ -2740,14 +2736,16 @@
       <c r="C9" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="49">
+        <v>1</v>
+      </c>
       <c r="E9" s="50">
         <f ca="1">Project_Start</f>
-        <v>45195</v>
+        <v>45204</v>
       </c>
       <c r="F9" s="50">
         <f ca="1">E9+3</f>
-        <v>45198</v>
+        <v>45207</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="5">
@@ -2819,14 +2817,16 @@
       <c r="C10" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="54">
+        <v>0.85</v>
+      </c>
       <c r="E10" s="50">
         <f ca="1">Project_Start</f>
-        <v>45195</v>
+        <v>45204</v>
       </c>
       <c r="F10" s="50">
         <f ca="1">E10+3</f>
-        <v>45198</v>
+        <v>45207</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="5">
@@ -2898,14 +2898,16 @@
       <c r="C11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="54">
+        <v>1</v>
+      </c>
       <c r="E11" s="55">
         <f ca="1">F10</f>
-        <v>45198</v>
+        <v>45207</v>
       </c>
       <c r="F11" s="55">
         <f ca="1">E11+4</f>
-        <v>45202</v>
+        <v>45211</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5">
@@ -2977,14 +2979,16 @@
       <c r="C12" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="54"/>
+      <c r="D12" s="54">
+        <v>1</v>
+      </c>
       <c r="E12" s="55">
         <f ca="1">F11</f>
-        <v>45202</v>
+        <v>45211</v>
       </c>
       <c r="F12" s="55">
         <f ca="1">E12+2</f>
-        <v>45204</v>
+        <v>45213</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="5">
@@ -3056,7 +3060,9 @@
       <c r="C13" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="54"/>
+      <c r="D13" s="54">
+        <v>1</v>
+      </c>
       <c r="E13" s="55">
         <v>45204</v>
       </c>
@@ -3617,11 +3623,11 @@
       <c r="D21" s="74"/>
       <c r="E21" s="75">
         <f ca="1">E9+15</f>
-        <v>45210</v>
+        <v>45219</v>
       </c>
       <c r="F21" s="75">
         <f ca="1">E21+5</f>
-        <v>45215</v>
+        <v>45224</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="5">
@@ -4610,11 +4616,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AR3:AX3"/>
-    <mergeCell ref="AY3:BE3"/>
-    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="W3:AC3"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4623,19 +4637,11 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:V3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AR3:AX3"/>
+    <mergeCell ref="AY3:BE3"/>
+    <mergeCell ref="BF3:BL3"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="D7:D33">
@@ -4899,6 +4905,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F010965E38DD9C4C9BE78EF37B7A5F63" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e5a01bfcf6a1a5eee5a5ca1585b5a1a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00e6d9bda136d3704b372a6b2e4b23e5" ns3:_="">
     <xsd:import namespace="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca"/>
@@ -5036,22 +5057,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A800D70D-3EC9-4DB9-B9D8-9E383CE8B438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5069,30 +5099,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Project Spyn Gantt Chart.xlsx
+++ b/Project Spyn Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tydng\Desktop\FSE-100-Team-4-Sheibanian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49679D53-7A36-4A85-B6EF-7613B86E3018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61AF071-C535-4150-9ED9-568683C9E2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1136,19 +1136,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1160,17 +1163,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1862,8 +1862,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1889,29 +1889,29 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="113">
+      <c r="Q1" s="114">
         <f ca="1">TODAY()</f>
-        <v>45204</v>
-      </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
+        <v>45211</v>
+      </c>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="96" t="s">
@@ -1923,28 +1923,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="111">
+      <c r="Q2" s="112">
         <v>1</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
     </row>
     <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -1953,78 +1953,78 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="106" t="s">
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="106" t="s">
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="106" t="s">
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="106" t="s">
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="118"/>
+      <c r="AG3" s="118"/>
+      <c r="AH3" s="118"/>
+      <c r="AI3" s="118"/>
+      <c r="AJ3" s="118"/>
+      <c r="AK3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="107"/>
-      <c r="AM3" s="107"/>
-      <c r="AN3" s="107"/>
-      <c r="AO3" s="107"/>
-      <c r="AP3" s="107"/>
-      <c r="AQ3" s="107"/>
-      <c r="AR3" s="106" t="s">
+      <c r="AL3" s="118"/>
+      <c r="AM3" s="118"/>
+      <c r="AN3" s="118"/>
+      <c r="AO3" s="118"/>
+      <c r="AP3" s="118"/>
+      <c r="AQ3" s="118"/>
+      <c r="AR3" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="AS3" s="107"/>
-      <c r="AT3" s="107"/>
-      <c r="AU3" s="107"/>
-      <c r="AV3" s="107"/>
-      <c r="AW3" s="107"/>
-      <c r="AX3" s="107"/>
-      <c r="AY3" s="106" t="s">
+      <c r="AS3" s="118"/>
+      <c r="AT3" s="118"/>
+      <c r="AU3" s="118"/>
+      <c r="AV3" s="118"/>
+      <c r="AW3" s="118"/>
+      <c r="AX3" s="118"/>
+      <c r="AY3" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="AZ3" s="107"/>
-      <c r="BA3" s="107"/>
-      <c r="BB3" s="107"/>
-      <c r="BC3" s="107"/>
-      <c r="BD3" s="107"/>
-      <c r="BE3" s="107"/>
-      <c r="BF3" s="106" t="s">
+      <c r="AZ3" s="118"/>
+      <c r="BA3" s="118"/>
+      <c r="BB3" s="118"/>
+      <c r="BC3" s="118"/>
+      <c r="BD3" s="118"/>
+      <c r="BE3" s="118"/>
+      <c r="BF3" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="BG3" s="107"/>
-      <c r="BH3" s="107"/>
-      <c r="BI3" s="107"/>
-      <c r="BJ3" s="107"/>
-      <c r="BK3" s="107"/>
-      <c r="BL3" s="107"/>
+      <c r="BG3" s="118"/>
+      <c r="BH3" s="118"/>
+      <c r="BI3" s="118"/>
+      <c r="BJ3" s="118"/>
+      <c r="BK3" s="118"/>
+      <c r="BL3" s="118"/>
     </row>
     <row r="4" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -2032,332 +2032,332 @@
         <v>14</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="I4" s="106">
+      <c r="I4" s="117">
         <f ca="1">I5</f>
-        <v>45201</v>
-      </c>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107">
+        <v>45208</v>
+      </c>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118">
         <f ca="1">P5</f>
-        <v>45208</v>
-      </c>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107">
+        <v>45215</v>
+      </c>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118">
         <f ca="1">W5</f>
-        <v>45215</v>
-      </c>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107">
+        <v>45222</v>
+      </c>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118">
         <f ca="1">AD5</f>
-        <v>45222</v>
-      </c>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
-      <c r="AK4" s="107">
+        <v>45229</v>
+      </c>
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="118">
         <f ca="1">AK5</f>
-        <v>45229</v>
-      </c>
-      <c r="AL4" s="107"/>
-      <c r="AM4" s="107"/>
-      <c r="AN4" s="107"/>
-      <c r="AO4" s="107"/>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="107"/>
-      <c r="AR4" s="107">
+        <v>45236</v>
+      </c>
+      <c r="AL4" s="118"/>
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="118"/>
+      <c r="AR4" s="118">
         <f ca="1">AR5</f>
-        <v>45236</v>
-      </c>
-      <c r="AS4" s="107"/>
-      <c r="AT4" s="107"/>
-      <c r="AU4" s="107"/>
-      <c r="AV4" s="107"/>
-      <c r="AW4" s="107"/>
-      <c r="AX4" s="107"/>
-      <c r="AY4" s="107">
+        <v>45243</v>
+      </c>
+      <c r="AS4" s="118"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="118"/>
+      <c r="AX4" s="118"/>
+      <c r="AY4" s="118">
         <f ca="1">AY5</f>
-        <v>45243</v>
-      </c>
-      <c r="AZ4" s="107"/>
-      <c r="BA4" s="107"/>
-      <c r="BB4" s="107"/>
-      <c r="BC4" s="107"/>
-      <c r="BD4" s="107"/>
-      <c r="BE4" s="107"/>
-      <c r="BF4" s="107">
+        <v>45250</v>
+      </c>
+      <c r="AZ4" s="118"/>
+      <c r="BA4" s="118"/>
+      <c r="BB4" s="118"/>
+      <c r="BC4" s="118"/>
+      <c r="BD4" s="118"/>
+      <c r="BE4" s="118"/>
+      <c r="BF4" s="118">
         <f ca="1">BF5</f>
-        <v>45250</v>
-      </c>
-      <c r="BG4" s="107"/>
-      <c r="BH4" s="107"/>
-      <c r="BI4" s="107"/>
-      <c r="BJ4" s="107"/>
-      <c r="BK4" s="107"/>
-      <c r="BL4" s="108"/>
+        <v>45257</v>
+      </c>
+      <c r="BG4" s="118"/>
+      <c r="BH4" s="118"/>
+      <c r="BI4" s="118"/>
+      <c r="BJ4" s="118"/>
+      <c r="BK4" s="118"/>
+      <c r="BL4" s="119"/>
     </row>
     <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117" t="s">
+      <c r="A5" s="106"/>
+      <c r="B5" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="111" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="31">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45201</v>
+        <v>45208</v>
       </c>
       <c r="J5" s="31">
         <f ca="1">I5+1</f>
-        <v>45202</v>
+        <v>45209</v>
       </c>
       <c r="K5" s="31">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45203</v>
+        <v>45210</v>
       </c>
       <c r="L5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="M5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45205</v>
+        <v>45212</v>
       </c>
       <c r="N5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45206</v>
+        <v>45213</v>
       </c>
       <c r="O5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45207</v>
+        <v>45214</v>
       </c>
       <c r="P5" s="33">
         <f ca="1">O5+1</f>
-        <v>45208</v>
+        <v>45215</v>
       </c>
       <c r="Q5" s="31">
         <f ca="1">P5+1</f>
-        <v>45209</v>
+        <v>45216</v>
       </c>
       <c r="R5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45210</v>
+        <v>45217</v>
       </c>
       <c r="S5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45211</v>
+        <v>45218</v>
       </c>
       <c r="T5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45212</v>
+        <v>45219</v>
       </c>
       <c r="U5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45213</v>
+        <v>45220</v>
       </c>
       <c r="V5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="W5" s="33">
         <f ca="1">V5+1</f>
-        <v>45215</v>
+        <v>45222</v>
       </c>
       <c r="X5" s="31">
         <f ca="1">W5+1</f>
-        <v>45216</v>
+        <v>45223</v>
       </c>
       <c r="Y5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="Z5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45218</v>
+        <v>45225</v>
       </c>
       <c r="AA5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="AB5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45220</v>
+        <v>45227</v>
       </c>
       <c r="AC5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="AD5" s="33">
         <f ca="1">AC5+1</f>
-        <v>45222</v>
+        <v>45229</v>
       </c>
       <c r="AE5" s="31">
         <f ca="1">AD5+1</f>
-        <v>45223</v>
+        <v>45230</v>
       </c>
       <c r="AF5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45224</v>
+        <v>45231</v>
       </c>
       <c r="AG5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="AH5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45226</v>
+        <v>45233</v>
       </c>
       <c r="AI5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="AJ5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="AK5" s="33">
         <f ca="1">AJ5+1</f>
-        <v>45229</v>
+        <v>45236</v>
       </c>
       <c r="AL5" s="31">
         <f ca="1">AK5+1</f>
-        <v>45230</v>
+        <v>45237</v>
       </c>
       <c r="AM5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45231</v>
+        <v>45238</v>
       </c>
       <c r="AN5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45232</v>
+        <v>45239</v>
       </c>
       <c r="AO5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45233</v>
+        <v>45240</v>
       </c>
       <c r="AP5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="AQ5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="AR5" s="33">
         <f ca="1">AQ5+1</f>
-        <v>45236</v>
+        <v>45243</v>
       </c>
       <c r="AS5" s="31">
         <f ca="1">AR5+1</f>
-        <v>45237</v>
+        <v>45244</v>
       </c>
       <c r="AT5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45238</v>
+        <v>45245</v>
       </c>
       <c r="AU5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45239</v>
+        <v>45246</v>
       </c>
       <c r="AV5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="AW5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45241</v>
+        <v>45248</v>
       </c>
       <c r="AX5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45242</v>
+        <v>45249</v>
       </c>
       <c r="AY5" s="33">
         <f ca="1">AX5+1</f>
-        <v>45243</v>
+        <v>45250</v>
       </c>
       <c r="AZ5" s="31">
         <f ca="1">AY5+1</f>
-        <v>45244</v>
+        <v>45251</v>
       </c>
       <c r="BA5" s="31">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45245</v>
+        <v>45252</v>
       </c>
       <c r="BB5" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>45246</v>
+        <v>45253</v>
       </c>
       <c r="BC5" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>45247</v>
+        <v>45254</v>
       </c>
       <c r="BD5" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>45248</v>
+        <v>45255</v>
       </c>
       <c r="BE5" s="32">
         <f t="shared" ca="1" si="1"/>
-        <v>45249</v>
+        <v>45256</v>
       </c>
       <c r="BF5" s="33">
         <f ca="1">BE5+1</f>
-        <v>45250</v>
+        <v>45257</v>
       </c>
       <c r="BG5" s="31">
         <f ca="1">BF5+1</f>
-        <v>45251</v>
+        <v>45258</v>
       </c>
       <c r="BH5" s="31">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45252</v>
+        <v>45259</v>
       </c>
       <c r="BI5" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>45253</v>
+        <v>45260</v>
       </c>
       <c r="BJ5" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>45254</v>
+        <v>45261</v>
       </c>
       <c r="BK5" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="BL5" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>45256</v>
+        <v>45263</v>
       </c>
     </row>
     <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
-      <c r="B6" s="118"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="110"/>
       <c r="D6" s="110"/>
       <c r="E6" s="110"/>
@@ -2741,11 +2741,11 @@
       </c>
       <c r="E9" s="50">
         <f ca="1">Project_Start</f>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="F9" s="50">
         <f ca="1">E9+3</f>
-        <v>45207</v>
+        <v>45214</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="5">
@@ -2818,15 +2818,15 @@
         <v>24</v>
       </c>
       <c r="D10" s="54">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E10" s="50">
         <f ca="1">Project_Start</f>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="F10" s="50">
         <f ca="1">E10+3</f>
-        <v>45207</v>
+        <v>45214</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="5">
@@ -2903,11 +2903,11 @@
       </c>
       <c r="E11" s="55">
         <f ca="1">F10</f>
-        <v>45207</v>
+        <v>45214</v>
       </c>
       <c r="F11" s="55">
         <f ca="1">E11+4</f>
-        <v>45211</v>
+        <v>45218</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5">
@@ -2984,11 +2984,11 @@
       </c>
       <c r="E12" s="55">
         <f ca="1">F11</f>
-        <v>45211</v>
+        <v>45218</v>
       </c>
       <c r="F12" s="55">
         <f ca="1">E12+2</f>
-        <v>45213</v>
+        <v>45220</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="5">
@@ -3155,19 +3155,21 @@
       <c r="C15" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="64">
+        <v>0.7</v>
+      </c>
       <c r="E15" s="65">
-        <f>E13+1</f>
-        <v>45205</v>
+        <f>E13+7</f>
+        <v>45211</v>
       </c>
       <c r="F15" s="65">
-        <f>E15+4</f>
-        <v>45209</v>
+        <f>E15+3</f>
+        <v>45214</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="51"/>
@@ -3234,18 +3236,20 @@
       <c r="C16" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="64">
+        <v>1</v>
+      </c>
       <c r="E16" s="65">
-        <v>45205</v>
+        <v>45211</v>
       </c>
       <c r="F16" s="65">
-        <f>E16+5</f>
-        <v>45210</v>
+        <f>E16-3</f>
+        <v>45208</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="51"/>
@@ -3312,14 +3316,16 @@
       <c r="C17" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="64">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="65">
-        <f>F16</f>
-        <v>45210</v>
+        <f>E15</f>
+        <v>45211</v>
       </c>
       <c r="F17" s="65">
         <f>E17+3</f>
-        <v>45213</v>
+        <v>45214</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5">
@@ -3391,19 +3397,21 @@
       <c r="C18" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="64">
+        <v>1</v>
+      </c>
       <c r="E18" s="65">
         <f>E17</f>
-        <v>45210</v>
+        <v>45211</v>
       </c>
       <c r="F18" s="65">
-        <f>E18+2</f>
-        <v>45212</v>
+        <f>E18</f>
+        <v>45211</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="51"/>
@@ -3470,14 +3478,16 @@
       <c r="C19" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="64">
+        <v>0.9</v>
+      </c>
       <c r="E19" s="65">
         <f>E18</f>
-        <v>45210</v>
+        <v>45211</v>
       </c>
       <c r="F19" s="65">
         <f>E19+3</f>
-        <v>45213</v>
+        <v>45214</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="5">
@@ -3623,11 +3633,11 @@
       <c r="D21" s="74"/>
       <c r="E21" s="75">
         <f ca="1">E9+15</f>
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="F21" s="75">
         <f ca="1">E21+5</f>
-        <v>45224</v>
+        <v>45231</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="5">
@@ -4616,11 +4626,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AR3:AX3"/>
+    <mergeCell ref="AY3:BE3"/>
+    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="Q2:Z2"/>
     <mergeCell ref="Q1:Z1"/>
@@ -4629,19 +4647,11 @@
     <mergeCell ref="I3:O3"/>
     <mergeCell ref="P3:V3"/>
     <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AR3:AX3"/>
-    <mergeCell ref="AY3:BE3"/>
-    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="D7:D33">
@@ -4754,7 +4764,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F18 F28" formula="1"/>
+    <ignoredError sqref="F28" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4911,15 +4921,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F010965E38DD9C4C9BE78EF37B7A5F63" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e5a01bfcf6a1a5eee5a5ca1585b5a1a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00e6d9bda136d3704b372a6b2e4b23e5" ns3:_="">
     <xsd:import namespace="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca"/>
@@ -5057,6 +5058,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
@@ -5074,14 +5084,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A800D70D-3EC9-4DB9-B9D8-9E383CE8B438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5099,6 +5101,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Project Spyn Gantt Chart.xlsx
+++ b/Project Spyn Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tydng\Desktop\FSE-100-Team-4-Sheibanian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61AF071-C535-4150-9ED9-568683C9E2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30BFC49-D765-4C83-A223-307E081FCEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Project SPYN</t>
   </si>
@@ -142,12 +142,6 @@
   </si>
   <si>
     <t>Milestone 2 - Sensor Calibration</t>
-  </si>
-  <si>
-    <t>Get Familiar with Sound Sensor</t>
-  </si>
-  <si>
-    <t>Get famliar with Color Sensor</t>
   </si>
   <si>
     <t>Figure Out How to Pick Up Guy</t>
@@ -1136,22 +1130,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1163,14 +1154,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1862,8 +1856,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A12" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1889,29 +1883,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="115" t="s">
+      <c r="I1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="114">
-        <f ca="1">TODAY()</f>
-        <v>45211</v>
-      </c>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
+      <c r="Q1" s="113">
+        <v>45202</v>
+      </c>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="96" t="s">
@@ -1923,28 +1916,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="112">
+      <c r="Q2" s="111">
         <v>1</v>
       </c>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
     </row>
     <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -1953,78 +1946,78 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
-      <c r="I3" s="117" t="s">
+      <c r="I3" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="117" t="s">
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="117" t="s">
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="118"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="118"/>
-      <c r="AD3" s="117" t="s">
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="118"/>
-      <c r="AG3" s="118"/>
-      <c r="AH3" s="118"/>
-      <c r="AI3" s="118"/>
-      <c r="AJ3" s="118"/>
-      <c r="AK3" s="117" t="s">
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="118"/>
-      <c r="AM3" s="118"/>
-      <c r="AN3" s="118"/>
-      <c r="AO3" s="118"/>
-      <c r="AP3" s="118"/>
-      <c r="AQ3" s="118"/>
-      <c r="AR3" s="117" t="s">
+      <c r="AL3" s="107"/>
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="107"/>
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="107"/>
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="AS3" s="118"/>
-      <c r="AT3" s="118"/>
-      <c r="AU3" s="118"/>
-      <c r="AV3" s="118"/>
-      <c r="AW3" s="118"/>
-      <c r="AX3" s="118"/>
-      <c r="AY3" s="117" t="s">
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="107"/>
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="107"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="107"/>
+      <c r="AY3" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="AZ3" s="118"/>
-      <c r="BA3" s="118"/>
-      <c r="BB3" s="118"/>
-      <c r="BC3" s="118"/>
-      <c r="BD3" s="118"/>
-      <c r="BE3" s="118"/>
-      <c r="BF3" s="117" t="s">
+      <c r="AZ3" s="107"/>
+      <c r="BA3" s="107"/>
+      <c r="BB3" s="107"/>
+      <c r="BC3" s="107"/>
+      <c r="BD3" s="107"/>
+      <c r="BE3" s="107"/>
+      <c r="BF3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="BG3" s="118"/>
-      <c r="BH3" s="118"/>
-      <c r="BI3" s="118"/>
-      <c r="BJ3" s="118"/>
-      <c r="BK3" s="118"/>
-      <c r="BL3" s="118"/>
+      <c r="BG3" s="107"/>
+      <c r="BH3" s="107"/>
+      <c r="BI3" s="107"/>
+      <c r="BJ3" s="107"/>
+      <c r="BK3" s="107"/>
+      <c r="BL3" s="107"/>
     </row>
     <row r="4" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -2032,558 +2025,558 @@
         <v>14</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="I4" s="117">
-        <f ca="1">I5</f>
+      <c r="I4" s="106">
+        <f>I5</f>
+        <v>45201</v>
+      </c>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107">
+        <f>P5</f>
         <v>45208</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118">
-        <f ca="1">P5</f>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107">
+        <f>W5</f>
         <v>45215</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118">
-        <f ca="1">W5</f>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107">
+        <f>AD5</f>
         <v>45222</v>
       </c>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118">
-        <f ca="1">AD5</f>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107">
+        <f>AK5</f>
         <v>45229</v>
       </c>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="118">
-        <f ca="1">AK5</f>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107">
+        <f>AR5</f>
         <v>45236</v>
       </c>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118">
-        <f ca="1">AR5</f>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="107">
+        <f>AY5</f>
         <v>45243</v>
       </c>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="118">
-        <f ca="1">AY5</f>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="107">
+        <f>BF5</f>
         <v>45250</v>
       </c>
-      <c r="AZ4" s="118"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118">
-        <f ca="1">BF5</f>
-        <v>45257</v>
-      </c>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="119"/>
+      <c r="BG4" s="107"/>
+      <c r="BH4" s="107"/>
+      <c r="BI4" s="107"/>
+      <c r="BJ4" s="107"/>
+      <c r="BK4" s="107"/>
+      <c r="BL4" s="108"/>
     </row>
     <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107" t="s">
+      <c r="A5" s="116"/>
+      <c r="B5" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="109" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="31">
-        <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <v>45201</v>
+      </c>
+      <c r="J5" s="31">
+        <f>I5+1</f>
+        <v>45202</v>
+      </c>
+      <c r="K5" s="31">
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <v>45203</v>
+      </c>
+      <c r="L5" s="31">
+        <f t="shared" si="0"/>
+        <v>45204</v>
+      </c>
+      <c r="M5" s="31">
+        <f t="shared" si="0"/>
+        <v>45205</v>
+      </c>
+      <c r="N5" s="31">
+        <f t="shared" si="0"/>
+        <v>45206</v>
+      </c>
+      <c r="O5" s="32">
+        <f t="shared" si="0"/>
+        <v>45207</v>
+      </c>
+      <c r="P5" s="33">
+        <f>O5+1</f>
         <v>45208</v>
       </c>
-      <c r="J5" s="31">
-        <f ca="1">I5+1</f>
+      <c r="Q5" s="31">
+        <f>P5+1</f>
         <v>45209</v>
       </c>
-      <c r="K5" s="31">
-        <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
+      <c r="R5" s="31">
+        <f t="shared" si="0"/>
         <v>45210</v>
       </c>
-      <c r="L5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="S5" s="31">
+        <f t="shared" si="0"/>
         <v>45211</v>
       </c>
-      <c r="M5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="T5" s="31">
+        <f t="shared" si="0"/>
         <v>45212</v>
       </c>
-      <c r="N5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="U5" s="31">
+        <f t="shared" si="0"/>
         <v>45213</v>
       </c>
-      <c r="O5" s="32">
-        <f t="shared" ca="1" si="0"/>
+      <c r="V5" s="32">
+        <f t="shared" si="0"/>
         <v>45214</v>
       </c>
-      <c r="P5" s="33">
-        <f ca="1">O5+1</f>
+      <c r="W5" s="33">
+        <f>V5+1</f>
         <v>45215</v>
       </c>
-      <c r="Q5" s="31">
-        <f ca="1">P5+1</f>
+      <c r="X5" s="31">
+        <f>W5+1</f>
         <v>45216</v>
       </c>
-      <c r="R5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Y5" s="31">
+        <f t="shared" si="0"/>
         <v>45217</v>
       </c>
-      <c r="S5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Z5" s="31">
+        <f t="shared" si="0"/>
         <v>45218</v>
       </c>
-      <c r="T5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AA5" s="31">
+        <f t="shared" si="0"/>
         <v>45219</v>
       </c>
-      <c r="U5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AB5" s="31">
+        <f t="shared" si="0"/>
         <v>45220</v>
       </c>
-      <c r="V5" s="32">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AC5" s="32">
+        <f t="shared" si="0"/>
         <v>45221</v>
       </c>
-      <c r="W5" s="33">
-        <f ca="1">V5+1</f>
+      <c r="AD5" s="33">
+        <f>AC5+1</f>
         <v>45222</v>
       </c>
-      <c r="X5" s="31">
-        <f ca="1">W5+1</f>
+      <c r="AE5" s="31">
+        <f>AD5+1</f>
         <v>45223</v>
       </c>
-      <c r="Y5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AF5" s="31">
+        <f t="shared" si="0"/>
         <v>45224</v>
       </c>
-      <c r="Z5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AG5" s="31">
+        <f t="shared" si="0"/>
         <v>45225</v>
       </c>
-      <c r="AA5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AH5" s="31">
+        <f t="shared" si="0"/>
         <v>45226</v>
       </c>
-      <c r="AB5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AI5" s="31">
+        <f t="shared" si="0"/>
         <v>45227</v>
       </c>
-      <c r="AC5" s="32">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AJ5" s="32">
+        <f t="shared" si="0"/>
         <v>45228</v>
       </c>
-      <c r="AD5" s="33">
-        <f ca="1">AC5+1</f>
+      <c r="AK5" s="33">
+        <f>AJ5+1</f>
         <v>45229</v>
       </c>
-      <c r="AE5" s="31">
-        <f ca="1">AD5+1</f>
+      <c r="AL5" s="31">
+        <f>AK5+1</f>
         <v>45230</v>
       </c>
-      <c r="AF5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AM5" s="31">
+        <f t="shared" si="0"/>
         <v>45231</v>
       </c>
-      <c r="AG5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AN5" s="31">
+        <f t="shared" si="0"/>
         <v>45232</v>
       </c>
-      <c r="AH5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AO5" s="31">
+        <f t="shared" si="0"/>
         <v>45233</v>
       </c>
-      <c r="AI5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AP5" s="31">
+        <f t="shared" si="0"/>
         <v>45234</v>
       </c>
-      <c r="AJ5" s="32">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AQ5" s="32">
+        <f t="shared" si="0"/>
         <v>45235</v>
       </c>
-      <c r="AK5" s="33">
-        <f ca="1">AJ5+1</f>
+      <c r="AR5" s="33">
+        <f>AQ5+1</f>
         <v>45236</v>
       </c>
-      <c r="AL5" s="31">
-        <f ca="1">AK5+1</f>
+      <c r="AS5" s="31">
+        <f>AR5+1</f>
         <v>45237</v>
       </c>
-      <c r="AM5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AT5" s="31">
+        <f t="shared" si="0"/>
         <v>45238</v>
       </c>
-      <c r="AN5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AU5" s="31">
+        <f t="shared" si="0"/>
         <v>45239</v>
       </c>
-      <c r="AO5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AV5" s="31">
+        <f t="shared" si="0"/>
         <v>45240</v>
       </c>
-      <c r="AP5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AW5" s="31">
+        <f t="shared" si="0"/>
         <v>45241</v>
       </c>
-      <c r="AQ5" s="32">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AX5" s="32">
+        <f t="shared" si="0"/>
         <v>45242</v>
       </c>
-      <c r="AR5" s="33">
-        <f ca="1">AQ5+1</f>
+      <c r="AY5" s="33">
+        <f>AX5+1</f>
         <v>45243</v>
       </c>
-      <c r="AS5" s="31">
-        <f ca="1">AR5+1</f>
+      <c r="AZ5" s="31">
+        <f>AY5+1</f>
         <v>45244</v>
       </c>
-      <c r="AT5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BA5" s="31">
+        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45245</v>
       </c>
-      <c r="AU5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BB5" s="31">
+        <f t="shared" si="1"/>
         <v>45246</v>
       </c>
-      <c r="AV5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BC5" s="31">
+        <f t="shared" si="1"/>
         <v>45247</v>
       </c>
-      <c r="AW5" s="31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BD5" s="31">
+        <f t="shared" si="1"/>
         <v>45248</v>
       </c>
-      <c r="AX5" s="32">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BE5" s="32">
+        <f t="shared" si="1"/>
         <v>45249</v>
       </c>
-      <c r="AY5" s="33">
-        <f ca="1">AX5+1</f>
+      <c r="BF5" s="33">
+        <f>BE5+1</f>
         <v>45250</v>
       </c>
-      <c r="AZ5" s="31">
-        <f ca="1">AY5+1</f>
+      <c r="BG5" s="31">
+        <f>BF5+1</f>
         <v>45251</v>
       </c>
-      <c r="BA5" s="31">
-        <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
+      <c r="BH5" s="31">
+        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45252</v>
       </c>
-      <c r="BB5" s="31">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BI5" s="31">
+        <f t="shared" si="2"/>
         <v>45253</v>
       </c>
-      <c r="BC5" s="31">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BJ5" s="31">
+        <f t="shared" si="2"/>
         <v>45254</v>
       </c>
-      <c r="BD5" s="31">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BK5" s="31">
+        <f t="shared" si="2"/>
         <v>45255</v>
       </c>
-      <c r="BE5" s="32">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BL5" s="31">
+        <f t="shared" si="2"/>
         <v>45256</v>
       </c>
-      <c r="BF5" s="33">
-        <f ca="1">BE5+1</f>
-        <v>45257</v>
-      </c>
-      <c r="BG5" s="31">
-        <f ca="1">BF5+1</f>
-        <v>45258</v>
-      </c>
-      <c r="BH5" s="31">
-        <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45259</v>
-      </c>
-      <c r="BI5" s="31">
-        <f t="shared" ca="1" si="2"/>
-        <v>45260</v>
-      </c>
-      <c r="BJ5" s="31">
-        <f t="shared" ca="1" si="2"/>
-        <v>45261</v>
-      </c>
-      <c r="BK5" s="31">
-        <f t="shared" ca="1" si="2"/>
-        <v>45262</v>
-      </c>
-      <c r="BL5" s="31">
-        <f t="shared" ca="1" si="2"/>
-        <v>45263</v>
-      </c>
     </row>
     <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
-      <c r="B6" s="108"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="110"/>
       <c r="D6" s="110"/>
       <c r="E6" s="110"/>
       <c r="F6" s="110"/>
       <c r="I6" s="34" t="str">
-        <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
       <c r="K6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="L6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
       <c r="M6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="N6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
       <c r="O6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
       <c r="P6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>M</v>
       </c>
       <c r="Q6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
       <c r="R6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="S6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
       <c r="T6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="U6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
       <c r="V6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
       <c r="W6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>M</v>
       </c>
       <c r="X6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
       <c r="Y6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="Z6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
       <c r="AA6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="AB6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
       <c r="AC6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
       <c r="AD6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>M</v>
       </c>
       <c r="AE6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
       <c r="AF6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="AG6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
       <c r="AH6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="AI6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
       <c r="AJ6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
       <c r="AK6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>M</v>
       </c>
       <c r="AL6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
       <c r="AM6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="AN6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
       <c r="AO6" s="35" t="str">
-        <f t="shared" ref="AO6:BL6" ca="1" si="4">LEFT(TEXT(AO5,"ddd"),1)</f>
+        <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"ddd"),1)</f>
         <v>F</v>
       </c>
       <c r="AP6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AQ6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AR6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>M</v>
       </c>
       <c r="AS6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="AT6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="AU6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="AV6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AW6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AX6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AY6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>M</v>
       </c>
       <c r="AZ6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="BA6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="BB6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="BC6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="BD6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="BE6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="BF6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>M</v>
       </c>
       <c r="BG6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="BH6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="BI6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="BJ6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="BK6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="BL6" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
     </row>
@@ -2740,16 +2733,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="50">
-        <f ca="1">Project_Start</f>
-        <v>45211</v>
+        <f>Project_Start</f>
+        <v>45202</v>
       </c>
       <c r="F9" s="50">
-        <f ca="1">E9+3</f>
-        <v>45214</v>
+        <f>E9+3</f>
+        <v>45205</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I9" s="51"/>
@@ -2821,16 +2814,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="50">
-        <f ca="1">Project_Start</f>
-        <v>45211</v>
+        <f>Project_Start</f>
+        <v>45202</v>
       </c>
       <c r="F10" s="50">
-        <f ca="1">E10+3</f>
-        <v>45214</v>
+        <f>E10+3</f>
+        <v>45205</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I10" s="51"/>
@@ -2902,16 +2895,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="55">
-        <f ca="1">F10</f>
-        <v>45214</v>
+        <f>F10</f>
+        <v>45205</v>
       </c>
       <c r="F11" s="55">
-        <f ca="1">E11+4</f>
-        <v>45218</v>
+        <f>E11+4</f>
+        <v>45209</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I11" s="51"/>
@@ -2983,16 +2976,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="55">
-        <f ca="1">F11</f>
-        <v>45218</v>
+        <f>F11</f>
+        <v>45209</v>
       </c>
       <c r="F12" s="55">
-        <f ca="1">E12+2</f>
-        <v>45220</v>
+        <f>E12+2</f>
+        <v>45211</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I12" s="51"/>
@@ -3150,26 +3143,26 @@
     <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="62" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15" s="63" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="64">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E15" s="65">
         <f>E13+7</f>
         <v>45211</v>
       </c>
       <c r="F15" s="65">
-        <f>E15+3</f>
-        <v>45214</v>
+        <f>E15</f>
+        <v>45211</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="51"/>
@@ -3231,25 +3224,25 @@
     <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C16" s="63" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="64">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E16" s="65">
         <v>45211</v>
       </c>
       <c r="F16" s="65">
-        <f>E16-3</f>
-        <v>45208</v>
+        <f>E16+3</f>
+        <v>45214</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="5">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="51"/>
@@ -3311,13 +3304,13 @@
     <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="63" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="64">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="E17" s="65">
         <f>E15</f>
@@ -3392,26 +3385,26 @@
     <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="63" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="64">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E18" s="65">
         <f>E17</f>
         <v>45211</v>
       </c>
       <c r="F18" s="65">
-        <f>E18</f>
-        <v>45211</v>
+        <f>E18+2</f>
+        <v>45213</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="51"/>
@@ -3473,26 +3466,26 @@
     <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="63" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="64">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E19" s="65">
-        <f>E18</f>
-        <v>45211</v>
+        <f>E18-2</f>
+        <v>45209</v>
       </c>
       <c r="F19" s="65">
-        <f>E19+3</f>
-        <v>45214</v>
+        <f>E19</f>
+        <v>45209</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
@@ -3554,7 +3547,7 @@
     <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="67"/>
       <c r="D20" s="68"/>
@@ -3625,23 +3618,23 @@
     <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="73" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="74"/>
       <c r="E21" s="75">
-        <f ca="1">E9+15</f>
-        <v>45226</v>
+        <f>$E$9+15</f>
+        <v>45217</v>
       </c>
       <c r="F21" s="75">
-        <f ca="1">E21+5</f>
-        <v>45231</v>
+        <f>E21+5</f>
+        <v>45222</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I21" s="51"/>
@@ -3704,14 +3697,15 @@
     <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="73" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="74"/>
       <c r="E22" s="75">
-        <v>45210</v>
+        <f t="shared" ref="E22:E25" si="6">$E$9+15</f>
+        <v>45217</v>
       </c>
       <c r="F22" s="75">
         <v>45215</v>
@@ -3719,7 +3713,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
@@ -3781,14 +3775,15 @@
     <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="73" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="74"/>
       <c r="E23" s="75">
-        <v>45210</v>
+        <f t="shared" si="6"/>
+        <v>45217</v>
       </c>
       <c r="F23" s="75">
         <v>45215</v>
@@ -3796,7 +3791,7 @@
       <c r="G23" s="17"/>
       <c r="H23" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I23" s="51"/>
       <c r="J23" s="51"/>
@@ -3858,18 +3853,19 @@
     <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="73" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="74"/>
       <c r="E24" s="75">
-        <v>45215</v>
+        <f t="shared" si="6"/>
+        <v>45217</v>
       </c>
       <c r="F24" s="75">
         <f>E24+4</f>
-        <v>45219</v>
+        <v>45221</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5">
@@ -3936,18 +3932,19 @@
     <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="73" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="74"/>
       <c r="E25" s="75">
-        <v>45215</v>
+        <f t="shared" si="6"/>
+        <v>45217</v>
       </c>
       <c r="F25" s="75">
         <f>E25+4</f>
-        <v>45219</v>
+        <v>45221</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5">
@@ -4013,7 +4010,7 @@
     <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="78"/>
@@ -4084,7 +4081,7 @@
     <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="83" t="s">
         <v>30</v>
@@ -4162,7 +4159,7 @@
     <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="83" t="s">
         <v>2</v>
@@ -4241,7 +4238,7 @@
     <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="83" t="s">
         <v>26</v>
@@ -4320,7 +4317,7 @@
     <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="83" t="s">
         <v>28</v>
@@ -4399,7 +4396,7 @@
     <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" s="83" t="s">
         <v>24</v>
@@ -4546,7 +4543,7 @@
     <row r="33" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="91"/>
       <c r="D33" s="92"/>
@@ -4626,11 +4623,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AR3:AX3"/>
-    <mergeCell ref="AY3:BE3"/>
-    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="W3:AC3"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4639,19 +4644,11 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:V3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AR3:AX3"/>
+    <mergeCell ref="AY3:BE3"/>
+    <mergeCell ref="BF3:BL3"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="D7:D33">
@@ -4815,67 +4812,67 @@
     </row>
     <row r="4" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A4" s="101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="102" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="101" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="7" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A8" s="101" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="102" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="7" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="104" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A11" s="101" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="102" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="7" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="104" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A14" s="101" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="102" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A16" s="102" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -4921,6 +4918,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F010965E38DD9C4C9BE78EF37B7A5F63" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e5a01bfcf6a1a5eee5a5ca1585b5a1a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00e6d9bda136d3704b372a6b2e4b23e5" ns3:_="">
     <xsd:import namespace="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca"/>
@@ -5058,15 +5064,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
@@ -5084,6 +5081,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A800D70D-3EC9-4DB9-B9D8-9E383CE8B438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5101,14 +5106,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Project Spyn Gantt Chart.xlsx
+++ b/Project Spyn Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tydng\Desktop\FSE-100-Team-4-Sheibanian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30BFC49-D765-4C83-A223-307E081FCEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E02CBBF-9A9F-4D66-AABA-2BA5D79DE4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -1856,8 +1856,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A12" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3623,7 +3623,9 @@
       <c r="C21" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="74"/>
+      <c r="D21" s="74">
+        <v>0</v>
+      </c>
       <c r="E21" s="75">
         <f>$E$9+15</f>
         <v>45217</v>
@@ -3702,7 +3704,9 @@
       <c r="C22" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="74"/>
+      <c r="D22" s="74">
+        <v>0</v>
+      </c>
       <c r="E22" s="75">
         <f t="shared" ref="E22:E25" si="6">$E$9+15</f>
         <v>45217</v>
@@ -3780,7 +3784,9 @@
       <c r="C23" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="74"/>
+      <c r="D23" s="74">
+        <v>0</v>
+      </c>
       <c r="E23" s="75">
         <f t="shared" si="6"/>
         <v>45217</v>
@@ -3858,7 +3864,9 @@
       <c r="C24" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="74"/>
+      <c r="D24" s="74">
+        <v>0</v>
+      </c>
       <c r="E24" s="75">
         <f t="shared" si="6"/>
         <v>45217</v>
@@ -3937,7 +3945,9 @@
       <c r="C25" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="74"/>
+      <c r="D25" s="74">
+        <v>0</v>
+      </c>
       <c r="E25" s="75">
         <f t="shared" si="6"/>
         <v>45217</v>
@@ -4086,7 +4096,9 @@
       <c r="C27" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="84"/>
+      <c r="D27" s="84">
+        <v>0</v>
+      </c>
       <c r="E27" s="85">
         <v>45219</v>
       </c>
@@ -4164,7 +4176,9 @@
       <c r="C28" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="84"/>
+      <c r="D28" s="84">
+        <v>0</v>
+      </c>
       <c r="E28" s="85">
         <f>F27</f>
         <v>45222</v>
@@ -4243,7 +4257,9 @@
       <c r="C29" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="84"/>
+      <c r="D29" s="84">
+        <v>0</v>
+      </c>
       <c r="E29" s="85">
         <f>F28+1</f>
         <v>45227</v>
@@ -4322,7 +4338,9 @@
       <c r="C30" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="84"/>
+      <c r="D30" s="84">
+        <v>0</v>
+      </c>
       <c r="E30" s="85">
         <f>E27+5</f>
         <v>45224</v>
@@ -4401,7 +4419,9 @@
       <c r="C31" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="84"/>
+      <c r="D31" s="84">
+        <v>0</v>
+      </c>
       <c r="E31" s="85">
         <f>E27+7</f>
         <v>45226</v>

--- a/Project Spyn Gantt Chart.xlsx
+++ b/Project Spyn Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tydng\Desktop\FSE-100-Team-4-Sheibanian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E02CBBF-9A9F-4D66-AABA-2BA5D79DE4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCABC72-99B1-4C65-BE25-993D223A1441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>Project SPYN</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Businesses will find invoices, time sheets, inventory trackers, financial statements, and project planning templates. Teachers and students will find resources such as class schedules, grade books, and attendance sheets. Organize your family life with meal planners, checklists, and exercise logs. Each template is thoroughly researched, refined, and improved over time through feedback from thousands of users.</t>
+  </si>
+  <si>
+    <t>Integrate ball bearing Into Car</t>
   </si>
 </sst>
 </file>
@@ -835,15 +838,12 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1130,19 +1130,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1154,17 +1157,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1182,7 +1182,43 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="28">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1491,15 +1527,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="totalRow" dxfId="22"/>
-      <tableStyleElement type="firstColumn" dxfId="21"/>
-      <tableStyleElement type="lastColumn" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="firstColumn" dxfId="24"/>
+      <tableStyleElement type="lastColumn" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="secondRowStripe" dxfId="21"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="19"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1856,13 +1892,13 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B14" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="13" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="12" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
@@ -1874,14 +1910,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A1" s="14"/>
-      <c r="B1" s="98" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
       <c r="H1" s="1"/>
       <c r="I1" s="114" t="s">
         <v>1</v>
@@ -1892,7 +1928,7 @@
       <c r="M1" s="115"/>
       <c r="N1" s="115"/>
       <c r="O1" s="115"/>
-      <c r="P1" s="24"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="113">
         <v>45202</v>
       </c>
@@ -1907,15 +1943,15 @@
       <c r="Z1" s="112"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21"/>
       <c r="I2" s="114" t="s">
         <v>4</v>
       </c>
@@ -1925,7 +1961,7 @@
       <c r="M2" s="115"/>
       <c r="N2" s="115"/>
       <c r="O2" s="115"/>
-      <c r="P2" s="24"/>
+      <c r="P2" s="23"/>
       <c r="Q2" s="111">
         <v>1</v>
       </c>
@@ -1939,2715 +1975,2800 @@
       <c r="Y2" s="112"/>
       <c r="Z2" s="112"/>
     </row>
-    <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="I3" s="106" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="I3" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="106" t="s">
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="106" t="s">
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="106" t="s">
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="106" t="s">
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="107"/>
-      <c r="AM3" s="107"/>
-      <c r="AN3" s="107"/>
-      <c r="AO3" s="107"/>
-      <c r="AP3" s="107"/>
-      <c r="AQ3" s="107"/>
-      <c r="AR3" s="106" t="s">
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="117"/>
+      <c r="AN3" s="117"/>
+      <c r="AO3" s="117"/>
+      <c r="AP3" s="117"/>
+      <c r="AQ3" s="117"/>
+      <c r="AR3" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="AS3" s="107"/>
-      <c r="AT3" s="107"/>
-      <c r="AU3" s="107"/>
-      <c r="AV3" s="107"/>
-      <c r="AW3" s="107"/>
-      <c r="AX3" s="107"/>
-      <c r="AY3" s="106" t="s">
+      <c r="AS3" s="117"/>
+      <c r="AT3" s="117"/>
+      <c r="AU3" s="117"/>
+      <c r="AV3" s="117"/>
+      <c r="AW3" s="117"/>
+      <c r="AX3" s="117"/>
+      <c r="AY3" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="AZ3" s="107"/>
-      <c r="BA3" s="107"/>
-      <c r="BB3" s="107"/>
-      <c r="BC3" s="107"/>
-      <c r="BD3" s="107"/>
-      <c r="BE3" s="107"/>
-      <c r="BF3" s="106" t="s">
+      <c r="AZ3" s="117"/>
+      <c r="BA3" s="117"/>
+      <c r="BB3" s="117"/>
+      <c r="BC3" s="117"/>
+      <c r="BD3" s="117"/>
+      <c r="BE3" s="117"/>
+      <c r="BF3" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="BG3" s="107"/>
-      <c r="BH3" s="107"/>
-      <c r="BI3" s="107"/>
-      <c r="BJ3" s="107"/>
-      <c r="BK3" s="107"/>
-      <c r="BL3" s="107"/>
-    </row>
-    <row r="4" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="29" t="s">
+      <c r="BG3" s="117"/>
+      <c r="BH3" s="117"/>
+      <c r="BI3" s="117"/>
+      <c r="BJ3" s="117"/>
+      <c r="BK3" s="117"/>
+      <c r="BL3" s="117"/>
+    </row>
+    <row r="4" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="I4" s="106">
+      <c r="E4" s="29"/>
+      <c r="I4" s="116">
         <f>I5</f>
         <v>45201</v>
       </c>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107">
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117">
         <f>P5</f>
         <v>45208</v>
       </c>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107">
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117">
         <f>W5</f>
         <v>45215</v>
       </c>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107">
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117">
         <f>AD5</f>
         <v>45222</v>
       </c>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
-      <c r="AK4" s="107">
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="117"/>
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="117">
         <f>AK5</f>
         <v>45229</v>
       </c>
-      <c r="AL4" s="107"/>
-      <c r="AM4" s="107"/>
-      <c r="AN4" s="107"/>
-      <c r="AO4" s="107"/>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="107"/>
-      <c r="AR4" s="107">
+      <c r="AL4" s="117"/>
+      <c r="AM4" s="117"/>
+      <c r="AN4" s="117"/>
+      <c r="AO4" s="117"/>
+      <c r="AP4" s="117"/>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="117">
         <f>AR5</f>
         <v>45236</v>
       </c>
-      <c r="AS4" s="107"/>
-      <c r="AT4" s="107"/>
-      <c r="AU4" s="107"/>
-      <c r="AV4" s="107"/>
-      <c r="AW4" s="107"/>
-      <c r="AX4" s="107"/>
-      <c r="AY4" s="107">
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="117"/>
+      <c r="AX4" s="117"/>
+      <c r="AY4" s="117">
         <f>AY5</f>
         <v>45243</v>
       </c>
-      <c r="AZ4" s="107"/>
-      <c r="BA4" s="107"/>
-      <c r="BB4" s="107"/>
-      <c r="BC4" s="107"/>
-      <c r="BD4" s="107"/>
-      <c r="BE4" s="107"/>
-      <c r="BF4" s="107">
+      <c r="AZ4" s="117"/>
+      <c r="BA4" s="117"/>
+      <c r="BB4" s="117"/>
+      <c r="BC4" s="117"/>
+      <c r="BD4" s="117"/>
+      <c r="BE4" s="117"/>
+      <c r="BF4" s="117">
         <f>BF5</f>
         <v>45250</v>
       </c>
-      <c r="BG4" s="107"/>
-      <c r="BH4" s="107"/>
-      <c r="BI4" s="107"/>
-      <c r="BJ4" s="107"/>
-      <c r="BK4" s="107"/>
-      <c r="BL4" s="108"/>
-    </row>
-    <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117" t="s">
+      <c r="BG4" s="117"/>
+      <c r="BH4" s="117"/>
+      <c r="BI4" s="117"/>
+      <c r="BJ4" s="117"/>
+      <c r="BK4" s="117"/>
+      <c r="BL4" s="118"/>
+    </row>
+    <row r="5" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="105"/>
+      <c r="B5" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="30">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45201</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="30">
         <f>I5+1</f>
         <v>45202</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="30">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
         <v>45203</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="30">
         <f t="shared" si="0"/>
         <v>45204</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="30">
         <f t="shared" si="0"/>
         <v>45205</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="30">
         <f t="shared" si="0"/>
         <v>45206</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="31">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="32">
         <f>O5+1</f>
         <v>45208</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="30">
         <f>P5+1</f>
         <v>45209</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="30">
         <f t="shared" si="0"/>
         <v>45210</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="30">
         <f t="shared" si="0"/>
         <v>45211</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="30">
         <f t="shared" si="0"/>
         <v>45212</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="30">
         <f t="shared" si="0"/>
         <v>45213</v>
       </c>
-      <c r="V5" s="32">
+      <c r="V5" s="31">
         <f t="shared" si="0"/>
         <v>45214</v>
       </c>
-      <c r="W5" s="33">
+      <c r="W5" s="32">
         <f>V5+1</f>
         <v>45215</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="30">
         <f>W5+1</f>
         <v>45216</v>
       </c>
-      <c r="Y5" s="31">
+      <c r="Y5" s="30">
         <f t="shared" si="0"/>
         <v>45217</v>
       </c>
-      <c r="Z5" s="31">
+      <c r="Z5" s="30">
         <f t="shared" si="0"/>
         <v>45218</v>
       </c>
-      <c r="AA5" s="31">
+      <c r="AA5" s="30">
         <f t="shared" si="0"/>
         <v>45219</v>
       </c>
-      <c r="AB5" s="31">
+      <c r="AB5" s="30">
         <f t="shared" si="0"/>
         <v>45220</v>
       </c>
-      <c r="AC5" s="32">
+      <c r="AC5" s="31">
         <f t="shared" si="0"/>
         <v>45221</v>
       </c>
-      <c r="AD5" s="33">
+      <c r="AD5" s="32">
         <f>AC5+1</f>
         <v>45222</v>
       </c>
-      <c r="AE5" s="31">
+      <c r="AE5" s="30">
         <f>AD5+1</f>
         <v>45223</v>
       </c>
-      <c r="AF5" s="31">
+      <c r="AF5" s="30">
         <f t="shared" si="0"/>
         <v>45224</v>
       </c>
-      <c r="AG5" s="31">
+      <c r="AG5" s="30">
         <f t="shared" si="0"/>
         <v>45225</v>
       </c>
-      <c r="AH5" s="31">
+      <c r="AH5" s="30">
         <f t="shared" si="0"/>
         <v>45226</v>
       </c>
-      <c r="AI5" s="31">
+      <c r="AI5" s="30">
         <f t="shared" si="0"/>
         <v>45227</v>
       </c>
-      <c r="AJ5" s="32">
+      <c r="AJ5" s="31">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
-      <c r="AK5" s="33">
+      <c r="AK5" s="32">
         <f>AJ5+1</f>
         <v>45229</v>
       </c>
-      <c r="AL5" s="31">
+      <c r="AL5" s="30">
         <f>AK5+1</f>
         <v>45230</v>
       </c>
-      <c r="AM5" s="31">
+      <c r="AM5" s="30">
         <f t="shared" si="0"/>
         <v>45231</v>
       </c>
-      <c r="AN5" s="31">
+      <c r="AN5" s="30">
         <f t="shared" si="0"/>
         <v>45232</v>
       </c>
-      <c r="AO5" s="31">
+      <c r="AO5" s="30">
         <f t="shared" si="0"/>
         <v>45233</v>
       </c>
-      <c r="AP5" s="31">
+      <c r="AP5" s="30">
         <f t="shared" si="0"/>
         <v>45234</v>
       </c>
-      <c r="AQ5" s="32">
+      <c r="AQ5" s="31">
         <f t="shared" si="0"/>
         <v>45235</v>
       </c>
-      <c r="AR5" s="33">
+      <c r="AR5" s="32">
         <f>AQ5+1</f>
         <v>45236</v>
       </c>
-      <c r="AS5" s="31">
+      <c r="AS5" s="30">
         <f>AR5+1</f>
         <v>45237</v>
       </c>
-      <c r="AT5" s="31">
+      <c r="AT5" s="30">
         <f t="shared" si="0"/>
         <v>45238</v>
       </c>
-      <c r="AU5" s="31">
+      <c r="AU5" s="30">
         <f t="shared" si="0"/>
         <v>45239</v>
       </c>
-      <c r="AV5" s="31">
+      <c r="AV5" s="30">
         <f t="shared" si="0"/>
         <v>45240</v>
       </c>
-      <c r="AW5" s="31">
+      <c r="AW5" s="30">
         <f t="shared" si="0"/>
         <v>45241</v>
       </c>
-      <c r="AX5" s="32">
+      <c r="AX5" s="31">
         <f t="shared" si="0"/>
         <v>45242</v>
       </c>
-      <c r="AY5" s="33">
+      <c r="AY5" s="32">
         <f>AX5+1</f>
         <v>45243</v>
       </c>
-      <c r="AZ5" s="31">
+      <c r="AZ5" s="30">
         <f>AY5+1</f>
         <v>45244</v>
       </c>
-      <c r="BA5" s="31">
+      <c r="BA5" s="30">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45245</v>
       </c>
-      <c r="BB5" s="31">
+      <c r="BB5" s="30">
         <f t="shared" si="1"/>
         <v>45246</v>
       </c>
-      <c r="BC5" s="31">
+      <c r="BC5" s="30">
         <f t="shared" si="1"/>
         <v>45247</v>
       </c>
-      <c r="BD5" s="31">
+      <c r="BD5" s="30">
         <f t="shared" si="1"/>
         <v>45248</v>
       </c>
-      <c r="BE5" s="32">
+      <c r="BE5" s="31">
         <f t="shared" si="1"/>
         <v>45249</v>
       </c>
-      <c r="BF5" s="33">
+      <c r="BF5" s="32">
         <f>BE5+1</f>
         <v>45250</v>
       </c>
-      <c r="BG5" s="31">
+      <c r="BG5" s="30">
         <f>BF5+1</f>
         <v>45251</v>
       </c>
-      <c r="BH5" s="31">
+      <c r="BH5" s="30">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45252</v>
       </c>
-      <c r="BI5" s="31">
+      <c r="BI5" s="30">
         <f t="shared" si="2"/>
         <v>45253</v>
       </c>
-      <c r="BJ5" s="31">
+      <c r="BJ5" s="30">
         <f t="shared" si="2"/>
         <v>45254</v>
       </c>
-      <c r="BK5" s="31">
+      <c r="BK5" s="30">
         <f t="shared" si="2"/>
         <v>45255</v>
       </c>
-      <c r="BL5" s="31">
+      <c r="BL5" s="30">
         <f t="shared" si="2"/>
         <v>45256</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="I6" s="34" t="str">
+    <row r="6" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="105"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="I6" s="33" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="J6" s="35" t="str">
+      <c r="J6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="K6" s="35" t="str">
+      <c r="K6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="L6" s="35" t="str">
+      <c r="L6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="M6" s="35" t="str">
+      <c r="M6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="N6" s="35" t="str">
+      <c r="N6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="O6" s="35" t="str">
+      <c r="O6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="P6" s="35" t="str">
+      <c r="P6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="Q6" s="35" t="str">
+      <c r="Q6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="R6" s="35" t="str">
+      <c r="R6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="S6" s="35" t="str">
+      <c r="S6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="T6" s="35" t="str">
+      <c r="T6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="U6" s="35" t="str">
+      <c r="U6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="V6" s="35" t="str">
+      <c r="V6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="W6" s="35" t="str">
+      <c r="W6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="X6" s="35" t="str">
+      <c r="X6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="Y6" s="35" t="str">
+      <c r="Y6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="Z6" s="35" t="str">
+      <c r="Z6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AA6" s="35" t="str">
+      <c r="AA6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="AB6" s="35" t="str">
+      <c r="AB6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AC6" s="35" t="str">
+      <c r="AC6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AD6" s="35" t="str">
+      <c r="AD6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="AE6" s="35" t="str">
+      <c r="AE6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AF6" s="35" t="str">
+      <c r="AF6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="AG6" s="35" t="str">
+      <c r="AG6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AH6" s="35" t="str">
+      <c r="AH6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="AI6" s="35" t="str">
+      <c r="AI6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AJ6" s="35" t="str">
+      <c r="AJ6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AK6" s="35" t="str">
+      <c r="AK6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="AL6" s="35" t="str">
+      <c r="AL6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AM6" s="35" t="str">
+      <c r="AM6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="AN6" s="35" t="str">
+      <c r="AN6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AO6" s="35" t="str">
+      <c r="AO6" s="34" t="str">
         <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="AP6" s="35" t="str">
+      <c r="AP6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AQ6" s="35" t="str">
+      <c r="AQ6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AR6" s="35" t="str">
+      <c r="AR6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AS6" s="35" t="str">
+      <c r="AS6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AT6" s="35" t="str">
+      <c r="AT6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AU6" s="35" t="str">
+      <c r="AU6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AV6" s="35" t="str">
+      <c r="AV6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AW6" s="35" t="str">
+      <c r="AW6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AX6" s="35" t="str">
+      <c r="AX6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AY6" s="35" t="str">
+      <c r="AY6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AZ6" s="35" t="str">
+      <c r="AZ6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BA6" s="35" t="str">
+      <c r="BA6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="BB6" s="35" t="str">
+      <c r="BB6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BC6" s="35" t="str">
+      <c r="BC6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="BD6" s="35" t="str">
+      <c r="BD6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BE6" s="35" t="str">
+      <c r="BE6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BF6" s="35" t="str">
+      <c r="BF6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="BG6" s="35" t="str">
+      <c r="BG6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BH6" s="35" t="str">
+      <c r="BH6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="BI6" s="35" t="str">
+      <c r="BI6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BJ6" s="35" t="str">
+      <c r="BJ6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="BK6" s="35" t="str">
+      <c r="BK6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BL6" s="36" t="str">
+      <c r="BL6" s="35" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" s="26" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="H7" s="26" t="str">
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="H7" s="25" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="39"/>
-      <c r="AX7" s="39"/>
-      <c r="AY7" s="39"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
-      <c r="BB7" s="39"/>
-      <c r="BC7" s="39"/>
-      <c r="BD7" s="39"/>
-      <c r="BE7" s="39"/>
-      <c r="BF7" s="39"/>
-      <c r="BG7" s="39"/>
-      <c r="BH7" s="39"/>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="39"/>
-      <c r="BL7" s="39"/>
-    </row>
-    <row r="8" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="40" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="38"/>
+      <c r="AY7" s="38"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="38"/>
+      <c r="BB7" s="38"/>
+      <c r="BC7" s="38"/>
+      <c r="BD7" s="38"/>
+      <c r="BE7" s="38"/>
+      <c r="BF7" s="38"/>
+      <c r="BG7" s="38"/>
+      <c r="BH7" s="38"/>
+      <c r="BI7" s="38"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="38"/>
+      <c r="BL7" s="38"/>
+    </row>
+    <row r="8" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="5" t="str">
-        <f t="shared" ref="H8:H33" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="4" t="str">
+        <f t="shared" ref="H8:H34" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="45"/>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45"/>
-      <c r="BD8" s="45"/>
-      <c r="BE8" s="45"/>
-      <c r="BF8" s="45"/>
-      <c r="BG8" s="45"/>
-      <c r="BH8" s="45"/>
-      <c r="BI8" s="45"/>
-      <c r="BJ8" s="45"/>
-      <c r="BK8" s="45"/>
-      <c r="BL8" s="45"/>
-    </row>
-    <row r="9" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="47" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="44"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="44"/>
+      <c r="BA8" s="44"/>
+      <c r="BB8" s="44"/>
+      <c r="BC8" s="44"/>
+      <c r="BD8" s="44"/>
+      <c r="BE8" s="44"/>
+      <c r="BF8" s="44"/>
+      <c r="BG8" s="44"/>
+      <c r="BH8" s="44"/>
+      <c r="BI8" s="44"/>
+      <c r="BJ8" s="44"/>
+      <c r="BK8" s="44"/>
+      <c r="BL8" s="44"/>
+    </row>
+    <row r="9" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>1</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="49">
         <f>Project_Start</f>
         <v>45202</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="49">
         <f>E9+3</f>
         <v>45205</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="5">
+      <c r="G9" s="16"/>
+      <c r="H9" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="51"/>
-      <c r="AS9" s="51"/>
-      <c r="AT9" s="51"/>
-      <c r="AU9" s="51"/>
-      <c r="AV9" s="51"/>
-      <c r="AW9" s="51"/>
-      <c r="AX9" s="51"/>
-      <c r="AY9" s="51"/>
-      <c r="AZ9" s="51"/>
-      <c r="BA9" s="51"/>
-      <c r="BB9" s="51"/>
-      <c r="BC9" s="51"/>
-      <c r="BD9" s="51"/>
-      <c r="BE9" s="51"/>
-      <c r="BF9" s="51"/>
-      <c r="BG9" s="51"/>
-      <c r="BH9" s="51"/>
-      <c r="BI9" s="51"/>
-      <c r="BJ9" s="51"/>
-      <c r="BK9" s="51"/>
-      <c r="BL9" s="51"/>
-    </row>
-    <row r="10" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="52" t="s">
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="50"/>
+      <c r="AX9" s="50"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="50"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="50"/>
+      <c r="BD9" s="50"/>
+      <c r="BE9" s="50"/>
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="50"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="50"/>
+      <c r="BJ9" s="50"/>
+      <c r="BK9" s="50"/>
+      <c r="BL9" s="50"/>
+    </row>
+    <row r="10" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="53">
         <v>1</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="49">
         <f>Project_Start</f>
         <v>45202</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="49">
         <f>E10+3</f>
         <v>45205</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="5">
+      <c r="G10" s="16"/>
+      <c r="H10" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="51"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="51"/>
-      <c r="AX10" s="51"/>
-      <c r="AY10" s="51"/>
-      <c r="AZ10" s="51"/>
-      <c r="BA10" s="51"/>
-      <c r="BB10" s="51"/>
-      <c r="BC10" s="51"/>
-      <c r="BD10" s="51"/>
-      <c r="BE10" s="51"/>
-      <c r="BF10" s="51"/>
-      <c r="BG10" s="51"/>
-      <c r="BH10" s="51"/>
-      <c r="BI10" s="51"/>
-      <c r="BJ10" s="51"/>
-      <c r="BK10" s="51"/>
-      <c r="BL10" s="51"/>
-    </row>
-    <row r="11" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="52" t="s">
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="50"/>
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="50"/>
+      <c r="AX10" s="50"/>
+      <c r="AY10" s="50"/>
+      <c r="AZ10" s="50"/>
+      <c r="BA10" s="50"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="50"/>
+      <c r="BD10" s="50"/>
+      <c r="BE10" s="50"/>
+      <c r="BF10" s="50"/>
+      <c r="BG10" s="50"/>
+      <c r="BH10" s="50"/>
+      <c r="BI10" s="50"/>
+      <c r="BJ10" s="50"/>
+      <c r="BK10" s="50"/>
+      <c r="BL10" s="50"/>
+    </row>
+    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="53">
         <v>1</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="54">
         <f>F10</f>
         <v>45205</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="54">
         <f>E11+4</f>
         <v>45209</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="5">
+      <c r="G11" s="16"/>
+      <c r="H11" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="51"/>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="51"/>
-      <c r="AK11" s="51"/>
-      <c r="AL11" s="51"/>
-      <c r="AM11" s="51"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="51"/>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="51"/>
-      <c r="AR11" s="51"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="51"/>
-      <c r="AU11" s="51"/>
-      <c r="AV11" s="51"/>
-      <c r="AW11" s="51"/>
-      <c r="AX11" s="51"/>
-      <c r="AY11" s="51"/>
-      <c r="AZ11" s="51"/>
-      <c r="BA11" s="51"/>
-      <c r="BB11" s="51"/>
-      <c r="BC11" s="51"/>
-      <c r="BD11" s="51"/>
-      <c r="BE11" s="51"/>
-      <c r="BF11" s="51"/>
-      <c r="BG11" s="51"/>
-      <c r="BH11" s="51"/>
-      <c r="BI11" s="51"/>
-      <c r="BJ11" s="51"/>
-      <c r="BK11" s="51"/>
-      <c r="BL11" s="51"/>
-    </row>
-    <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="52" t="s">
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="50"/>
+      <c r="AX11" s="50"/>
+      <c r="AY11" s="50"/>
+      <c r="AZ11" s="50"/>
+      <c r="BA11" s="50"/>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="50"/>
+      <c r="BD11" s="50"/>
+      <c r="BE11" s="50"/>
+      <c r="BF11" s="50"/>
+      <c r="BG11" s="50"/>
+      <c r="BH11" s="50"/>
+      <c r="BI11" s="50"/>
+      <c r="BJ11" s="50"/>
+      <c r="BK11" s="50"/>
+      <c r="BL11" s="50"/>
+    </row>
+    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="53">
         <v>1</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="54">
         <f>F11</f>
         <v>45209</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="54">
         <f>E12+2</f>
         <v>45211</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="5">
+      <c r="G12" s="16"/>
+      <c r="H12" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="51"/>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
-      <c r="BB12" s="51"/>
-      <c r="BC12" s="51"/>
-      <c r="BD12" s="51"/>
-      <c r="BE12" s="51"/>
-      <c r="BF12" s="51"/>
-      <c r="BG12" s="51"/>
-      <c r="BH12" s="51"/>
-      <c r="BI12" s="51"/>
-      <c r="BJ12" s="51"/>
-      <c r="BK12" s="51"/>
-      <c r="BL12" s="51"/>
-    </row>
-    <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="52" t="s">
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="50"/>
+      <c r="BD12" s="50"/>
+      <c r="BE12" s="50"/>
+      <c r="BF12" s="50"/>
+      <c r="BG12" s="50"/>
+      <c r="BH12" s="50"/>
+      <c r="BI12" s="50"/>
+      <c r="BJ12" s="50"/>
+      <c r="BK12" s="50"/>
+      <c r="BL12" s="50"/>
+    </row>
+    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="53">
         <v>1</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="54">
         <v>45204</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="54">
         <f>E13+2</f>
         <v>45206</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="5">
+      <c r="G13" s="16"/>
+      <c r="H13" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="51"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="51"/>
-      <c r="AZ13" s="51"/>
-      <c r="BA13" s="51"/>
-      <c r="BB13" s="51"/>
-      <c r="BC13" s="51"/>
-      <c r="BD13" s="51"/>
-      <c r="BE13" s="51"/>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="51"/>
-      <c r="BH13" s="51"/>
-      <c r="BI13" s="51"/>
-      <c r="BJ13" s="51"/>
-      <c r="BK13" s="51"/>
-      <c r="BL13" s="51"/>
-    </row>
-    <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="57" t="s">
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="50"/>
+      <c r="AX13" s="50"/>
+      <c r="AY13" s="50"/>
+      <c r="AZ13" s="50"/>
+      <c r="BA13" s="50"/>
+      <c r="BB13" s="50"/>
+      <c r="BC13" s="50"/>
+      <c r="BD13" s="50"/>
+      <c r="BE13" s="50"/>
+      <c r="BF13" s="50"/>
+      <c r="BG13" s="50"/>
+      <c r="BH13" s="50"/>
+      <c r="BI13" s="50"/>
+      <c r="BJ13" s="50"/>
+      <c r="BK13" s="50"/>
+      <c r="BL13" s="50"/>
+    </row>
+    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="5" t="str">
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="62" t="s">
+    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="64">
-        <v>1</v>
-      </c>
-      <c r="E15" s="65">
+      <c r="D15" s="63">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="64">
         <f>E13+7</f>
         <v>45211</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="64">
+        <f>E15+13</f>
+        <v>45224</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="4">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="50"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="50"/>
+      <c r="BA15" s="50"/>
+      <c r="BB15" s="50"/>
+      <c r="BC15" s="50"/>
+      <c r="BD15" s="50"/>
+      <c r="BE15" s="50"/>
+      <c r="BF15" s="50"/>
+      <c r="BG15" s="50"/>
+      <c r="BH15" s="50"/>
+      <c r="BI15" s="50"/>
+      <c r="BJ15" s="50"/>
+      <c r="BK15" s="50"/>
+      <c r="BL15" s="50"/>
+    </row>
+    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="63">
+        <v>0.85</v>
+      </c>
+      <c r="E16" s="64">
+        <v>45211</v>
+      </c>
+      <c r="F16" s="64">
+        <f>E16+10</f>
+        <v>45221</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="4">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="50"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="50"/>
+      <c r="AU16" s="50"/>
+      <c r="AV16" s="50"/>
+      <c r="AW16" s="50"/>
+      <c r="AX16" s="50"/>
+      <c r="AY16" s="50"/>
+      <c r="AZ16" s="50"/>
+      <c r="BA16" s="50"/>
+      <c r="BB16" s="50"/>
+      <c r="BC16" s="50"/>
+      <c r="BD16" s="50"/>
+      <c r="BE16" s="50"/>
+      <c r="BF16" s="50"/>
+      <c r="BG16" s="50"/>
+      <c r="BH16" s="50"/>
+      <c r="BI16" s="50"/>
+      <c r="BJ16" s="50"/>
+      <c r="BK16" s="50"/>
+      <c r="BL16" s="50"/>
+    </row>
+    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="63">
+        <v>0.95</v>
+      </c>
+      <c r="E17" s="64">
         <f>E15</f>
         <v>45211</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="5">
+      <c r="F17" s="64">
+        <f>E17+12</f>
+        <v>45223</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="4">
         <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="50"/>
+      <c r="BD17" s="50"/>
+      <c r="BE17" s="50"/>
+      <c r="BF17" s="50"/>
+      <c r="BG17" s="50"/>
+      <c r="BH17" s="50"/>
+      <c r="BI17" s="50"/>
+      <c r="BJ17" s="50"/>
+      <c r="BK17" s="50"/>
+      <c r="BL17" s="50"/>
+    </row>
+    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="63">
+        <v>0.95</v>
+      </c>
+      <c r="E18" s="64">
+        <f>E17</f>
+        <v>45211</v>
+      </c>
+      <c r="F18" s="64">
+        <f>E18+12</f>
+        <v>45223</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="4">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+    </row>
+    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="63">
         <v>1</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="51"/>
-      <c r="AZ15" s="51"/>
-      <c r="BA15" s="51"/>
-      <c r="BB15" s="51"/>
-      <c r="BC15" s="51"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="51"/>
-      <c r="BF15" s="51"/>
-      <c r="BG15" s="51"/>
-      <c r="BH15" s="51"/>
-      <c r="BI15" s="51"/>
-      <c r="BJ15" s="51"/>
-      <c r="BK15" s="51"/>
-      <c r="BL15" s="51"/>
-    </row>
-    <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="62" t="s">
+      <c r="E19" s="64">
+        <f>E17-2</f>
+        <v>45209</v>
+      </c>
+      <c r="F19" s="64">
+        <f>E19+9</f>
+        <v>45218</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="50"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="50"/>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="50"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="50"/>
+      <c r="BA19" s="50"/>
+      <c r="BB19" s="50"/>
+      <c r="BC19" s="50"/>
+      <c r="BD19" s="50"/>
+      <c r="BE19" s="50"/>
+      <c r="BF19" s="50"/>
+      <c r="BG19" s="50"/>
+      <c r="BH19" s="50"/>
+      <c r="BI19" s="50"/>
+      <c r="BJ19" s="50"/>
+      <c r="BK19" s="50"/>
+      <c r="BL19" s="50"/>
+    </row>
+    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="64">
+        <f>E18-2</f>
+        <v>45209</v>
+      </c>
+      <c r="F20" s="64">
+        <f>E20+20</f>
+        <v>45229</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="4">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="50"/>
+      <c r="AI20" s="50"/>
+      <c r="AJ20" s="50"/>
+      <c r="AK20" s="50"/>
+      <c r="AL20" s="50"/>
+      <c r="AM20" s="50"/>
+      <c r="AN20" s="50"/>
+      <c r="AO20" s="50"/>
+      <c r="AP20" s="50"/>
+      <c r="AQ20" s="50"/>
+      <c r="AR20" s="50"/>
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="50"/>
+      <c r="AU20" s="50"/>
+      <c r="AV20" s="50"/>
+      <c r="AW20" s="50"/>
+      <c r="AX20" s="50"/>
+      <c r="AY20" s="50"/>
+      <c r="AZ20" s="50"/>
+      <c r="BA20" s="50"/>
+      <c r="BB20" s="50"/>
+      <c r="BC20" s="50"/>
+      <c r="BD20" s="50"/>
+      <c r="BE20" s="50"/>
+      <c r="BF20" s="50"/>
+      <c r="BG20" s="50"/>
+      <c r="BH20" s="50"/>
+      <c r="BI20" s="50"/>
+      <c r="BJ20" s="50"/>
+      <c r="BK20" s="50"/>
+      <c r="BL20" s="50"/>
+    </row>
+    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="70"/>
+      <c r="AM21" s="70"/>
+      <c r="AN21" s="70"/>
+      <c r="AO21" s="70"/>
+      <c r="AP21" s="70"/>
+      <c r="AQ21" s="70"/>
+      <c r="AR21" s="70"/>
+      <c r="AS21" s="70"/>
+      <c r="AT21" s="70"/>
+      <c r="AU21" s="70"/>
+      <c r="AV21" s="70"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="70"/>
+      <c r="BA21" s="70"/>
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="70"/>
+      <c r="BD21" s="70"/>
+      <c r="BE21" s="70"/>
+      <c r="BF21" s="70"/>
+      <c r="BG21" s="70"/>
+      <c r="BH21" s="70"/>
+      <c r="BI21" s="70"/>
+      <c r="BJ21" s="70"/>
+      <c r="BK21" s="70"/>
+      <c r="BL21" s="70"/>
+    </row>
+    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="73">
+        <v>0</v>
+      </c>
+      <c r="E22" s="74">
+        <f>$E$9+15</f>
+        <v>45217</v>
+      </c>
+      <c r="F22" s="74">
+        <f>E22+5</f>
+        <v>45222</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="4">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="50"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="50"/>
+      <c r="AZ22" s="50"/>
+      <c r="BA22" s="50"/>
+      <c r="BB22" s="50"/>
+      <c r="BC22" s="50"/>
+      <c r="BD22" s="50"/>
+      <c r="BE22" s="50"/>
+      <c r="BF22" s="50"/>
+      <c r="BG22" s="50"/>
+      <c r="BH22" s="50"/>
+      <c r="BI22" s="50"/>
+      <c r="BJ22" s="50"/>
+      <c r="BK22" s="50"/>
+      <c r="BL22" s="50"/>
+    </row>
+    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="73">
+        <v>0</v>
+      </c>
+      <c r="E23" s="74">
+        <f t="shared" ref="E23:E26" si="6">$E$9+15</f>
+        <v>45217</v>
+      </c>
+      <c r="F23" s="74">
+        <v>45215</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="50"/>
+      <c r="AK23" s="50"/>
+      <c r="AL23" s="50"/>
+      <c r="AM23" s="50"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
+      <c r="AR23" s="50"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="50"/>
+      <c r="AU23" s="50"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
+      <c r="BB23" s="50"/>
+      <c r="BC23" s="50"/>
+      <c r="BD23" s="50"/>
+      <c r="BE23" s="50"/>
+      <c r="BF23" s="50"/>
+      <c r="BG23" s="50"/>
+      <c r="BH23" s="50"/>
+      <c r="BI23" s="50"/>
+      <c r="BJ23" s="50"/>
+      <c r="BK23" s="50"/>
+      <c r="BL23" s="50"/>
+    </row>
+    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="64">
-        <v>0.7</v>
-      </c>
-      <c r="E16" s="65">
-        <v>45211</v>
-      </c>
-      <c r="F16" s="65">
-        <f>E16+3</f>
-        <v>45214</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="5">
+      <c r="C24" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="73">
+        <v>0</v>
+      </c>
+      <c r="E24" s="74">
+        <f t="shared" si="6"/>
+        <v>45217</v>
+      </c>
+      <c r="F24" s="74">
+        <v>45215</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="50"/>
+      <c r="AK24" s="50"/>
+      <c r="AL24" s="50"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
+      <c r="AV24" s="50"/>
+      <c r="AW24" s="50"/>
+      <c r="AX24" s="50"/>
+      <c r="AY24" s="50"/>
+      <c r="AZ24" s="50"/>
+      <c r="BA24" s="50"/>
+      <c r="BB24" s="50"/>
+      <c r="BC24" s="50"/>
+      <c r="BD24" s="50"/>
+      <c r="BE24" s="50"/>
+      <c r="BF24" s="50"/>
+      <c r="BG24" s="50"/>
+      <c r="BH24" s="50"/>
+      <c r="BI24" s="50"/>
+      <c r="BJ24" s="50"/>
+      <c r="BK24" s="50"/>
+      <c r="BL24" s="50"/>
+    </row>
+    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="73">
+        <v>0</v>
+      </c>
+      <c r="E25" s="74">
+        <f t="shared" si="6"/>
+        <v>45217</v>
+      </c>
+      <c r="F25" s="74">
+        <f>E25+4</f>
+        <v>45221</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="50"/>
+      <c r="AK25" s="50"/>
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="50"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="50"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
+      <c r="BB25" s="50"/>
+      <c r="BC25" s="50"/>
+      <c r="BD25" s="50"/>
+      <c r="BE25" s="50"/>
+      <c r="BF25" s="50"/>
+      <c r="BG25" s="50"/>
+      <c r="BH25" s="50"/>
+      <c r="BI25" s="50"/>
+      <c r="BJ25" s="50"/>
+      <c r="BK25" s="50"/>
+      <c r="BL25" s="50"/>
+    </row>
+    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="73">
+        <v>0</v>
+      </c>
+      <c r="E26" s="74">
+        <f t="shared" si="6"/>
+        <v>45217</v>
+      </c>
+      <c r="F26" s="74">
+        <f>E26+4</f>
+        <v>45221</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="50"/>
+      <c r="AN26" s="50"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="50"/>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="50"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="50"/>
+      <c r="AU26" s="50"/>
+      <c r="AV26" s="50"/>
+      <c r="AW26" s="50"/>
+      <c r="AX26" s="50"/>
+      <c r="AY26" s="50"/>
+      <c r="AZ26" s="50"/>
+      <c r="BA26" s="50"/>
+      <c r="BB26" s="50"/>
+      <c r="BC26" s="50"/>
+      <c r="BD26" s="50"/>
+      <c r="BE26" s="50"/>
+      <c r="BF26" s="50"/>
+      <c r="BG26" s="50"/>
+      <c r="BH26" s="50"/>
+      <c r="BI26" s="50"/>
+      <c r="BJ26" s="50"/>
+      <c r="BK26" s="50"/>
+      <c r="BL26" s="50"/>
+    </row>
+    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="80"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="80"/>
+      <c r="AG27" s="80"/>
+      <c r="AH27" s="80"/>
+      <c r="AI27" s="80"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="80"/>
+      <c r="AL27" s="80"/>
+      <c r="AM27" s="80"/>
+      <c r="AN27" s="80"/>
+      <c r="AO27" s="80"/>
+      <c r="AP27" s="80"/>
+      <c r="AQ27" s="80"/>
+      <c r="AR27" s="80"/>
+      <c r="AS27" s="80"/>
+      <c r="AT27" s="80"/>
+      <c r="AU27" s="80"/>
+      <c r="AV27" s="80"/>
+      <c r="AW27" s="80"/>
+      <c r="AX27" s="80"/>
+      <c r="AY27" s="80"/>
+      <c r="AZ27" s="80"/>
+      <c r="BA27" s="80"/>
+      <c r="BB27" s="80"/>
+      <c r="BC27" s="80"/>
+      <c r="BD27" s="80"/>
+      <c r="BE27" s="80"/>
+      <c r="BF27" s="80"/>
+      <c r="BG27" s="80"/>
+      <c r="BH27" s="80"/>
+      <c r="BI27" s="80"/>
+      <c r="BJ27" s="80"/>
+      <c r="BK27" s="80"/>
+      <c r="BL27" s="80"/>
+    </row>
+    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="83">
+        <v>0</v>
+      </c>
+      <c r="E28" s="84">
+        <v>45219</v>
+      </c>
+      <c r="F28" s="84">
+        <f>E28+3</f>
+        <v>45222</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="51"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
-      <c r="AX16" s="51"/>
-      <c r="AY16" s="51"/>
-      <c r="AZ16" s="51"/>
-      <c r="BA16" s="51"/>
-      <c r="BB16" s="51"/>
-      <c r="BC16" s="51"/>
-      <c r="BD16" s="51"/>
-      <c r="BE16" s="51"/>
-      <c r="BF16" s="51"/>
-      <c r="BG16" s="51"/>
-      <c r="BH16" s="51"/>
-      <c r="BI16" s="51"/>
-      <c r="BJ16" s="51"/>
-      <c r="BK16" s="51"/>
-      <c r="BL16" s="51"/>
-    </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="64">
-        <v>0.85</v>
-      </c>
-      <c r="E17" s="65">
-        <f>E15</f>
-        <v>45211</v>
-      </c>
-      <c r="F17" s="65">
-        <f>E17+3</f>
-        <v>45214</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="5">
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="50"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="50"/>
+      <c r="AP28" s="50"/>
+      <c r="AQ28" s="50"/>
+      <c r="AR28" s="50"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="50"/>
+      <c r="AU28" s="50"/>
+      <c r="AV28" s="50"/>
+      <c r="AW28" s="50"/>
+      <c r="AX28" s="50"/>
+      <c r="AY28" s="50"/>
+      <c r="AZ28" s="50"/>
+      <c r="BA28" s="50"/>
+      <c r="BB28" s="50"/>
+      <c r="BC28" s="50"/>
+      <c r="BD28" s="50"/>
+      <c r="BE28" s="50"/>
+      <c r="BF28" s="50"/>
+      <c r="BG28" s="50"/>
+      <c r="BH28" s="50"/>
+      <c r="BI28" s="50"/>
+      <c r="BJ28" s="50"/>
+      <c r="BK28" s="50"/>
+      <c r="BL28" s="50"/>
+    </row>
+    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="83">
+        <v>0</v>
+      </c>
+      <c r="E29" s="84">
+        <f>F28</f>
+        <v>45222</v>
+      </c>
+      <c r="F29" s="84">
+        <f>E29+4</f>
+        <v>45226</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="50"/>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="50"/>
+      <c r="AK29" s="50"/>
+      <c r="AL29" s="50"/>
+      <c r="AM29" s="50"/>
+      <c r="AN29" s="50"/>
+      <c r="AO29" s="50"/>
+      <c r="AP29" s="50"/>
+      <c r="AQ29" s="50"/>
+      <c r="AR29" s="50"/>
+      <c r="AS29" s="50"/>
+      <c r="AT29" s="50"/>
+      <c r="AU29" s="50"/>
+      <c r="AV29" s="50"/>
+      <c r="AW29" s="50"/>
+      <c r="AX29" s="50"/>
+      <c r="AY29" s="50"/>
+      <c r="AZ29" s="50"/>
+      <c r="BA29" s="50"/>
+      <c r="BB29" s="50"/>
+      <c r="BC29" s="50"/>
+      <c r="BD29" s="50"/>
+      <c r="BE29" s="50"/>
+      <c r="BF29" s="50"/>
+      <c r="BG29" s="50"/>
+      <c r="BH29" s="50"/>
+      <c r="BI29" s="50"/>
+      <c r="BJ29" s="50"/>
+      <c r="BK29" s="50"/>
+      <c r="BL29" s="50"/>
+    </row>
+    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="83">
+        <v>0</v>
+      </c>
+      <c r="E30" s="84">
+        <f>F29+1</f>
+        <v>45227</v>
+      </c>
+      <c r="F30" s="84">
+        <f>E30+3</f>
+        <v>45230</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="51"/>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="51"/>
-      <c r="AR17" s="51"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="51"/>
-      <c r="AU17" s="51"/>
-      <c r="AV17" s="51"/>
-      <c r="AW17" s="51"/>
-      <c r="AX17" s="51"/>
-      <c r="AY17" s="51"/>
-      <c r="AZ17" s="51"/>
-      <c r="BA17" s="51"/>
-      <c r="BB17" s="51"/>
-      <c r="BC17" s="51"/>
-      <c r="BD17" s="51"/>
-      <c r="BE17" s="51"/>
-      <c r="BF17" s="51"/>
-      <c r="BG17" s="51"/>
-      <c r="BH17" s="51"/>
-      <c r="BI17" s="51"/>
-      <c r="BJ17" s="51"/>
-      <c r="BK17" s="51"/>
-      <c r="BL17" s="51"/>
-    </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="63" t="s">
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="50"/>
+      <c r="AI30" s="50"/>
+      <c r="AJ30" s="50"/>
+      <c r="AK30" s="50"/>
+      <c r="AL30" s="50"/>
+      <c r="AM30" s="50"/>
+      <c r="AN30" s="50"/>
+      <c r="AO30" s="50"/>
+      <c r="AP30" s="50"/>
+      <c r="AQ30" s="50"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
+      <c r="AT30" s="50"/>
+      <c r="AU30" s="50"/>
+      <c r="AV30" s="50"/>
+      <c r="AW30" s="50"/>
+      <c r="AX30" s="50"/>
+      <c r="AY30" s="50"/>
+      <c r="AZ30" s="50"/>
+      <c r="BA30" s="50"/>
+      <c r="BB30" s="50"/>
+      <c r="BC30" s="50"/>
+      <c r="BD30" s="50"/>
+      <c r="BE30" s="50"/>
+      <c r="BF30" s="50"/>
+      <c r="BG30" s="50"/>
+      <c r="BH30" s="50"/>
+      <c r="BI30" s="50"/>
+      <c r="BJ30" s="50"/>
+      <c r="BK30" s="50"/>
+      <c r="BL30" s="50"/>
+    </row>
+    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="64">
-        <v>0.9</v>
-      </c>
-      <c r="E18" s="65">
-        <f>E17</f>
-        <v>45211</v>
-      </c>
-      <c r="F18" s="65">
-        <f>E18+2</f>
-        <v>45213</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="5">
+      <c r="D31" s="83">
+        <v>0</v>
+      </c>
+      <c r="E31" s="84">
+        <f>E28+5</f>
+        <v>45224</v>
+      </c>
+      <c r="F31" s="84">
+        <f>E31+3</f>
+        <v>45227</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="51"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="51"/>
-      <c r="AR18" s="51"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="51"/>
-      <c r="AV18" s="51"/>
-      <c r="AW18" s="51"/>
-      <c r="AX18" s="51"/>
-      <c r="AY18" s="51"/>
-      <c r="AZ18" s="51"/>
-      <c r="BA18" s="51"/>
-      <c r="BB18" s="51"/>
-      <c r="BC18" s="51"/>
-      <c r="BD18" s="51"/>
-      <c r="BE18" s="51"/>
-      <c r="BF18" s="51"/>
-      <c r="BG18" s="51"/>
-      <c r="BH18" s="51"/>
-      <c r="BI18" s="51"/>
-      <c r="BJ18" s="51"/>
-      <c r="BK18" s="51"/>
-      <c r="BL18" s="51"/>
-    </row>
-    <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="64">
-        <v>1</v>
-      </c>
-      <c r="E19" s="65">
-        <f>E18-2</f>
-        <v>45209</v>
-      </c>
-      <c r="F19" s="65">
-        <f>E19</f>
-        <v>45209</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="5">
+        <v>4</v>
+      </c>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
+      <c r="AH31" s="50"/>
+      <c r="AI31" s="50"/>
+      <c r="AJ31" s="50"/>
+      <c r="AK31" s="50"/>
+      <c r="AL31" s="50"/>
+      <c r="AM31" s="50"/>
+      <c r="AN31" s="50"/>
+      <c r="AO31" s="50"/>
+      <c r="AP31" s="50"/>
+      <c r="AQ31" s="50"/>
+      <c r="AR31" s="50"/>
+      <c r="AS31" s="50"/>
+      <c r="AT31" s="50"/>
+      <c r="AU31" s="50"/>
+      <c r="AV31" s="50"/>
+      <c r="AW31" s="50"/>
+      <c r="AX31" s="50"/>
+      <c r="AY31" s="50"/>
+      <c r="AZ31" s="50"/>
+      <c r="BA31" s="50"/>
+      <c r="BB31" s="50"/>
+      <c r="BC31" s="50"/>
+      <c r="BD31" s="50"/>
+      <c r="BE31" s="50"/>
+      <c r="BF31" s="50"/>
+      <c r="BG31" s="50"/>
+      <c r="BH31" s="50"/>
+      <c r="BI31" s="50"/>
+      <c r="BJ31" s="50"/>
+      <c r="BK31" s="50"/>
+      <c r="BL31" s="50"/>
+    </row>
+    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="83">
+        <v>0</v>
+      </c>
+      <c r="E32" s="84">
+        <f>E28+7</f>
+        <v>45226</v>
+      </c>
+      <c r="F32" s="84">
+        <f>E32+5</f>
+        <v>45231</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="51"/>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="51"/>
-      <c r="AV19" s="51"/>
-      <c r="AW19" s="51"/>
-      <c r="AX19" s="51"/>
-      <c r="AY19" s="51"/>
-      <c r="AZ19" s="51"/>
-      <c r="BA19" s="51"/>
-      <c r="BB19" s="51"/>
-      <c r="BC19" s="51"/>
-      <c r="BD19" s="51"/>
-      <c r="BE19" s="51"/>
-      <c r="BF19" s="51"/>
-      <c r="BG19" s="51"/>
-      <c r="BH19" s="51"/>
-      <c r="BI19" s="51"/>
-      <c r="BJ19" s="51"/>
-      <c r="BK19" s="51"/>
-      <c r="BL19" s="51"/>
-    </row>
-    <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="5" t="str">
+        <v>6</v>
+      </c>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="50"/>
+      <c r="AI32" s="50"/>
+      <c r="AJ32" s="50"/>
+      <c r="AK32" s="50"/>
+      <c r="AL32" s="50"/>
+      <c r="AM32" s="50"/>
+      <c r="AN32" s="50"/>
+      <c r="AO32" s="50"/>
+      <c r="AP32" s="50"/>
+      <c r="AQ32" s="50"/>
+      <c r="AR32" s="50"/>
+      <c r="AT32" s="50"/>
+      <c r="AU32" s="50"/>
+      <c r="AV32" s="50"/>
+      <c r="AW32" s="50"/>
+      <c r="AX32" s="50"/>
+      <c r="AY32" s="50"/>
+      <c r="AZ32" s="50"/>
+      <c r="BA32" s="50"/>
+      <c r="BB32" s="50"/>
+      <c r="BC32" s="50"/>
+      <c r="BD32" s="50"/>
+      <c r="BE32" s="50"/>
+      <c r="BF32" s="50"/>
+      <c r="BG32" s="50"/>
+      <c r="BH32" s="50"/>
+      <c r="BI32" s="50"/>
+      <c r="BJ32" s="50"/>
+      <c r="BK32" s="50"/>
+      <c r="BL32" s="50"/>
+    </row>
+    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="71"/>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="71"/>
-      <c r="AK20" s="71"/>
-      <c r="AL20" s="71"/>
-      <c r="AM20" s="71"/>
-      <c r="AN20" s="71"/>
-      <c r="AO20" s="71"/>
-      <c r="AP20" s="71"/>
-      <c r="AQ20" s="71"/>
-      <c r="AR20" s="71"/>
-      <c r="AS20" s="71"/>
-      <c r="AT20" s="71"/>
-      <c r="AU20" s="71"/>
-      <c r="AV20" s="71"/>
-      <c r="AW20" s="71"/>
-      <c r="AX20" s="71"/>
-      <c r="AY20" s="71"/>
-      <c r="AZ20" s="71"/>
-      <c r="BA20" s="71"/>
-      <c r="BB20" s="71"/>
-      <c r="BC20" s="71"/>
-      <c r="BD20" s="71"/>
-      <c r="BE20" s="71"/>
-      <c r="BF20" s="71"/>
-      <c r="BG20" s="71"/>
-      <c r="BH20" s="71"/>
-      <c r="BI20" s="71"/>
-      <c r="BJ20" s="71"/>
-      <c r="BK20" s="71"/>
-      <c r="BL20" s="71"/>
-    </row>
-    <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="74">
-        <v>0</v>
-      </c>
-      <c r="E21" s="75">
-        <f>$E$9+15</f>
-        <v>45217</v>
-      </c>
-      <c r="F21" s="75">
-        <f>E21+5</f>
-        <v>45222</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="5">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="51"/>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="51"/>
-      <c r="AM21" s="51"/>
-      <c r="AN21" s="51"/>
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="51"/>
-      <c r="AQ21" s="51"/>
-      <c r="AR21" s="51"/>
-      <c r="AS21" s="51"/>
-      <c r="AT21" s="51"/>
-      <c r="AU21" s="51"/>
-      <c r="AV21" s="51"/>
-      <c r="AW21" s="51"/>
-      <c r="AX21" s="51"/>
-      <c r="AY21" s="51"/>
-      <c r="AZ21" s="51"/>
-      <c r="BA21" s="51"/>
-      <c r="BB21" s="51"/>
-      <c r="BC21" s="51"/>
-      <c r="BD21" s="51"/>
-      <c r="BE21" s="51"/>
-      <c r="BF21" s="51"/>
-      <c r="BG21" s="51"/>
-      <c r="BH21" s="51"/>
-      <c r="BI21" s="51"/>
-      <c r="BJ21" s="51"/>
-      <c r="BK21" s="51"/>
-      <c r="BL21" s="51"/>
-    </row>
-    <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="74">
-        <v>0</v>
-      </c>
-      <c r="E22" s="75">
-        <f t="shared" ref="E22:E25" si="6">$E$9+15</f>
-        <v>45217</v>
-      </c>
-      <c r="F22" s="75">
-        <v>45215</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="5">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="51"/>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="51"/>
-      <c r="BA22" s="51"/>
-      <c r="BB22" s="51"/>
-      <c r="BC22" s="51"/>
-      <c r="BD22" s="51"/>
-      <c r="BE22" s="51"/>
-      <c r="BF22" s="51"/>
-      <c r="BG22" s="51"/>
-      <c r="BH22" s="51"/>
-      <c r="BI22" s="51"/>
-      <c r="BJ22" s="51"/>
-      <c r="BK22" s="51"/>
-      <c r="BL22" s="51"/>
-    </row>
-    <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="74">
-        <v>0</v>
-      </c>
-      <c r="E23" s="75">
-        <f t="shared" si="6"/>
-        <v>45217</v>
-      </c>
-      <c r="F23" s="75">
-        <v>45215</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="5">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="51"/>
-      <c r="AG23" s="51"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="51"/>
-      <c r="AL23" s="51"/>
-      <c r="AM23" s="51"/>
-      <c r="AN23" s="51"/>
-      <c r="AO23" s="51"/>
-      <c r="AP23" s="51"/>
-      <c r="AQ23" s="51"/>
-      <c r="AR23" s="51"/>
-      <c r="AS23" s="51"/>
-      <c r="AT23" s="51"/>
-      <c r="AU23" s="51"/>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="51"/>
-      <c r="BA23" s="51"/>
-      <c r="BB23" s="51"/>
-      <c r="BC23" s="51"/>
-      <c r="BD23" s="51"/>
-      <c r="BE23" s="51"/>
-      <c r="BF23" s="51"/>
-      <c r="BG23" s="51"/>
-      <c r="BH23" s="51"/>
-      <c r="BI23" s="51"/>
-      <c r="BJ23" s="51"/>
-      <c r="BK23" s="51"/>
-      <c r="BL23" s="51"/>
-    </row>
-    <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="74">
-        <v>0</v>
-      </c>
-      <c r="E24" s="75">
-        <f t="shared" si="6"/>
-        <v>45217</v>
-      </c>
-      <c r="F24" s="75">
-        <f>E24+4</f>
-        <v>45221</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="51"/>
-      <c r="AG24" s="51"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="51"/>
-      <c r="AL24" s="51"/>
-      <c r="AM24" s="51"/>
-      <c r="AN24" s="51"/>
-      <c r="AO24" s="51"/>
-      <c r="AP24" s="51"/>
-      <c r="AQ24" s="51"/>
-      <c r="AR24" s="51"/>
-      <c r="AS24" s="51"/>
-      <c r="AT24" s="51"/>
-      <c r="AU24" s="51"/>
-      <c r="AV24" s="51"/>
-      <c r="AW24" s="51"/>
-      <c r="AX24" s="51"/>
-      <c r="AY24" s="51"/>
-      <c r="AZ24" s="51"/>
-      <c r="BA24" s="51"/>
-      <c r="BB24" s="51"/>
-      <c r="BC24" s="51"/>
-      <c r="BD24" s="51"/>
-      <c r="BE24" s="51"/>
-      <c r="BF24" s="51"/>
-      <c r="BG24" s="51"/>
-      <c r="BH24" s="51"/>
-      <c r="BI24" s="51"/>
-      <c r="BJ24" s="51"/>
-      <c r="BK24" s="51"/>
-      <c r="BL24" s="51"/>
-    </row>
-    <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="74">
-        <v>0</v>
-      </c>
-      <c r="E25" s="75">
-        <f t="shared" si="6"/>
-        <v>45217</v>
-      </c>
-      <c r="F25" s="75">
-        <f>E25+4</f>
-        <v>45221</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="51"/>
-      <c r="AL25" s="51"/>
-      <c r="AM25" s="51"/>
-      <c r="AN25" s="51"/>
-      <c r="AO25" s="51"/>
-      <c r="AP25" s="51"/>
-      <c r="AQ25" s="51"/>
-      <c r="AR25" s="51"/>
-      <c r="AS25" s="51"/>
-      <c r="AT25" s="51"/>
-      <c r="AU25" s="51"/>
-      <c r="AV25" s="51"/>
-      <c r="AW25" s="51"/>
-      <c r="AX25" s="51"/>
-      <c r="AY25" s="51"/>
-      <c r="AZ25" s="51"/>
-      <c r="BA25" s="51"/>
-      <c r="BB25" s="51"/>
-      <c r="BC25" s="51"/>
-      <c r="BD25" s="51"/>
-      <c r="BE25" s="51"/>
-      <c r="BF25" s="51"/>
-      <c r="BG25" s="51"/>
-      <c r="BH25" s="51"/>
-      <c r="BI25" s="51"/>
-      <c r="BJ25" s="51"/>
-      <c r="BK25" s="51"/>
-      <c r="BL25" s="51"/>
-    </row>
-    <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="5" t="str">
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="44"/>
+      <c r="AP33" s="44"/>
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="44"/>
+      <c r="AS33" s="44"/>
+      <c r="AT33" s="44"/>
+      <c r="AU33" s="44"/>
+      <c r="AV33" s="44"/>
+      <c r="AW33" s="44"/>
+      <c r="AX33" s="44"/>
+      <c r="AY33" s="44"/>
+      <c r="AZ33" s="44"/>
+      <c r="BA33" s="44"/>
+      <c r="BB33" s="44"/>
+      <c r="BC33" s="44"/>
+      <c r="BD33" s="44"/>
+      <c r="BE33" s="44"/>
+      <c r="BF33" s="44"/>
+      <c r="BG33" s="44"/>
+      <c r="BH33" s="44"/>
+      <c r="BI33" s="44"/>
+      <c r="BJ33" s="44"/>
+      <c r="BK33" s="44"/>
+      <c r="BL33" s="44"/>
+    </row>
+    <row r="34" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="81"/>
-      <c r="W26" s="81"/>
-      <c r="X26" s="81"/>
-      <c r="Y26" s="81"/>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="81"/>
-      <c r="AC26" s="81"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="81"/>
-      <c r="AF26" s="81"/>
-      <c r="AG26" s="81"/>
-      <c r="AH26" s="81"/>
-      <c r="AI26" s="81"/>
-      <c r="AJ26" s="81"/>
-      <c r="AK26" s="81"/>
-      <c r="AL26" s="81"/>
-      <c r="AM26" s="81"/>
-      <c r="AN26" s="81"/>
-      <c r="AO26" s="81"/>
-      <c r="AP26" s="81"/>
-      <c r="AQ26" s="81"/>
-      <c r="AR26" s="81"/>
-      <c r="AS26" s="81"/>
-      <c r="AT26" s="81"/>
-      <c r="AU26" s="81"/>
-      <c r="AV26" s="81"/>
-      <c r="AW26" s="81"/>
-      <c r="AX26" s="81"/>
-      <c r="AY26" s="81"/>
-      <c r="AZ26" s="81"/>
-      <c r="BA26" s="81"/>
-      <c r="BB26" s="81"/>
-      <c r="BC26" s="81"/>
-      <c r="BD26" s="81"/>
-      <c r="BE26" s="81"/>
-      <c r="BF26" s="81"/>
-      <c r="BG26" s="81"/>
-      <c r="BH26" s="81"/>
-      <c r="BI26" s="81"/>
-      <c r="BJ26" s="81"/>
-      <c r="BK26" s="81"/>
-      <c r="BL26" s="81"/>
-    </row>
-    <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="84">
-        <v>0</v>
-      </c>
-      <c r="E27" s="85">
-        <v>45219</v>
-      </c>
-      <c r="F27" s="85">
-        <f>E27+3</f>
-        <v>45222</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="5">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="51"/>
-      <c r="AF27" s="51"/>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
-      <c r="AK27" s="51"/>
-      <c r="AL27" s="51"/>
-      <c r="AM27" s="51"/>
-      <c r="AN27" s="51"/>
-      <c r="AO27" s="51"/>
-      <c r="AP27" s="51"/>
-      <c r="AQ27" s="51"/>
-      <c r="AR27" s="51"/>
-      <c r="AS27" s="51"/>
-      <c r="AT27" s="51"/>
-      <c r="AU27" s="51"/>
-      <c r="AV27" s="51"/>
-      <c r="AW27" s="51"/>
-      <c r="AX27" s="51"/>
-      <c r="AY27" s="51"/>
-      <c r="AZ27" s="51"/>
-      <c r="BA27" s="51"/>
-      <c r="BB27" s="51"/>
-      <c r="BC27" s="51"/>
-      <c r="BD27" s="51"/>
-      <c r="BE27" s="51"/>
-      <c r="BF27" s="51"/>
-      <c r="BG27" s="51"/>
-      <c r="BH27" s="51"/>
-      <c r="BI27" s="51"/>
-      <c r="BJ27" s="51"/>
-      <c r="BK27" s="51"/>
-      <c r="BL27" s="51"/>
-    </row>
-    <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="84">
-        <v>0</v>
-      </c>
-      <c r="E28" s="85">
-        <f>F27</f>
-        <v>45222</v>
-      </c>
-      <c r="F28" s="85">
-        <f>E28+4</f>
-        <v>45226</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="51"/>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="51"/>
-      <c r="AO28" s="51"/>
-      <c r="AP28" s="51"/>
-      <c r="AQ28" s="51"/>
-      <c r="AR28" s="51"/>
-      <c r="AS28" s="51"/>
-      <c r="AT28" s="51"/>
-      <c r="AU28" s="51"/>
-      <c r="AV28" s="51"/>
-      <c r="AW28" s="51"/>
-      <c r="AX28" s="51"/>
-      <c r="AY28" s="51"/>
-      <c r="AZ28" s="51"/>
-      <c r="BA28" s="51"/>
-      <c r="BB28" s="51"/>
-      <c r="BC28" s="51"/>
-      <c r="BD28" s="51"/>
-      <c r="BE28" s="51"/>
-      <c r="BF28" s="51"/>
-      <c r="BG28" s="51"/>
-      <c r="BH28" s="51"/>
-      <c r="BI28" s="51"/>
-      <c r="BJ28" s="51"/>
-      <c r="BK28" s="51"/>
-      <c r="BL28" s="51"/>
-    </row>
-    <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="84">
-        <v>0</v>
-      </c>
-      <c r="E29" s="85">
-        <f>F28+1</f>
-        <v>45227</v>
-      </c>
-      <c r="F29" s="85">
-        <f>E29+3</f>
-        <v>45230</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="5">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="51"/>
-      <c r="AN29" s="51"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="51"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="51"/>
-      <c r="AS29" s="51"/>
-      <c r="AT29" s="51"/>
-      <c r="AU29" s="51"/>
-      <c r="AV29" s="51"/>
-      <c r="AW29" s="51"/>
-      <c r="AX29" s="51"/>
-      <c r="AY29" s="51"/>
-      <c r="AZ29" s="51"/>
-      <c r="BA29" s="51"/>
-      <c r="BB29" s="51"/>
-      <c r="BC29" s="51"/>
-      <c r="BD29" s="51"/>
-      <c r="BE29" s="51"/>
-      <c r="BF29" s="51"/>
-      <c r="BG29" s="51"/>
-      <c r="BH29" s="51"/>
-      <c r="BI29" s="51"/>
-      <c r="BJ29" s="51"/>
-      <c r="BK29" s="51"/>
-      <c r="BL29" s="51"/>
-    </row>
-    <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="84">
-        <v>0</v>
-      </c>
-      <c r="E30" s="85">
-        <f>E27+5</f>
-        <v>45224</v>
-      </c>
-      <c r="F30" s="85">
-        <f>E30+3</f>
-        <v>45227</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="5">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="51"/>
-      <c r="AG30" s="51"/>
-      <c r="AH30" s="51"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="51"/>
-      <c r="AK30" s="51"/>
-      <c r="AL30" s="51"/>
-      <c r="AM30" s="51"/>
-      <c r="AN30" s="51"/>
-      <c r="AO30" s="51"/>
-      <c r="AP30" s="51"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
-      <c r="AT30" s="51"/>
-      <c r="AU30" s="51"/>
-      <c r="AV30" s="51"/>
-      <c r="AW30" s="51"/>
-      <c r="AX30" s="51"/>
-      <c r="AY30" s="51"/>
-      <c r="AZ30" s="51"/>
-      <c r="BA30" s="51"/>
-      <c r="BB30" s="51"/>
-      <c r="BC30" s="51"/>
-      <c r="BD30" s="51"/>
-      <c r="BE30" s="51"/>
-      <c r="BF30" s="51"/>
-      <c r="BG30" s="51"/>
-      <c r="BH30" s="51"/>
-      <c r="BI30" s="51"/>
-      <c r="BJ30" s="51"/>
-      <c r="BK30" s="51"/>
-      <c r="BL30" s="51"/>
-    </row>
-    <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="84">
-        <v>0</v>
-      </c>
-      <c r="E31" s="85">
-        <f>E27+7</f>
-        <v>45226</v>
-      </c>
-      <c r="F31" s="85">
-        <f>E31+5</f>
-        <v>45231</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="5">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="51"/>
-      <c r="AF31" s="51"/>
-      <c r="AG31" s="51"/>
-      <c r="AH31" s="51"/>
-      <c r="AI31" s="51"/>
-      <c r="AJ31" s="51"/>
-      <c r="AK31" s="51"/>
-      <c r="AL31" s="51"/>
-      <c r="AM31" s="51"/>
-      <c r="AN31" s="51"/>
-      <c r="AO31" s="51"/>
-      <c r="AP31" s="51"/>
-      <c r="AQ31" s="51"/>
-      <c r="AR31" s="51"/>
-      <c r="AT31" s="51"/>
-      <c r="AU31" s="51"/>
-      <c r="AV31" s="51"/>
-      <c r="AW31" s="51"/>
-      <c r="AX31" s="51"/>
-      <c r="AY31" s="51"/>
-      <c r="AZ31" s="51"/>
-      <c r="BA31" s="51"/>
-      <c r="BB31" s="51"/>
-      <c r="BC31" s="51"/>
-      <c r="BD31" s="51"/>
-      <c r="BE31" s="51"/>
-      <c r="BF31" s="51"/>
-      <c r="BG31" s="51"/>
-      <c r="BH31" s="51"/>
-      <c r="BI31" s="51"/>
-      <c r="BJ31" s="51"/>
-      <c r="BK31" s="51"/>
-      <c r="BL31" s="51"/>
-    </row>
-    <row r="32" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="45"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="45"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="45"/>
-      <c r="AN32" s="45"/>
-      <c r="AO32" s="45"/>
-      <c r="AP32" s="45"/>
-      <c r="AQ32" s="45"/>
-      <c r="AR32" s="45"/>
-      <c r="AS32" s="45"/>
-      <c r="AT32" s="45"/>
-      <c r="AU32" s="45"/>
-      <c r="AV32" s="45"/>
-      <c r="AW32" s="45"/>
-      <c r="AX32" s="45"/>
-      <c r="AY32" s="45"/>
-      <c r="AZ32" s="45"/>
-      <c r="BA32" s="45"/>
-      <c r="BB32" s="45"/>
-      <c r="BC32" s="45"/>
-      <c r="BD32" s="45"/>
-      <c r="BE32" s="45"/>
-      <c r="BF32" s="45"/>
-      <c r="BG32" s="45"/>
-      <c r="BH32" s="45"/>
-      <c r="BI32" s="45"/>
-      <c r="BJ32" s="45"/>
-      <c r="BK32" s="45"/>
-      <c r="BL32" s="45"/>
-    </row>
-    <row r="33" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="95"/>
-      <c r="AJ33" s="95"/>
-      <c r="AK33" s="95"/>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="95"/>
-      <c r="AN33" s="95"/>
-      <c r="AO33" s="95"/>
-      <c r="AP33" s="95"/>
-      <c r="AQ33" s="95"/>
-      <c r="AR33" s="95"/>
-      <c r="AS33" s="95"/>
-      <c r="AT33" s="95"/>
-      <c r="AU33" s="95"/>
-      <c r="AV33" s="95"/>
-      <c r="AW33" s="95"/>
-      <c r="AX33" s="95"/>
-      <c r="AY33" s="95"/>
-      <c r="AZ33" s="95"/>
-      <c r="BA33" s="95"/>
-      <c r="BB33" s="95"/>
-      <c r="BC33" s="95"/>
-      <c r="BD33" s="95"/>
-      <c r="BE33" s="95"/>
-      <c r="BF33" s="95"/>
-      <c r="BG33" s="95"/>
-      <c r="BH33" s="95"/>
-      <c r="BI33" s="95"/>
-      <c r="BJ33" s="95"/>
-      <c r="BK33" s="95"/>
-      <c r="BL33" s="95"/>
-    </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G34" s="3"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="94"/>
+      <c r="AE34" s="94"/>
+      <c r="AF34" s="94"/>
+      <c r="AG34" s="94"/>
+      <c r="AH34" s="94"/>
+      <c r="AI34" s="94"/>
+      <c r="AJ34" s="94"/>
+      <c r="AK34" s="94"/>
+      <c r="AL34" s="94"/>
+      <c r="AM34" s="94"/>
+      <c r="AN34" s="94"/>
+      <c r="AO34" s="94"/>
+      <c r="AP34" s="94"/>
+      <c r="AQ34" s="94"/>
+      <c r="AR34" s="94"/>
+      <c r="AS34" s="94"/>
+      <c r="AT34" s="94"/>
+      <c r="AU34" s="94"/>
+      <c r="AV34" s="94"/>
+      <c r="AW34" s="94"/>
+      <c r="AX34" s="94"/>
+      <c r="AY34" s="94"/>
+      <c r="AZ34" s="94"/>
+      <c r="BA34" s="94"/>
+      <c r="BB34" s="94"/>
+      <c r="BC34" s="94"/>
+      <c r="BD34" s="94"/>
+      <c r="BE34" s="94"/>
+      <c r="BF34" s="94"/>
+      <c r="BG34" s="94"/>
+      <c r="BH34" s="94"/>
+      <c r="BI34" s="94"/>
+      <c r="BJ34" s="94"/>
+      <c r="BK34" s="94"/>
+      <c r="BL34" s="94"/>
     </row>
     <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="16"/>
-      <c r="F35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="4"/>
+      <c r="C36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AR3:AX3"/>
+    <mergeCell ref="AY3:BE3"/>
+    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="Q2:Z2"/>
     <mergeCell ref="Q1:Z1"/>
@@ -4656,23 +4777,15 @@
     <mergeCell ref="I3:O3"/>
     <mergeCell ref="P3:V3"/>
     <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AR3:AX3"/>
-    <mergeCell ref="AY3:BE3"/>
-    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D33">
-    <cfRule type="dataBar" priority="24">
+  <conditionalFormatting sqref="D7:D34">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4686,71 +4799,84 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BL13">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL19">
-    <cfRule type="expression" dxfId="13" priority="5">
+  <conditionalFormatting sqref="I15:BL18 I20:BL20">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:BL23 I25:K25 M25:BL25 I24:J24 L24:BL24">
-    <cfRule type="expression" dxfId="11" priority="3">
+  <conditionalFormatting sqref="I22:BL24 I26:K26 M26:BL26 I25:J25 L25:BL25">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL30 I31:AR31 AV31:BL31 AT31">
-    <cfRule type="expression" dxfId="9" priority="37">
+  <conditionalFormatting sqref="I28:BL31 I32:AR32 AV32:BL32 AT32">
+    <cfRule type="expression" dxfId="12" priority="40">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="41" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:BL23 I25:K25 M25:BL25 I24:J24 L24:BL24 I26:BL30 I31:AR31 AV31:BL31 AT31">
-    <cfRule type="expression" dxfId="7" priority="2">
+  <conditionalFormatting sqref="I26:K26 M26:BL26 I25:J25 L25:BL25 I27:BL31 I32:AR32 AV32:BL32 AT32 I4:BL18 I20:BL24">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:BL3">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="5" priority="41">
+  <conditionalFormatting sqref="K25">
+    <cfRule type="expression" dxfId="8" priority="44">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="45" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="3" priority="44">
+  <conditionalFormatting sqref="K25">
+    <cfRule type="expression" dxfId="6" priority="47">
       <formula>AND(TODAY()&gt;=L$5, TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU31">
-    <cfRule type="expression" dxfId="2" priority="47">
+  <conditionalFormatting sqref="AU32">
+    <cfRule type="expression" dxfId="5" priority="50">
       <formula>AND(task_start&lt;=AS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AS$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="51" stopIfTrue="1">
       <formula>AND(task_end&gt;=AS$5,task_start&lt;AT$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU31">
-    <cfRule type="expression" dxfId="0" priority="52">
+  <conditionalFormatting sqref="AU32">
+    <cfRule type="expression" dxfId="3" priority="55">
       <formula>AND(TODAY()&gt;=AS$5, TODAY()&lt;AT$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:BL19">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:BL19">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
@@ -4780,9 +4906,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F28" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4799,7 +4922,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D33</xm:sqref>
+          <xm:sqref>D7:D34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4815,109 +4938,109 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87" style="7" customWidth="1"/>
+    <col min="1" max="1" width="87" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+    <row r="2" spans="1:2" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="100"/>
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A4" s="101" t="s">
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="99"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A4" s="100" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="101" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="100" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="7" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+    <row r="7" spans="1:2" s="6" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A8" s="101" t="s">
+    <row r="8" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A8" s="100" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="101" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="7" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="104" t="s">
+    <row r="10" spans="1:2" s="6" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="103" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A11" s="101" t="s">
+    <row r="11" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A11" s="100" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="101" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="7" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="104" t="s">
+    <row r="13" spans="1:2" s="6" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="103" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A14" s="101" t="s">
+    <row r="14" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A14" s="100" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="101" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="101" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="105"/>
+      <c r="A17" s="104"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="105"/>
+      <c r="A18" s="104"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="105"/>
+      <c r="A19" s="104"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="105"/>
+      <c r="A20" s="104"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="105"/>
+      <c r="A21" s="104"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105"/>
+      <c r="A22" s="104"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105"/>
+      <c r="A23" s="104"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="105"/>
+      <c r="A24" s="104"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4938,15 +5061,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F010965E38DD9C4C9BE78EF37B7A5F63" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e5a01bfcf6a1a5eee5a5ca1585b5a1a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00e6d9bda136d3704b372a6b2e4b23e5" ns3:_="">
     <xsd:import namespace="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca"/>
@@ -5084,6 +5198,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
@@ -5101,14 +5224,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A800D70D-3EC9-4DB9-B9D8-9E383CE8B438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5126,6 +5241,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Project Spyn Gantt Chart.xlsx
+++ b/Project Spyn Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tydng\Desktop\FSE-100-Team-4-Sheibanian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCABC72-99B1-4C65-BE25-993D223A1441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C05D2-C092-4D75-96FE-7F8BAAE4775C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>Project SPYN</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Integrate ball bearing Into Car</t>
+  </si>
+  <si>
+    <t>Integrate Crash Sensor Into Car</t>
   </si>
 </sst>
 </file>
@@ -250,7 +253,7 @@
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,14 +301,6 @@
       <name val="Arial Black"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -815,7 +810,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="2" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -838,13 +833,13 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,44 +849,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -907,41 +898,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -953,73 +944,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1028,28 +1019,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1058,40 +1049,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1100,71 +1091,71 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1182,7 +1173,43 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="31">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1527,15 +1554,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="27"/>
-      <tableStyleElement type="headerRow" dxfId="26"/>
-      <tableStyleElement type="totalRow" dxfId="25"/>
-      <tableStyleElement type="firstColumn" dxfId="24"/>
-      <tableStyleElement type="lastColumn" dxfId="23"/>
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="secondRowStripe" dxfId="21"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="19"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="totalRow" dxfId="28"/>
+      <tableStyleElement type="firstColumn" dxfId="27"/>
+      <tableStyleElement type="lastColumn" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1892,8 +1919,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B14" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1911,2856 +1938,2940 @@
   <sheetData>
     <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="13"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="113">
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="110">
         <v>45202</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21"/>
-      <c r="I2" s="114" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19"/>
+      <c r="I2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="111">
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="108">
         <v>1</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-    </row>
-    <row r="3" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+    </row>
+    <row r="3" spans="1:64" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="I3" s="116" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="I3" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="116" t="s">
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="116" t="s">
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="116" t="s">
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="117"/>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="117"/>
-      <c r="AJ3" s="117"/>
-      <c r="AK3" s="116" t="s">
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="104"/>
+      <c r="AI3" s="104"/>
+      <c r="AJ3" s="104"/>
+      <c r="AK3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="117"/>
-      <c r="AM3" s="117"/>
-      <c r="AN3" s="117"/>
-      <c r="AO3" s="117"/>
-      <c r="AP3" s="117"/>
-      <c r="AQ3" s="117"/>
-      <c r="AR3" s="116" t="s">
+      <c r="AL3" s="104"/>
+      <c r="AM3" s="104"/>
+      <c r="AN3" s="104"/>
+      <c r="AO3" s="104"/>
+      <c r="AP3" s="104"/>
+      <c r="AQ3" s="104"/>
+      <c r="AR3" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="AS3" s="117"/>
-      <c r="AT3" s="117"/>
-      <c r="AU3" s="117"/>
-      <c r="AV3" s="117"/>
-      <c r="AW3" s="117"/>
-      <c r="AX3" s="117"/>
-      <c r="AY3" s="116" t="s">
+      <c r="AS3" s="104"/>
+      <c r="AT3" s="104"/>
+      <c r="AU3" s="104"/>
+      <c r="AV3" s="104"/>
+      <c r="AW3" s="104"/>
+      <c r="AX3" s="104"/>
+      <c r="AY3" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="AZ3" s="117"/>
-      <c r="BA3" s="117"/>
-      <c r="BB3" s="117"/>
-      <c r="BC3" s="117"/>
-      <c r="BD3" s="117"/>
-      <c r="BE3" s="117"/>
-      <c r="BF3" s="116" t="s">
+      <c r="AZ3" s="104"/>
+      <c r="BA3" s="104"/>
+      <c r="BB3" s="104"/>
+      <c r="BC3" s="104"/>
+      <c r="BD3" s="104"/>
+      <c r="BE3" s="104"/>
+      <c r="BF3" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="BG3" s="117"/>
-      <c r="BH3" s="117"/>
-      <c r="BI3" s="117"/>
-      <c r="BJ3" s="117"/>
-      <c r="BK3" s="117"/>
-      <c r="BL3" s="117"/>
-    </row>
-    <row r="4" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG3" s="104"/>
+      <c r="BH3" s="104"/>
+      <c r="BI3" s="104"/>
+      <c r="BJ3" s="104"/>
+      <c r="BK3" s="104"/>
+      <c r="BL3" s="104"/>
+    </row>
+    <row r="4" spans="1:64" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="I4" s="116">
+      <c r="E4" s="27"/>
+      <c r="I4" s="103">
         <f>I5</f>
         <v>45201</v>
       </c>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117">
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104">
         <f>P5</f>
         <v>45208</v>
       </c>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117">
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104">
         <f>W5</f>
         <v>45215</v>
       </c>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117">
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104">
         <f>AD5</f>
         <v>45222</v>
       </c>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="117"/>
-      <c r="AH4" s="117"/>
-      <c r="AI4" s="117"/>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="117">
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="104">
         <f>AK5</f>
         <v>45229</v>
       </c>
-      <c r="AL4" s="117"/>
-      <c r="AM4" s="117"/>
-      <c r="AN4" s="117"/>
-      <c r="AO4" s="117"/>
-      <c r="AP4" s="117"/>
-      <c r="AQ4" s="117"/>
-      <c r="AR4" s="117">
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="104">
         <f>AR5</f>
         <v>45236</v>
       </c>
-      <c r="AS4" s="117"/>
-      <c r="AT4" s="117"/>
-      <c r="AU4" s="117"/>
-      <c r="AV4" s="117"/>
-      <c r="AW4" s="117"/>
-      <c r="AX4" s="117"/>
-      <c r="AY4" s="117">
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="104">
         <f>AY5</f>
         <v>45243</v>
       </c>
-      <c r="AZ4" s="117"/>
-      <c r="BA4" s="117"/>
-      <c r="BB4" s="117"/>
-      <c r="BC4" s="117"/>
-      <c r="BD4" s="117"/>
-      <c r="BE4" s="117"/>
-      <c r="BF4" s="117">
+      <c r="AZ4" s="104"/>
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="104">
         <f>BF5</f>
         <v>45250</v>
       </c>
-      <c r="BG4" s="117"/>
-      <c r="BH4" s="117"/>
-      <c r="BI4" s="117"/>
-      <c r="BJ4" s="117"/>
-      <c r="BK4" s="117"/>
-      <c r="BL4" s="118"/>
-    </row>
-    <row r="5" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106" t="s">
+      <c r="BG4" s="104"/>
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="105"/>
+    </row>
+    <row r="5" spans="1:64" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="113"/>
+      <c r="B5" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="28">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45201</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="28">
         <f>I5+1</f>
         <v>45202</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="28">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
         <v>45203</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="28">
         <f t="shared" si="0"/>
         <v>45204</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="28">
         <f t="shared" si="0"/>
         <v>45205</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="28">
         <f t="shared" si="0"/>
         <v>45206</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="29">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="30">
         <f>O5+1</f>
         <v>45208</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="28">
         <f>P5+1</f>
         <v>45209</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="28">
         <f t="shared" si="0"/>
         <v>45210</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="28">
         <f t="shared" si="0"/>
         <v>45211</v>
       </c>
-      <c r="T5" s="30">
+      <c r="T5" s="28">
         <f t="shared" si="0"/>
         <v>45212</v>
       </c>
-      <c r="U5" s="30">
+      <c r="U5" s="28">
         <f t="shared" si="0"/>
         <v>45213</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="29">
         <f t="shared" si="0"/>
         <v>45214</v>
       </c>
-      <c r="W5" s="32">
+      <c r="W5" s="30">
         <f>V5+1</f>
         <v>45215</v>
       </c>
-      <c r="X5" s="30">
+      <c r="X5" s="28">
         <f>W5+1</f>
         <v>45216</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Y5" s="28">
         <f t="shared" si="0"/>
         <v>45217</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="28">
         <f t="shared" si="0"/>
         <v>45218</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="28">
         <f t="shared" si="0"/>
         <v>45219</v>
       </c>
-      <c r="AB5" s="30">
+      <c r="AB5" s="28">
         <f t="shared" si="0"/>
         <v>45220</v>
       </c>
-      <c r="AC5" s="31">
+      <c r="AC5" s="29">
         <f t="shared" si="0"/>
         <v>45221</v>
       </c>
-      <c r="AD5" s="32">
+      <c r="AD5" s="30">
         <f>AC5+1</f>
         <v>45222</v>
       </c>
-      <c r="AE5" s="30">
+      <c r="AE5" s="28">
         <f>AD5+1</f>
         <v>45223</v>
       </c>
-      <c r="AF5" s="30">
+      <c r="AF5" s="28">
         <f t="shared" si="0"/>
         <v>45224</v>
       </c>
-      <c r="AG5" s="30">
+      <c r="AG5" s="28">
         <f t="shared" si="0"/>
         <v>45225</v>
       </c>
-      <c r="AH5" s="30">
+      <c r="AH5" s="28">
         <f t="shared" si="0"/>
         <v>45226</v>
       </c>
-      <c r="AI5" s="30">
+      <c r="AI5" s="28">
         <f t="shared" si="0"/>
         <v>45227</v>
       </c>
-      <c r="AJ5" s="31">
+      <c r="AJ5" s="29">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
-      <c r="AK5" s="32">
+      <c r="AK5" s="30">
         <f>AJ5+1</f>
         <v>45229</v>
       </c>
-      <c r="AL5" s="30">
+      <c r="AL5" s="28">
         <f>AK5+1</f>
         <v>45230</v>
       </c>
-      <c r="AM5" s="30">
+      <c r="AM5" s="28">
         <f t="shared" si="0"/>
         <v>45231</v>
       </c>
-      <c r="AN5" s="30">
+      <c r="AN5" s="28">
         <f t="shared" si="0"/>
         <v>45232</v>
       </c>
-      <c r="AO5" s="30">
+      <c r="AO5" s="28">
         <f t="shared" si="0"/>
         <v>45233</v>
       </c>
-      <c r="AP5" s="30">
+      <c r="AP5" s="28">
         <f t="shared" si="0"/>
         <v>45234</v>
       </c>
-      <c r="AQ5" s="31">
+      <c r="AQ5" s="29">
         <f t="shared" si="0"/>
         <v>45235</v>
       </c>
-      <c r="AR5" s="32">
+      <c r="AR5" s="30">
         <f>AQ5+1</f>
         <v>45236</v>
       </c>
-      <c r="AS5" s="30">
+      <c r="AS5" s="28">
         <f>AR5+1</f>
         <v>45237</v>
       </c>
-      <c r="AT5" s="30">
+      <c r="AT5" s="28">
         <f t="shared" si="0"/>
         <v>45238</v>
       </c>
-      <c r="AU5" s="30">
+      <c r="AU5" s="28">
         <f t="shared" si="0"/>
         <v>45239</v>
       </c>
-      <c r="AV5" s="30">
+      <c r="AV5" s="28">
         <f t="shared" si="0"/>
         <v>45240</v>
       </c>
-      <c r="AW5" s="30">
+      <c r="AW5" s="28">
         <f t="shared" si="0"/>
         <v>45241</v>
       </c>
-      <c r="AX5" s="31">
+      <c r="AX5" s="29">
         <f t="shared" si="0"/>
         <v>45242</v>
       </c>
-      <c r="AY5" s="32">
+      <c r="AY5" s="30">
         <f>AX5+1</f>
         <v>45243</v>
       </c>
-      <c r="AZ5" s="30">
+      <c r="AZ5" s="28">
         <f>AY5+1</f>
         <v>45244</v>
       </c>
-      <c r="BA5" s="30">
+      <c r="BA5" s="28">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45245</v>
       </c>
-      <c r="BB5" s="30">
+      <c r="BB5" s="28">
         <f t="shared" si="1"/>
         <v>45246</v>
       </c>
-      <c r="BC5" s="30">
+      <c r="BC5" s="28">
         <f t="shared" si="1"/>
         <v>45247</v>
       </c>
-      <c r="BD5" s="30">
+      <c r="BD5" s="28">
         <f t="shared" si="1"/>
         <v>45248</v>
       </c>
-      <c r="BE5" s="31">
+      <c r="BE5" s="29">
         <f t="shared" si="1"/>
         <v>45249</v>
       </c>
-      <c r="BF5" s="32">
+      <c r="BF5" s="30">
         <f>BE5+1</f>
         <v>45250</v>
       </c>
-      <c r="BG5" s="30">
+      <c r="BG5" s="28">
         <f>BF5+1</f>
         <v>45251</v>
       </c>
-      <c r="BH5" s="30">
+      <c r="BH5" s="28">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45252</v>
       </c>
-      <c r="BI5" s="30">
+      <c r="BI5" s="28">
         <f t="shared" si="2"/>
         <v>45253</v>
       </c>
-      <c r="BJ5" s="30">
+      <c r="BJ5" s="28">
         <f t="shared" si="2"/>
         <v>45254</v>
       </c>
-      <c r="BK5" s="30">
+      <c r="BK5" s="28">
         <f t="shared" si="2"/>
         <v>45255</v>
       </c>
-      <c r="BL5" s="30">
+      <c r="BL5" s="28">
         <f t="shared" si="2"/>
         <v>45256</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="I6" s="33" t="str">
+    <row r="6" spans="1:64" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="113"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="I6" s="31" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="J6" s="34" t="str">
+      <c r="J6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="K6" s="34" t="str">
+      <c r="K6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="L6" s="34" t="str">
+      <c r="L6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="M6" s="34" t="str">
+      <c r="M6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="N6" s="34" t="str">
+      <c r="N6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="O6" s="34" t="str">
+      <c r="O6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="P6" s="34" t="str">
+      <c r="P6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="Q6" s="34" t="str">
+      <c r="Q6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="R6" s="34" t="str">
+      <c r="R6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="S6" s="34" t="str">
+      <c r="S6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="T6" s="34" t="str">
+      <c r="T6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="U6" s="34" t="str">
+      <c r="U6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="V6" s="34" t="str">
+      <c r="V6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="W6" s="34" t="str">
+      <c r="W6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="X6" s="34" t="str">
+      <c r="X6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="Y6" s="34" t="str">
+      <c r="Y6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="Z6" s="34" t="str">
+      <c r="Z6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AA6" s="34" t="str">
+      <c r="AA6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="AB6" s="34" t="str">
+      <c r="AB6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AC6" s="34" t="str">
+      <c r="AC6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AD6" s="34" t="str">
+      <c r="AD6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="AE6" s="34" t="str">
+      <c r="AE6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AF6" s="34" t="str">
+      <c r="AF6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="AG6" s="34" t="str">
+      <c r="AG6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AH6" s="34" t="str">
+      <c r="AH6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="AI6" s="34" t="str">
+      <c r="AI6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AJ6" s="34" t="str">
+      <c r="AJ6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AK6" s="34" t="str">
+      <c r="AK6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="AL6" s="34" t="str">
+      <c r="AL6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AM6" s="34" t="str">
+      <c r="AM6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="AN6" s="34" t="str">
+      <c r="AN6" s="32" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AO6" s="34" t="str">
+      <c r="AO6" s="32" t="str">
         <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="AP6" s="34" t="str">
+      <c r="AP6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AQ6" s="34" t="str">
+      <c r="AQ6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AR6" s="34" t="str">
+      <c r="AR6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AS6" s="34" t="str">
+      <c r="AS6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AT6" s="34" t="str">
+      <c r="AT6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AU6" s="34" t="str">
+      <c r="AU6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AV6" s="34" t="str">
+      <c r="AV6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AW6" s="34" t="str">
+      <c r="AW6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AX6" s="34" t="str">
+      <c r="AX6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AY6" s="34" t="str">
+      <c r="AY6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AZ6" s="34" t="str">
+      <c r="AZ6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BA6" s="34" t="str">
+      <c r="BA6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="BB6" s="34" t="str">
+      <c r="BB6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BC6" s="34" t="str">
+      <c r="BC6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="BD6" s="34" t="str">
+      <c r="BD6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BE6" s="34" t="str">
+      <c r="BE6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BF6" s="34" t="str">
+      <c r="BF6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="BG6" s="34" t="str">
+      <c r="BG6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BH6" s="34" t="str">
+      <c r="BH6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="BI6" s="34" t="str">
+      <c r="BI6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BJ6" s="34" t="str">
+      <c r="BJ6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="BK6" s="34" t="str">
+      <c r="BK6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BL6" s="35" t="str">
+      <c r="BL6" s="33" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" s="23" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="H7" s="25" t="str">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="H7" s="23" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
-      <c r="BB7" s="38"/>
-      <c r="BC7" s="38"/>
-      <c r="BD7" s="38"/>
-      <c r="BE7" s="38"/>
-      <c r="BF7" s="38"/>
-      <c r="BG7" s="38"/>
-      <c r="BH7" s="38"/>
-      <c r="BI7" s="38"/>
-      <c r="BJ7" s="38"/>
-      <c r="BK7" s="38"/>
-      <c r="BL7" s="38"/>
-    </row>
-    <row r="8" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="36"/>
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="36"/>
+      <c r="AY7" s="36"/>
+      <c r="AZ7" s="36"/>
+      <c r="BA7" s="36"/>
+      <c r="BB7" s="36"/>
+      <c r="BC7" s="36"/>
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="36"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="36"/>
+      <c r="BJ7" s="36"/>
+      <c r="BK7" s="36"/>
+      <c r="BL7" s="36"/>
+    </row>
+    <row r="8" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="16"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="4" t="str">
-        <f t="shared" ref="H8:H34" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H35" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="44"/>
-      <c r="BE8" s="44"/>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="44"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="44"/>
-    </row>
-    <row r="9" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="42"/>
+      <c r="AV8" s="42"/>
+      <c r="AW8" s="42"/>
+      <c r="AX8" s="42"/>
+      <c r="AY8" s="42"/>
+      <c r="AZ8" s="42"/>
+      <c r="BA8" s="42"/>
+      <c r="BB8" s="42"/>
+      <c r="BC8" s="42"/>
+      <c r="BD8" s="42"/>
+      <c r="BE8" s="42"/>
+      <c r="BF8" s="42"/>
+      <c r="BG8" s="42"/>
+      <c r="BH8" s="42"/>
+      <c r="BI8" s="42"/>
+      <c r="BJ8" s="42"/>
+      <c r="BK8" s="42"/>
+      <c r="BL8" s="42"/>
+    </row>
+    <row r="9" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="46">
         <v>1</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="47">
         <f>Project_Start</f>
         <v>45202</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="47">
         <f>E9+3</f>
         <v>45205</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="50"/>
-      <c r="AZ9" s="50"/>
-      <c r="BA9" s="50"/>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="50"/>
-      <c r="BD9" s="50"/>
-      <c r="BE9" s="50"/>
-      <c r="BF9" s="50"/>
-      <c r="BG9" s="50"/>
-      <c r="BH9" s="50"/>
-      <c r="BI9" s="50"/>
-      <c r="BJ9" s="50"/>
-      <c r="BK9" s="50"/>
-      <c r="BL9" s="50"/>
-    </row>
-    <row r="10" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="48"/>
+      <c r="AP9" s="48"/>
+      <c r="AQ9" s="48"/>
+      <c r="AR9" s="48"/>
+      <c r="AS9" s="48"/>
+      <c r="AT9" s="48"/>
+      <c r="AU9" s="48"/>
+      <c r="AV9" s="48"/>
+      <c r="AW9" s="48"/>
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="48"/>
+      <c r="AZ9" s="48"/>
+      <c r="BA9" s="48"/>
+      <c r="BB9" s="48"/>
+      <c r="BC9" s="48"/>
+      <c r="BD9" s="48"/>
+      <c r="BE9" s="48"/>
+      <c r="BF9" s="48"/>
+      <c r="BG9" s="48"/>
+      <c r="BH9" s="48"/>
+      <c r="BI9" s="48"/>
+      <c r="BJ9" s="48"/>
+      <c r="BK9" s="48"/>
+      <c r="BL9" s="48"/>
+    </row>
+    <row r="10" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="51">
         <v>1</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="47">
         <f>Project_Start</f>
         <v>45202</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="47">
         <f>E10+3</f>
         <v>45205</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="50"/>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="50"/>
-      <c r="AW10" s="50"/>
-      <c r="AX10" s="50"/>
-      <c r="AY10" s="50"/>
-      <c r="AZ10" s="50"/>
-      <c r="BA10" s="50"/>
-      <c r="BB10" s="50"/>
-      <c r="BC10" s="50"/>
-      <c r="BD10" s="50"/>
-      <c r="BE10" s="50"/>
-      <c r="BF10" s="50"/>
-      <c r="BG10" s="50"/>
-      <c r="BH10" s="50"/>
-      <c r="BI10" s="50"/>
-      <c r="BJ10" s="50"/>
-      <c r="BK10" s="50"/>
-      <c r="BL10" s="50"/>
-    </row>
-    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="48"/>
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="48"/>
+      <c r="AV10" s="48"/>
+      <c r="AW10" s="48"/>
+      <c r="AX10" s="48"/>
+      <c r="AY10" s="48"/>
+      <c r="AZ10" s="48"/>
+      <c r="BA10" s="48"/>
+      <c r="BB10" s="48"/>
+      <c r="BC10" s="48"/>
+      <c r="BD10" s="48"/>
+      <c r="BE10" s="48"/>
+      <c r="BF10" s="48"/>
+      <c r="BG10" s="48"/>
+      <c r="BH10" s="48"/>
+      <c r="BI10" s="48"/>
+      <c r="BJ10" s="48"/>
+      <c r="BK10" s="48"/>
+      <c r="BL10" s="48"/>
+    </row>
+    <row r="11" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="51">
         <v>1</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="52">
         <f>F10</f>
         <v>45205</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="52">
         <f>E11+4</f>
         <v>45209</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="50"/>
-      <c r="AZ11" s="50"/>
-      <c r="BA11" s="50"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
-      <c r="BD11" s="50"/>
-      <c r="BE11" s="50"/>
-      <c r="BF11" s="50"/>
-      <c r="BG11" s="50"/>
-      <c r="BH11" s="50"/>
-      <c r="BI11" s="50"/>
-      <c r="BJ11" s="50"/>
-      <c r="BK11" s="50"/>
-      <c r="BL11" s="50"/>
-    </row>
-    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="48"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="48"/>
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="48"/>
+      <c r="BB11" s="48"/>
+      <c r="BC11" s="48"/>
+      <c r="BD11" s="48"/>
+      <c r="BE11" s="48"/>
+      <c r="BF11" s="48"/>
+      <c r="BG11" s="48"/>
+      <c r="BH11" s="48"/>
+      <c r="BI11" s="48"/>
+      <c r="BJ11" s="48"/>
+      <c r="BK11" s="48"/>
+      <c r="BL11" s="48"/>
+    </row>
+    <row r="12" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="51">
         <v>1</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="52">
         <f>F11</f>
         <v>45209</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="52">
         <f>E12+2</f>
         <v>45211</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="50"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
-      <c r="BB12" s="50"/>
-      <c r="BC12" s="50"/>
-      <c r="BD12" s="50"/>
-      <c r="BE12" s="50"/>
-      <c r="BF12" s="50"/>
-      <c r="BG12" s="50"/>
-      <c r="BH12" s="50"/>
-      <c r="BI12" s="50"/>
-      <c r="BJ12" s="50"/>
-      <c r="BK12" s="50"/>
-      <c r="BL12" s="50"/>
-    </row>
-    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="48"/>
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="48"/>
+      <c r="BA12" s="48"/>
+      <c r="BB12" s="48"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="48"/>
+      <c r="BE12" s="48"/>
+      <c r="BF12" s="48"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="48"/>
+      <c r="BI12" s="48"/>
+      <c r="BJ12" s="48"/>
+      <c r="BK12" s="48"/>
+      <c r="BL12" s="48"/>
+    </row>
+    <row r="13" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="51">
         <v>1</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="52">
         <v>45204</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="52">
         <f>E13+2</f>
         <v>45206</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="50"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="50"/>
-      <c r="AX13" s="50"/>
-      <c r="AY13" s="50"/>
-      <c r="AZ13" s="50"/>
-      <c r="BA13" s="50"/>
-      <c r="BB13" s="50"/>
-      <c r="BC13" s="50"/>
-      <c r="BD13" s="50"/>
-      <c r="BE13" s="50"/>
-      <c r="BF13" s="50"/>
-      <c r="BG13" s="50"/>
-      <c r="BH13" s="50"/>
-      <c r="BI13" s="50"/>
-      <c r="BJ13" s="50"/>
-      <c r="BK13" s="50"/>
-      <c r="BL13" s="50"/>
-    </row>
-    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="48"/>
+      <c r="AU13" s="48"/>
+      <c r="AV13" s="48"/>
+      <c r="AW13" s="48"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="48"/>
+      <c r="AZ13" s="48"/>
+      <c r="BA13" s="48"/>
+      <c r="BB13" s="48"/>
+      <c r="BC13" s="48"/>
+      <c r="BD13" s="48"/>
+      <c r="BE13" s="48"/>
+      <c r="BF13" s="48"/>
+      <c r="BG13" s="48"/>
+      <c r="BH13" s="48"/>
+      <c r="BI13" s="48"/>
+      <c r="BJ13" s="48"/>
+      <c r="BK13" s="48"/>
+      <c r="BL13" s="48"/>
+    </row>
+    <row r="14" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="61">
         <v>0.6</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="62">
         <f>E13+7</f>
         <v>45211</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="62">
         <f>E15+13</f>
         <v>45224</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="4">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="50"/>
-      <c r="AT15" s="50"/>
-      <c r="AU15" s="50"/>
-      <c r="AV15" s="50"/>
-      <c r="AW15" s="50"/>
-      <c r="AX15" s="50"/>
-      <c r="AY15" s="50"/>
-      <c r="AZ15" s="50"/>
-      <c r="BA15" s="50"/>
-      <c r="BB15" s="50"/>
-      <c r="BC15" s="50"/>
-      <c r="BD15" s="50"/>
-      <c r="BE15" s="50"/>
-      <c r="BF15" s="50"/>
-      <c r="BG15" s="50"/>
-      <c r="BH15" s="50"/>
-      <c r="BI15" s="50"/>
-      <c r="BJ15" s="50"/>
-      <c r="BK15" s="50"/>
-      <c r="BL15" s="50"/>
-    </row>
-    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="48"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="48"/>
+      <c r="AZ15" s="48"/>
+      <c r="BA15" s="48"/>
+      <c r="BB15" s="48"/>
+      <c r="BC15" s="48"/>
+      <c r="BD15" s="48"/>
+      <c r="BE15" s="48"/>
+      <c r="BF15" s="48"/>
+      <c r="BG15" s="48"/>
+      <c r="BH15" s="48"/>
+      <c r="BI15" s="48"/>
+      <c r="BJ15" s="48"/>
+      <c r="BK15" s="48"/>
+      <c r="BL15" s="48"/>
+    </row>
+    <row r="16" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="61">
         <v>0.85</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="62">
         <v>45211</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="62">
         <f>E16+10</f>
         <v>45221</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="50"/>
-      <c r="AI16" s="50"/>
-      <c r="AJ16" s="50"/>
-      <c r="AK16" s="50"/>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="50"/>
-      <c r="AS16" s="50"/>
-      <c r="AT16" s="50"/>
-      <c r="AU16" s="50"/>
-      <c r="AV16" s="50"/>
-      <c r="AW16" s="50"/>
-      <c r="AX16" s="50"/>
-      <c r="AY16" s="50"/>
-      <c r="AZ16" s="50"/>
-      <c r="BA16" s="50"/>
-      <c r="BB16" s="50"/>
-      <c r="BC16" s="50"/>
-      <c r="BD16" s="50"/>
-      <c r="BE16" s="50"/>
-      <c r="BF16" s="50"/>
-      <c r="BG16" s="50"/>
-      <c r="BH16" s="50"/>
-      <c r="BI16" s="50"/>
-      <c r="BJ16" s="50"/>
-      <c r="BK16" s="50"/>
-      <c r="BL16" s="50"/>
-    </row>
-    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="48"/>
+      <c r="AU16" s="48"/>
+      <c r="AV16" s="48"/>
+      <c r="AW16" s="48"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="48"/>
+      <c r="AZ16" s="48"/>
+      <c r="BA16" s="48"/>
+      <c r="BB16" s="48"/>
+      <c r="BC16" s="48"/>
+      <c r="BD16" s="48"/>
+      <c r="BE16" s="48"/>
+      <c r="BF16" s="48"/>
+      <c r="BG16" s="48"/>
+      <c r="BH16" s="48"/>
+      <c r="BI16" s="48"/>
+      <c r="BJ16" s="48"/>
+      <c r="BK16" s="48"/>
+      <c r="BL16" s="48"/>
+    </row>
+    <row r="17" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="63">
-        <v>0.95</v>
-      </c>
-      <c r="E17" s="64">
+      <c r="D17" s="61">
+        <v>1</v>
+      </c>
+      <c r="E17" s="62">
         <f>E15</f>
         <v>45211</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="62">
         <f>E17+12</f>
         <v>45223</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="4">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="50"/>
-      <c r="AK17" s="50"/>
-      <c r="AL17" s="50"/>
-      <c r="AM17" s="50"/>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="50"/>
-      <c r="AS17" s="50"/>
-      <c r="AT17" s="50"/>
-      <c r="AU17" s="50"/>
-      <c r="AV17" s="50"/>
-      <c r="AW17" s="50"/>
-      <c r="AX17" s="50"/>
-      <c r="AY17" s="50"/>
-      <c r="AZ17" s="50"/>
-      <c r="BA17" s="50"/>
-      <c r="BB17" s="50"/>
-      <c r="BC17" s="50"/>
-      <c r="BD17" s="50"/>
-      <c r="BE17" s="50"/>
-      <c r="BF17" s="50"/>
-      <c r="BG17" s="50"/>
-      <c r="BH17" s="50"/>
-      <c r="BI17" s="50"/>
-      <c r="BJ17" s="50"/>
-      <c r="BK17" s="50"/>
-      <c r="BL17" s="50"/>
-    </row>
-    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="48"/>
+      <c r="AQ17" s="48"/>
+      <c r="AR17" s="48"/>
+      <c r="AS17" s="48"/>
+      <c r="AT17" s="48"/>
+      <c r="AU17" s="48"/>
+      <c r="AV17" s="48"/>
+      <c r="AW17" s="48"/>
+      <c r="AX17" s="48"/>
+      <c r="AY17" s="48"/>
+      <c r="AZ17" s="48"/>
+      <c r="BA17" s="48"/>
+      <c r="BB17" s="48"/>
+      <c r="BC17" s="48"/>
+      <c r="BD17" s="48"/>
+      <c r="BE17" s="48"/>
+      <c r="BF17" s="48"/>
+      <c r="BG17" s="48"/>
+      <c r="BH17" s="48"/>
+      <c r="BI17" s="48"/>
+      <c r="BJ17" s="48"/>
+      <c r="BK17" s="48"/>
+      <c r="BL17" s="48"/>
+    </row>
+    <row r="18" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="63">
-        <v>0.95</v>
-      </c>
-      <c r="E18" s="64">
+      <c r="D18" s="61">
+        <v>1</v>
+      </c>
+      <c r="E18" s="62">
         <f>E17</f>
         <v>45211</v>
       </c>
-      <c r="F18" s="64">
-        <f>E18+12</f>
-        <v>45223</v>
-      </c>
-      <c r="G18" s="16"/>
+      <c r="F18" s="62">
+        <f>E18+14</f>
+        <v>45225</v>
+      </c>
+      <c r="G18" s="14"/>
       <c r="H18" s="4">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="50"/>
-      <c r="BF18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="50"/>
-      <c r="BK18" s="50"/>
-      <c r="BL18" s="50"/>
-    </row>
-    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="48"/>
+      <c r="AS18" s="48"/>
+      <c r="AT18" s="48"/>
+      <c r="AU18" s="48"/>
+      <c r="AV18" s="48"/>
+      <c r="AW18" s="48"/>
+      <c r="AX18" s="48"/>
+      <c r="AY18" s="48"/>
+      <c r="AZ18" s="48"/>
+      <c r="BA18" s="48"/>
+      <c r="BB18" s="48"/>
+      <c r="BC18" s="48"/>
+      <c r="BD18" s="48"/>
+      <c r="BE18" s="48"/>
+      <c r="BF18" s="48"/>
+      <c r="BG18" s="48"/>
+      <c r="BH18" s="48"/>
+      <c r="BI18" s="48"/>
+      <c r="BJ18" s="48"/>
+      <c r="BK18" s="48"/>
+      <c r="BL18" s="48"/>
+    </row>
+    <row r="19" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="61">
         <v>1</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="62">
         <f>E17-2</f>
         <v>45209</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="62">
         <f>E19+9</f>
         <v>45218</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
-      <c r="AH19" s="50"/>
-      <c r="AI19" s="50"/>
-      <c r="AJ19" s="50"/>
-      <c r="AK19" s="50"/>
-      <c r="AL19" s="50"/>
-      <c r="AM19" s="50"/>
-      <c r="AN19" s="50"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="50"/>
-      <c r="AU19" s="50"/>
-      <c r="AV19" s="50"/>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="50"/>
-      <c r="AZ19" s="50"/>
-      <c r="BA19" s="50"/>
-      <c r="BB19" s="50"/>
-      <c r="BC19" s="50"/>
-      <c r="BD19" s="50"/>
-      <c r="BE19" s="50"/>
-      <c r="BF19" s="50"/>
-      <c r="BG19" s="50"/>
-      <c r="BH19" s="50"/>
-      <c r="BI19" s="50"/>
-      <c r="BJ19" s="50"/>
-      <c r="BK19" s="50"/>
-      <c r="BL19" s="50"/>
-    </row>
-    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="48"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="48"/>
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
+      <c r="AU19" s="48"/>
+      <c r="AV19" s="48"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="48"/>
+      <c r="AZ19" s="48"/>
+      <c r="BA19" s="48"/>
+      <c r="BB19" s="48"/>
+      <c r="BC19" s="48"/>
+      <c r="BD19" s="48"/>
+      <c r="BE19" s="48"/>
+      <c r="BF19" s="48"/>
+      <c r="BG19" s="48"/>
+      <c r="BH19" s="48"/>
+      <c r="BI19" s="48"/>
+      <c r="BJ19" s="48"/>
+      <c r="BK19" s="48"/>
+      <c r="BL19" s="48"/>
+    </row>
+    <row r="20" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="63">
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="64">
-        <f>E18-2</f>
+      <c r="B20" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="E20" s="62">
+        <f>E17-2</f>
         <v>45209</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="62">
         <f>E20+20</f>
         <v>45229</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="4">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="50"/>
-      <c r="AI20" s="50"/>
-      <c r="AJ20" s="50"/>
-      <c r="AK20" s="50"/>
-      <c r="AL20" s="50"/>
-      <c r="AM20" s="50"/>
-      <c r="AN20" s="50"/>
-      <c r="AO20" s="50"/>
-      <c r="AP20" s="50"/>
-      <c r="AQ20" s="50"/>
-      <c r="AR20" s="50"/>
-      <c r="AS20" s="50"/>
-      <c r="AT20" s="50"/>
-      <c r="AU20" s="50"/>
-      <c r="AV20" s="50"/>
-      <c r="AW20" s="50"/>
-      <c r="AX20" s="50"/>
-      <c r="AY20" s="50"/>
-      <c r="AZ20" s="50"/>
-      <c r="BA20" s="50"/>
-      <c r="BB20" s="50"/>
-      <c r="BC20" s="50"/>
-      <c r="BD20" s="50"/>
-      <c r="BE20" s="50"/>
-      <c r="BF20" s="50"/>
-      <c r="BG20" s="50"/>
-      <c r="BH20" s="50"/>
-      <c r="BI20" s="50"/>
-      <c r="BJ20" s="50"/>
-      <c r="BK20" s="50"/>
-      <c r="BL20" s="50"/>
-    </row>
-    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="48"/>
+      <c r="AX20" s="48"/>
+      <c r="AY20" s="48"/>
+      <c r="AZ20" s="48"/>
+      <c r="BA20" s="48"/>
+      <c r="BB20" s="48"/>
+      <c r="BC20" s="48"/>
+      <c r="BD20" s="48"/>
+      <c r="BE20" s="48"/>
+      <c r="BF20" s="48"/>
+      <c r="BG20" s="48"/>
+      <c r="BH20" s="48"/>
+      <c r="BI20" s="48"/>
+      <c r="BJ20" s="48"/>
+      <c r="BK20" s="48"/>
+      <c r="BL20" s="48"/>
+    </row>
+    <row r="21" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="62">
+        <f>E18-2</f>
+        <v>45209</v>
+      </c>
+      <c r="F21" s="62">
+        <f>E21+20</f>
+        <v>45229</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="4">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="48"/>
+      <c r="AZ21" s="48"/>
+      <c r="BA21" s="48"/>
+      <c r="BB21" s="48"/>
+      <c r="BC21" s="48"/>
+      <c r="BD21" s="48"/>
+      <c r="BE21" s="48"/>
+      <c r="BF21" s="48"/>
+      <c r="BG21" s="48"/>
+      <c r="BH21" s="48"/>
+      <c r="BI21" s="48"/>
+      <c r="BJ21" s="48"/>
+      <c r="BK21" s="48"/>
+      <c r="BL21" s="48"/>
+    </row>
+    <row r="22" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="4" t="str">
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="70"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="70"/>
-      <c r="AH21" s="70"/>
-      <c r="AI21" s="70"/>
-      <c r="AJ21" s="70"/>
-      <c r="AK21" s="70"/>
-      <c r="AL21" s="70"/>
-      <c r="AM21" s="70"/>
-      <c r="AN21" s="70"/>
-      <c r="AO21" s="70"/>
-      <c r="AP21" s="70"/>
-      <c r="AQ21" s="70"/>
-      <c r="AR21" s="70"/>
-      <c r="AS21" s="70"/>
-      <c r="AT21" s="70"/>
-      <c r="AU21" s="70"/>
-      <c r="AV21" s="70"/>
-      <c r="AW21" s="70"/>
-      <c r="AX21" s="70"/>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="70"/>
-      <c r="BA21" s="70"/>
-      <c r="BB21" s="70"/>
-      <c r="BC21" s="70"/>
-      <c r="BD21" s="70"/>
-      <c r="BE21" s="70"/>
-      <c r="BF21" s="70"/>
-      <c r="BG21" s="70"/>
-      <c r="BH21" s="70"/>
-      <c r="BI21" s="70"/>
-      <c r="BJ21" s="70"/>
-      <c r="BK21" s="70"/>
-      <c r="BL21" s="70"/>
-    </row>
-    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="71" t="s">
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="68"/>
+      <c r="AE22" s="68"/>
+      <c r="AF22" s="68"/>
+      <c r="AG22" s="68"/>
+      <c r="AH22" s="68"/>
+      <c r="AI22" s="68"/>
+      <c r="AJ22" s="68"/>
+      <c r="AK22" s="68"/>
+      <c r="AL22" s="68"/>
+      <c r="AM22" s="68"/>
+      <c r="AN22" s="68"/>
+      <c r="AO22" s="68"/>
+      <c r="AP22" s="68"/>
+      <c r="AQ22" s="68"/>
+      <c r="AR22" s="68"/>
+      <c r="AS22" s="68"/>
+      <c r="AT22" s="68"/>
+      <c r="AU22" s="68"/>
+      <c r="AV22" s="68"/>
+      <c r="AW22" s="68"/>
+      <c r="AX22" s="68"/>
+      <c r="AY22" s="68"/>
+      <c r="AZ22" s="68"/>
+      <c r="BA22" s="68"/>
+      <c r="BB22" s="68"/>
+      <c r="BC22" s="68"/>
+      <c r="BD22" s="68"/>
+      <c r="BE22" s="68"/>
+      <c r="BF22" s="68"/>
+      <c r="BG22" s="68"/>
+      <c r="BH22" s="68"/>
+      <c r="BI22" s="68"/>
+      <c r="BJ22" s="68"/>
+      <c r="BK22" s="68"/>
+      <c r="BL22" s="68"/>
+    </row>
+    <row r="23" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C23" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="73">
+      <c r="D23" s="71">
         <v>0</v>
       </c>
-      <c r="E22" s="74">
+      <c r="E23" s="72">
         <f>$E$9+15</f>
         <v>45217</v>
       </c>
-      <c r="F22" s="74">
-        <f>E22+5</f>
+      <c r="F23" s="72">
+        <f>E23+5</f>
         <v>45222</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="4">
+      <c r="G23" s="14"/>
+      <c r="H23" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="50"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="50"/>
-      <c r="AL22" s="50"/>
-      <c r="AM22" s="50"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="50"/>
-      <c r="AP22" s="50"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="50"/>
-      <c r="AT22" s="50"/>
-      <c r="AU22" s="50"/>
-      <c r="AV22" s="50"/>
-      <c r="AW22" s="50"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="50"/>
-      <c r="AZ22" s="50"/>
-      <c r="BA22" s="50"/>
-      <c r="BB22" s="50"/>
-      <c r="BC22" s="50"/>
-      <c r="BD22" s="50"/>
-      <c r="BE22" s="50"/>
-      <c r="BF22" s="50"/>
-      <c r="BG22" s="50"/>
-      <c r="BH22" s="50"/>
-      <c r="BI22" s="50"/>
-      <c r="BJ22" s="50"/>
-      <c r="BK22" s="50"/>
-      <c r="BL22" s="50"/>
-    </row>
-    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="71" t="s">
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="48"/>
+      <c r="AS23" s="48"/>
+      <c r="AT23" s="48"/>
+      <c r="AU23" s="48"/>
+      <c r="AV23" s="48"/>
+      <c r="AW23" s="48"/>
+      <c r="AX23" s="48"/>
+      <c r="AY23" s="48"/>
+      <c r="AZ23" s="48"/>
+      <c r="BA23" s="48"/>
+      <c r="BB23" s="48"/>
+      <c r="BC23" s="48"/>
+      <c r="BD23" s="48"/>
+      <c r="BE23" s="48"/>
+      <c r="BF23" s="48"/>
+      <c r="BG23" s="48"/>
+      <c r="BH23" s="48"/>
+      <c r="BI23" s="48"/>
+      <c r="BJ23" s="48"/>
+      <c r="BK23" s="48"/>
+      <c r="BL23" s="48"/>
+    </row>
+    <row r="24" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C24" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="73">
+      <c r="D24" s="71">
         <v>0</v>
       </c>
-      <c r="E23" s="74">
-        <f t="shared" ref="E23:E26" si="6">$E$9+15</f>
+      <c r="E24" s="72">
+        <f t="shared" ref="E24:E27" si="6">$E$9+15</f>
         <v>45217</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F24" s="72">
         <v>45215</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="4">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
-      <c r="AH23" s="50"/>
-      <c r="AI23" s="50"/>
-      <c r="AJ23" s="50"/>
-      <c r="AK23" s="50"/>
-      <c r="AL23" s="50"/>
-      <c r="AM23" s="50"/>
-      <c r="AN23" s="50"/>
-      <c r="AO23" s="50"/>
-      <c r="AP23" s="50"/>
-      <c r="AQ23" s="50"/>
-      <c r="AR23" s="50"/>
-      <c r="AS23" s="50"/>
-      <c r="AT23" s="50"/>
-      <c r="AU23" s="50"/>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="50"/>
-      <c r="AZ23" s="50"/>
-      <c r="BA23" s="50"/>
-      <c r="BB23" s="50"/>
-      <c r="BC23" s="50"/>
-      <c r="BD23" s="50"/>
-      <c r="BE23" s="50"/>
-      <c r="BF23" s="50"/>
-      <c r="BG23" s="50"/>
-      <c r="BH23" s="50"/>
-      <c r="BI23" s="50"/>
-      <c r="BJ23" s="50"/>
-      <c r="BK23" s="50"/>
-      <c r="BL23" s="50"/>
-    </row>
-    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="73">
-        <v>0</v>
-      </c>
-      <c r="E24" s="74">
-        <f t="shared" si="6"/>
-        <v>45217</v>
-      </c>
-      <c r="F24" s="74">
-        <v>45215</v>
-      </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="4">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="50"/>
-      <c r="AI24" s="50"/>
-      <c r="AJ24" s="50"/>
-      <c r="AK24" s="50"/>
-      <c r="AL24" s="50"/>
-      <c r="AM24" s="50"/>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="50"/>
-      <c r="AP24" s="50"/>
-      <c r="AQ24" s="50"/>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="50"/>
-      <c r="AT24" s="50"/>
-      <c r="AU24" s="50"/>
-      <c r="AV24" s="50"/>
-      <c r="AW24" s="50"/>
-      <c r="AX24" s="50"/>
-      <c r="AY24" s="50"/>
-      <c r="AZ24" s="50"/>
-      <c r="BA24" s="50"/>
-      <c r="BB24" s="50"/>
-      <c r="BC24" s="50"/>
-      <c r="BD24" s="50"/>
-      <c r="BE24" s="50"/>
-      <c r="BF24" s="50"/>
-      <c r="BG24" s="50"/>
-      <c r="BH24" s="50"/>
-      <c r="BI24" s="50"/>
-      <c r="BJ24" s="50"/>
-      <c r="BK24" s="50"/>
-      <c r="BL24" s="50"/>
-    </row>
-    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="48"/>
+      <c r="AK24" s="48"/>
+      <c r="AL24" s="48"/>
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="48"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="48"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
+      <c r="AV24" s="48"/>
+      <c r="AW24" s="48"/>
+      <c r="AX24" s="48"/>
+      <c r="AY24" s="48"/>
+      <c r="AZ24" s="48"/>
+      <c r="BA24" s="48"/>
+      <c r="BB24" s="48"/>
+      <c r="BC24" s="48"/>
+      <c r="BD24" s="48"/>
+      <c r="BE24" s="48"/>
+      <c r="BF24" s="48"/>
+      <c r="BG24" s="48"/>
+      <c r="BH24" s="48"/>
+      <c r="BI24" s="48"/>
+      <c r="BJ24" s="48"/>
+      <c r="BK24" s="48"/>
+      <c r="BL24" s="48"/>
+    </row>
+    <row r="25" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
-      <c r="B25" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="73">
-        <v>0</v>
-      </c>
-      <c r="E25" s="74">
+      <c r="B25" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="71">
+        <v>0.95</v>
+      </c>
+      <c r="E25" s="72">
         <f t="shared" si="6"/>
         <v>45217</v>
       </c>
-      <c r="F25" s="74">
-        <f>E25+4</f>
-        <v>45221</v>
-      </c>
-      <c r="G25" s="16"/>
+      <c r="F25" s="72">
+        <v>45225</v>
+      </c>
+      <c r="G25" s="14"/>
       <c r="H25" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="50"/>
-      <c r="AH25" s="50"/>
-      <c r="AI25" s="50"/>
-      <c r="AJ25" s="50"/>
-      <c r="AK25" s="50"/>
-      <c r="AL25" s="50"/>
-      <c r="AM25" s="50"/>
-      <c r="AN25" s="50"/>
-      <c r="AO25" s="50"/>
-      <c r="AP25" s="50"/>
-      <c r="AQ25" s="50"/>
-      <c r="AR25" s="50"/>
-      <c r="AS25" s="50"/>
-      <c r="AT25" s="50"/>
-      <c r="AU25" s="50"/>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="50"/>
-      <c r="BA25" s="50"/>
-      <c r="BB25" s="50"/>
-      <c r="BC25" s="50"/>
-      <c r="BD25" s="50"/>
-      <c r="BE25" s="50"/>
-      <c r="BF25" s="50"/>
-      <c r="BG25" s="50"/>
-      <c r="BH25" s="50"/>
-      <c r="BI25" s="50"/>
-      <c r="BJ25" s="50"/>
-      <c r="BK25" s="50"/>
-      <c r="BL25" s="50"/>
-    </row>
-    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="48"/>
+      <c r="AS25" s="48"/>
+      <c r="AT25" s="48"/>
+      <c r="AU25" s="48"/>
+      <c r="AV25" s="48"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="48"/>
+      <c r="AY25" s="48"/>
+      <c r="AZ25" s="48"/>
+      <c r="BA25" s="48"/>
+      <c r="BB25" s="48"/>
+      <c r="BC25" s="48"/>
+      <c r="BD25" s="48"/>
+      <c r="BE25" s="48"/>
+      <c r="BF25" s="48"/>
+      <c r="BG25" s="48"/>
+      <c r="BH25" s="48"/>
+      <c r="BI25" s="48"/>
+      <c r="BJ25" s="48"/>
+      <c r="BK25" s="48"/>
+      <c r="BL25" s="48"/>
+    </row>
+    <row r="26" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="73">
+      <c r="B26" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="71">
         <v>0</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="72">
         <f t="shared" si="6"/>
         <v>45217</v>
       </c>
-      <c r="F26" s="74">
+      <c r="F26" s="72">
         <f>E26+4</f>
         <v>45221</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="50"/>
-      <c r="AN26" s="50"/>
-      <c r="AO26" s="50"/>
-      <c r="AP26" s="50"/>
-      <c r="AQ26" s="50"/>
-      <c r="AR26" s="50"/>
-      <c r="AS26" s="50"/>
-      <c r="AT26" s="50"/>
-      <c r="AU26" s="50"/>
-      <c r="AV26" s="50"/>
-      <c r="AW26" s="50"/>
-      <c r="AX26" s="50"/>
-      <c r="AY26" s="50"/>
-      <c r="AZ26" s="50"/>
-      <c r="BA26" s="50"/>
-      <c r="BB26" s="50"/>
-      <c r="BC26" s="50"/>
-      <c r="BD26" s="50"/>
-      <c r="BE26" s="50"/>
-      <c r="BF26" s="50"/>
-      <c r="BG26" s="50"/>
-      <c r="BH26" s="50"/>
-      <c r="BI26" s="50"/>
-      <c r="BJ26" s="50"/>
-      <c r="BK26" s="50"/>
-      <c r="BL26" s="50"/>
-    </row>
-    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="48"/>
+      <c r="AR26" s="48"/>
+      <c r="AS26" s="48"/>
+      <c r="AT26" s="48"/>
+      <c r="AU26" s="48"/>
+      <c r="AV26" s="48"/>
+      <c r="AW26" s="48"/>
+      <c r="AX26" s="48"/>
+      <c r="AY26" s="48"/>
+      <c r="AZ26" s="48"/>
+      <c r="BA26" s="48"/>
+      <c r="BB26" s="48"/>
+      <c r="BC26" s="48"/>
+      <c r="BD26" s="48"/>
+      <c r="BE26" s="48"/>
+      <c r="BF26" s="48"/>
+      <c r="BG26" s="48"/>
+      <c r="BH26" s="48"/>
+      <c r="BI26" s="48"/>
+      <c r="BJ26" s="48"/>
+      <c r="BK26" s="48"/>
+      <c r="BL26" s="48"/>
+    </row>
+    <row r="27" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="71">
+        <v>0.45</v>
+      </c>
+      <c r="E27" s="72">
+        <f t="shared" si="6"/>
+        <v>45217</v>
+      </c>
+      <c r="F27" s="72">
+        <f>E27+15</f>
+        <v>45232</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="4">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="48"/>
+      <c r="AF27" s="48"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="48"/>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="48"/>
+      <c r="AO27" s="48"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="48"/>
+      <c r="AS27" s="48"/>
+      <c r="AT27" s="48"/>
+      <c r="AU27" s="48"/>
+      <c r="AV27" s="48"/>
+      <c r="AW27" s="48"/>
+      <c r="AX27" s="48"/>
+      <c r="AY27" s="48"/>
+      <c r="AZ27" s="48"/>
+      <c r="BA27" s="48"/>
+      <c r="BB27" s="48"/>
+      <c r="BC27" s="48"/>
+      <c r="BD27" s="48"/>
+      <c r="BE27" s="48"/>
+      <c r="BF27" s="48"/>
+      <c r="BG27" s="48"/>
+      <c r="BH27" s="48"/>
+      <c r="BI27" s="48"/>
+      <c r="BJ27" s="48"/>
+      <c r="BK27" s="48"/>
+      <c r="BL27" s="48"/>
+    </row>
+    <row r="28" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="4" t="str">
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="80"/>
-      <c r="AA27" s="80"/>
-      <c r="AB27" s="80"/>
-      <c r="AC27" s="80"/>
-      <c r="AD27" s="80"/>
-      <c r="AE27" s="80"/>
-      <c r="AF27" s="80"/>
-      <c r="AG27" s="80"/>
-      <c r="AH27" s="80"/>
-      <c r="AI27" s="80"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="80"/>
-      <c r="AL27" s="80"/>
-      <c r="AM27" s="80"/>
-      <c r="AN27" s="80"/>
-      <c r="AO27" s="80"/>
-      <c r="AP27" s="80"/>
-      <c r="AQ27" s="80"/>
-      <c r="AR27" s="80"/>
-      <c r="AS27" s="80"/>
-      <c r="AT27" s="80"/>
-      <c r="AU27" s="80"/>
-      <c r="AV27" s="80"/>
-      <c r="AW27" s="80"/>
-      <c r="AX27" s="80"/>
-      <c r="AY27" s="80"/>
-      <c r="AZ27" s="80"/>
-      <c r="BA27" s="80"/>
-      <c r="BB27" s="80"/>
-      <c r="BC27" s="80"/>
-      <c r="BD27" s="80"/>
-      <c r="BE27" s="80"/>
-      <c r="BF27" s="80"/>
-      <c r="BG27" s="80"/>
-      <c r="BH27" s="80"/>
-      <c r="BI27" s="80"/>
-      <c r="BJ27" s="80"/>
-      <c r="BK27" s="80"/>
-      <c r="BL27" s="80"/>
-    </row>
-    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="81" t="s">
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="78"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="78"/>
+      <c r="AJ28" s="78"/>
+      <c r="AK28" s="78"/>
+      <c r="AL28" s="78"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="78"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="78"/>
+      <c r="AQ28" s="78"/>
+      <c r="AR28" s="78"/>
+      <c r="AS28" s="78"/>
+      <c r="AT28" s="78"/>
+      <c r="AU28" s="78"/>
+      <c r="AV28" s="78"/>
+      <c r="AW28" s="78"/>
+      <c r="AX28" s="78"/>
+      <c r="AY28" s="78"/>
+      <c r="AZ28" s="78"/>
+      <c r="BA28" s="78"/>
+      <c r="BB28" s="78"/>
+      <c r="BC28" s="78"/>
+      <c r="BD28" s="78"/>
+      <c r="BE28" s="78"/>
+      <c r="BF28" s="78"/>
+      <c r="BG28" s="78"/>
+      <c r="BH28" s="78"/>
+      <c r="BI28" s="78"/>
+      <c r="BJ28" s="78"/>
+      <c r="BK28" s="78"/>
+      <c r="BL28" s="78"/>
+    </row>
+    <row r="29" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C29" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="83">
+      <c r="D29" s="81">
         <v>0</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E29" s="82">
         <v>45219</v>
       </c>
-      <c r="F28" s="84">
-        <f>E28+3</f>
+      <c r="F29" s="82">
+        <f>E29+3</f>
         <v>45222</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="4">
+      <c r="G29" s="14"/>
+      <c r="H29" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
-      <c r="AM28" s="50"/>
-      <c r="AN28" s="50"/>
-      <c r="AO28" s="50"/>
-      <c r="AP28" s="50"/>
-      <c r="AQ28" s="50"/>
-      <c r="AR28" s="50"/>
-      <c r="AS28" s="50"/>
-      <c r="AT28" s="50"/>
-      <c r="AU28" s="50"/>
-      <c r="AV28" s="50"/>
-      <c r="AW28" s="50"/>
-      <c r="AX28" s="50"/>
-      <c r="AY28" s="50"/>
-      <c r="AZ28" s="50"/>
-      <c r="BA28" s="50"/>
-      <c r="BB28" s="50"/>
-      <c r="BC28" s="50"/>
-      <c r="BD28" s="50"/>
-      <c r="BE28" s="50"/>
-      <c r="BF28" s="50"/>
-      <c r="BG28" s="50"/>
-      <c r="BH28" s="50"/>
-      <c r="BI28" s="50"/>
-      <c r="BJ28" s="50"/>
-      <c r="BK28" s="50"/>
-      <c r="BL28" s="50"/>
-    </row>
-    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="81" t="s">
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="48"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="48"/>
+      <c r="AO29" s="48"/>
+      <c r="AP29" s="48"/>
+      <c r="AQ29" s="48"/>
+      <c r="AR29" s="48"/>
+      <c r="AS29" s="48"/>
+      <c r="AT29" s="48"/>
+      <c r="AU29" s="48"/>
+      <c r="AV29" s="48"/>
+      <c r="AW29" s="48"/>
+      <c r="AX29" s="48"/>
+      <c r="AY29" s="48"/>
+      <c r="AZ29" s="48"/>
+      <c r="BA29" s="48"/>
+      <c r="BB29" s="48"/>
+      <c r="BC29" s="48"/>
+      <c r="BD29" s="48"/>
+      <c r="BE29" s="48"/>
+      <c r="BF29" s="48"/>
+      <c r="BG29" s="48"/>
+      <c r="BH29" s="48"/>
+      <c r="BI29" s="48"/>
+      <c r="BJ29" s="48"/>
+      <c r="BK29" s="48"/>
+      <c r="BL29" s="48"/>
+    </row>
+    <row r="30" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C30" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="83">
+      <c r="D30" s="81">
         <v>0</v>
       </c>
-      <c r="E29" s="84">
-        <f>F28</f>
+      <c r="E30" s="82">
+        <f>F29</f>
         <v>45222</v>
       </c>
-      <c r="F29" s="84">
-        <f>E29+4</f>
+      <c r="F30" s="82">
+        <f>E30+4</f>
         <v>45226</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="4">
+      <c r="G30" s="14"/>
+      <c r="H30" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="50"/>
-      <c r="AI29" s="50"/>
-      <c r="AJ29" s="50"/>
-      <c r="AK29" s="50"/>
-      <c r="AL29" s="50"/>
-      <c r="AM29" s="50"/>
-      <c r="AN29" s="50"/>
-      <c r="AO29" s="50"/>
-      <c r="AP29" s="50"/>
-      <c r="AQ29" s="50"/>
-      <c r="AR29" s="50"/>
-      <c r="AS29" s="50"/>
-      <c r="AT29" s="50"/>
-      <c r="AU29" s="50"/>
-      <c r="AV29" s="50"/>
-      <c r="AW29" s="50"/>
-      <c r="AX29" s="50"/>
-      <c r="AY29" s="50"/>
-      <c r="AZ29" s="50"/>
-      <c r="BA29" s="50"/>
-      <c r="BB29" s="50"/>
-      <c r="BC29" s="50"/>
-      <c r="BD29" s="50"/>
-      <c r="BE29" s="50"/>
-      <c r="BF29" s="50"/>
-      <c r="BG29" s="50"/>
-      <c r="BH29" s="50"/>
-      <c r="BI29" s="50"/>
-      <c r="BJ29" s="50"/>
-      <c r="BK29" s="50"/>
-      <c r="BL29" s="50"/>
-    </row>
-    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="81" t="s">
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="48"/>
+      <c r="AG30" s="48"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="48"/>
+      <c r="AJ30" s="48"/>
+      <c r="AK30" s="48"/>
+      <c r="AL30" s="48"/>
+      <c r="AM30" s="48"/>
+      <c r="AN30" s="48"/>
+      <c r="AO30" s="48"/>
+      <c r="AP30" s="48"/>
+      <c r="AQ30" s="48"/>
+      <c r="AR30" s="48"/>
+      <c r="AS30" s="48"/>
+      <c r="AT30" s="48"/>
+      <c r="AU30" s="48"/>
+      <c r="AV30" s="48"/>
+      <c r="AW30" s="48"/>
+      <c r="AX30" s="48"/>
+      <c r="AY30" s="48"/>
+      <c r="AZ30" s="48"/>
+      <c r="BA30" s="48"/>
+      <c r="BB30" s="48"/>
+      <c r="BC30" s="48"/>
+      <c r="BD30" s="48"/>
+      <c r="BE30" s="48"/>
+      <c r="BF30" s="48"/>
+      <c r="BG30" s="48"/>
+      <c r="BH30" s="48"/>
+      <c r="BI30" s="48"/>
+      <c r="BJ30" s="48"/>
+      <c r="BK30" s="48"/>
+      <c r="BL30" s="48"/>
+    </row>
+    <row r="31" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C31" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="83">
+      <c r="D31" s="81">
         <v>0</v>
       </c>
-      <c r="E30" s="84">
-        <f>F29+1</f>
+      <c r="E31" s="82">
+        <f>F30+1</f>
         <v>45227</v>
       </c>
-      <c r="F30" s="84">
-        <f>E30+3</f>
+      <c r="F31" s="82">
+        <f>E31+3</f>
         <v>45230</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="4">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="50"/>
-      <c r="AI30" s="50"/>
-      <c r="AJ30" s="50"/>
-      <c r="AK30" s="50"/>
-      <c r="AL30" s="50"/>
-      <c r="AM30" s="50"/>
-      <c r="AN30" s="50"/>
-      <c r="AO30" s="50"/>
-      <c r="AP30" s="50"/>
-      <c r="AQ30" s="50"/>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
-      <c r="AT30" s="50"/>
-      <c r="AU30" s="50"/>
-      <c r="AV30" s="50"/>
-      <c r="AW30" s="50"/>
-      <c r="AX30" s="50"/>
-      <c r="AY30" s="50"/>
-      <c r="AZ30" s="50"/>
-      <c r="BA30" s="50"/>
-      <c r="BB30" s="50"/>
-      <c r="BC30" s="50"/>
-      <c r="BD30" s="50"/>
-      <c r="BE30" s="50"/>
-      <c r="BF30" s="50"/>
-      <c r="BG30" s="50"/>
-      <c r="BH30" s="50"/>
-      <c r="BI30" s="50"/>
-      <c r="BJ30" s="50"/>
-      <c r="BK30" s="50"/>
-      <c r="BL30" s="50"/>
-    </row>
-    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="83">
-        <v>0</v>
-      </c>
-      <c r="E31" s="84">
-        <f>E28+5</f>
-        <v>45224</v>
-      </c>
-      <c r="F31" s="84">
-        <f>E31+3</f>
-        <v>45227</v>
-      </c>
-      <c r="G31" s="16"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="50"/>
-      <c r="AI31" s="50"/>
-      <c r="AJ31" s="50"/>
-      <c r="AK31" s="50"/>
-      <c r="AL31" s="50"/>
-      <c r="AM31" s="50"/>
-      <c r="AN31" s="50"/>
-      <c r="AO31" s="50"/>
-      <c r="AP31" s="50"/>
-      <c r="AQ31" s="50"/>
-      <c r="AR31" s="50"/>
-      <c r="AS31" s="50"/>
-      <c r="AT31" s="50"/>
-      <c r="AU31" s="50"/>
-      <c r="AV31" s="50"/>
-      <c r="AW31" s="50"/>
-      <c r="AX31" s="50"/>
-      <c r="AY31" s="50"/>
-      <c r="AZ31" s="50"/>
-      <c r="BA31" s="50"/>
-      <c r="BB31" s="50"/>
-      <c r="BC31" s="50"/>
-      <c r="BD31" s="50"/>
-      <c r="BE31" s="50"/>
-      <c r="BF31" s="50"/>
-      <c r="BG31" s="50"/>
-      <c r="BH31" s="50"/>
-      <c r="BI31" s="50"/>
-      <c r="BJ31" s="50"/>
-      <c r="BK31" s="50"/>
-      <c r="BL31" s="50"/>
-    </row>
-    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="48"/>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="48"/>
+      <c r="AI31" s="48"/>
+      <c r="AJ31" s="48"/>
+      <c r="AK31" s="48"/>
+      <c r="AL31" s="48"/>
+      <c r="AM31" s="48"/>
+      <c r="AN31" s="48"/>
+      <c r="AO31" s="48"/>
+      <c r="AP31" s="48"/>
+      <c r="AQ31" s="48"/>
+      <c r="AR31" s="48"/>
+      <c r="AS31" s="48"/>
+      <c r="AT31" s="48"/>
+      <c r="AU31" s="48"/>
+      <c r="AV31" s="48"/>
+      <c r="AW31" s="48"/>
+      <c r="AX31" s="48"/>
+      <c r="AY31" s="48"/>
+      <c r="AZ31" s="48"/>
+      <c r="BA31" s="48"/>
+      <c r="BB31" s="48"/>
+      <c r="BC31" s="48"/>
+      <c r="BD31" s="48"/>
+      <c r="BE31" s="48"/>
+      <c r="BF31" s="48"/>
+      <c r="BG31" s="48"/>
+      <c r="BH31" s="48"/>
+      <c r="BI31" s="48"/>
+      <c r="BJ31" s="48"/>
+      <c r="BK31" s="48"/>
+      <c r="BL31" s="48"/>
+    </row>
+    <row r="32" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="83">
+      <c r="B32" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="81">
         <v>0</v>
       </c>
-      <c r="E32" s="84">
-        <f>E28+7</f>
-        <v>45226</v>
-      </c>
-      <c r="F32" s="84">
-        <f>E32+5</f>
-        <v>45231</v>
-      </c>
-      <c r="G32" s="16"/>
+      <c r="E32" s="82">
+        <f>E29+5</f>
+        <v>45224</v>
+      </c>
+      <c r="F32" s="82">
+        <f>E32+3</f>
+        <v>45227</v>
+      </c>
+      <c r="G32" s="14"/>
       <c r="H32" s="4">
         <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="48"/>
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="48"/>
+      <c r="AH32" s="48"/>
+      <c r="AI32" s="48"/>
+      <c r="AJ32" s="48"/>
+      <c r="AK32" s="48"/>
+      <c r="AL32" s="48"/>
+      <c r="AM32" s="48"/>
+      <c r="AN32" s="48"/>
+      <c r="AO32" s="48"/>
+      <c r="AP32" s="48"/>
+      <c r="AQ32" s="48"/>
+      <c r="AR32" s="48"/>
+      <c r="AS32" s="48"/>
+      <c r="AT32" s="48"/>
+      <c r="AU32" s="48"/>
+      <c r="AV32" s="48"/>
+      <c r="AW32" s="48"/>
+      <c r="AX32" s="48"/>
+      <c r="AY32" s="48"/>
+      <c r="AZ32" s="48"/>
+      <c r="BA32" s="48"/>
+      <c r="BB32" s="48"/>
+      <c r="BC32" s="48"/>
+      <c r="BD32" s="48"/>
+      <c r="BE32" s="48"/>
+      <c r="BF32" s="48"/>
+      <c r="BG32" s="48"/>
+      <c r="BH32" s="48"/>
+      <c r="BI32" s="48"/>
+      <c r="BJ32" s="48"/>
+      <c r="BK32" s="48"/>
+      <c r="BL32" s="48"/>
+    </row>
+    <row r="33" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="81">
+        <v>0</v>
+      </c>
+      <c r="E33" s="82">
+        <f>E29+7</f>
+        <v>45226</v>
+      </c>
+      <c r="F33" s="82">
+        <f>E33+5</f>
+        <v>45231</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="4">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="50"/>
-      <c r="AH32" s="50"/>
-      <c r="AI32" s="50"/>
-      <c r="AJ32" s="50"/>
-      <c r="AK32" s="50"/>
-      <c r="AL32" s="50"/>
-      <c r="AM32" s="50"/>
-      <c r="AN32" s="50"/>
-      <c r="AO32" s="50"/>
-      <c r="AP32" s="50"/>
-      <c r="AQ32" s="50"/>
-      <c r="AR32" s="50"/>
-      <c r="AT32" s="50"/>
-      <c r="AU32" s="50"/>
-      <c r="AV32" s="50"/>
-      <c r="AW32" s="50"/>
-      <c r="AX32" s="50"/>
-      <c r="AY32" s="50"/>
-      <c r="AZ32" s="50"/>
-      <c r="BA32" s="50"/>
-      <c r="BB32" s="50"/>
-      <c r="BC32" s="50"/>
-      <c r="BD32" s="50"/>
-      <c r="BE32" s="50"/>
-      <c r="BF32" s="50"/>
-      <c r="BG32" s="50"/>
-      <c r="BH32" s="50"/>
-      <c r="BI32" s="50"/>
-      <c r="BJ32" s="50"/>
-      <c r="BK32" s="50"/>
-      <c r="BL32" s="50"/>
-    </row>
-    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="4" t="str">
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="48"/>
+      <c r="AE33" s="48"/>
+      <c r="AF33" s="48"/>
+      <c r="AG33" s="48"/>
+      <c r="AH33" s="48"/>
+      <c r="AI33" s="48"/>
+      <c r="AJ33" s="48"/>
+      <c r="AK33" s="48"/>
+      <c r="AL33" s="48"/>
+      <c r="AM33" s="48"/>
+      <c r="AN33" s="48"/>
+      <c r="AO33" s="48"/>
+      <c r="AP33" s="48"/>
+      <c r="AQ33" s="48"/>
+      <c r="AR33" s="48"/>
+      <c r="AT33" s="48"/>
+      <c r="AU33" s="48"/>
+      <c r="AV33" s="48"/>
+      <c r="AW33" s="48"/>
+      <c r="AX33" s="48"/>
+      <c r="AY33" s="48"/>
+      <c r="AZ33" s="48"/>
+      <c r="BA33" s="48"/>
+      <c r="BB33" s="48"/>
+      <c r="BC33" s="48"/>
+      <c r="BD33" s="48"/>
+      <c r="BE33" s="48"/>
+      <c r="BF33" s="48"/>
+      <c r="BG33" s="48"/>
+      <c r="BH33" s="48"/>
+      <c r="BI33" s="48"/>
+      <c r="BJ33" s="48"/>
+      <c r="BK33" s="48"/>
+      <c r="BL33" s="48"/>
+    </row>
+    <row r="34" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="44"/>
-      <c r="AG33" s="44"/>
-      <c r="AH33" s="44"/>
-      <c r="AI33" s="44"/>
-      <c r="AJ33" s="44"/>
-      <c r="AK33" s="44"/>
-      <c r="AL33" s="44"/>
-      <c r="AM33" s="44"/>
-      <c r="AN33" s="44"/>
-      <c r="AO33" s="44"/>
-      <c r="AP33" s="44"/>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="44"/>
-      <c r="AS33" s="44"/>
-      <c r="AT33" s="44"/>
-      <c r="AU33" s="44"/>
-      <c r="AV33" s="44"/>
-      <c r="AW33" s="44"/>
-      <c r="AX33" s="44"/>
-      <c r="AY33" s="44"/>
-      <c r="AZ33" s="44"/>
-      <c r="BA33" s="44"/>
-      <c r="BB33" s="44"/>
-      <c r="BC33" s="44"/>
-      <c r="BD33" s="44"/>
-      <c r="BE33" s="44"/>
-      <c r="BF33" s="44"/>
-      <c r="BG33" s="44"/>
-      <c r="BH33" s="44"/>
-      <c r="BI33" s="44"/>
-      <c r="BJ33" s="44"/>
-      <c r="BK33" s="44"/>
-      <c r="BL33" s="44"/>
-    </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="89" t="s">
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="42"/>
+      <c r="AH34" s="42"/>
+      <c r="AI34" s="42"/>
+      <c r="AJ34" s="42"/>
+      <c r="AK34" s="42"/>
+      <c r="AL34" s="42"/>
+      <c r="AM34" s="42"/>
+      <c r="AN34" s="42"/>
+      <c r="AO34" s="42"/>
+      <c r="AP34" s="42"/>
+      <c r="AQ34" s="42"/>
+      <c r="AR34" s="42"/>
+      <c r="AS34" s="42"/>
+      <c r="AT34" s="42"/>
+      <c r="AU34" s="42"/>
+      <c r="AV34" s="42"/>
+      <c r="AW34" s="42"/>
+      <c r="AX34" s="42"/>
+      <c r="AY34" s="42"/>
+      <c r="AZ34" s="42"/>
+      <c r="BA34" s="42"/>
+      <c r="BB34" s="42"/>
+      <c r="BC34" s="42"/>
+      <c r="BD34" s="42"/>
+      <c r="BE34" s="42"/>
+      <c r="BF34" s="42"/>
+      <c r="BG34" s="42"/>
+      <c r="BH34" s="42"/>
+      <c r="BI34" s="42"/>
+      <c r="BJ34" s="42"/>
+      <c r="BK34" s="42"/>
+      <c r="BL34" s="42"/>
+    </row>
+    <row r="35" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="5" t="str">
+      <c r="C35" s="88"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="94"/>
-      <c r="AE34" s="94"/>
-      <c r="AF34" s="94"/>
-      <c r="AG34" s="94"/>
-      <c r="AH34" s="94"/>
-      <c r="AI34" s="94"/>
-      <c r="AJ34" s="94"/>
-      <c r="AK34" s="94"/>
-      <c r="AL34" s="94"/>
-      <c r="AM34" s="94"/>
-      <c r="AN34" s="94"/>
-      <c r="AO34" s="94"/>
-      <c r="AP34" s="94"/>
-      <c r="AQ34" s="94"/>
-      <c r="AR34" s="94"/>
-      <c r="AS34" s="94"/>
-      <c r="AT34" s="94"/>
-      <c r="AU34" s="94"/>
-      <c r="AV34" s="94"/>
-      <c r="AW34" s="94"/>
-      <c r="AX34" s="94"/>
-      <c r="AY34" s="94"/>
-      <c r="AZ34" s="94"/>
-      <c r="BA34" s="94"/>
-      <c r="BB34" s="94"/>
-      <c r="BC34" s="94"/>
-      <c r="BD34" s="94"/>
-      <c r="BE34" s="94"/>
-      <c r="BF34" s="94"/>
-      <c r="BG34" s="94"/>
-      <c r="BH34" s="94"/>
-      <c r="BI34" s="94"/>
-      <c r="BJ34" s="94"/>
-      <c r="BK34" s="94"/>
-      <c r="BL34" s="94"/>
-    </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="15"/>
-      <c r="F35" s="14"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="92"/>
+      <c r="AB35" s="92"/>
+      <c r="AC35" s="92"/>
+      <c r="AD35" s="92"/>
+      <c r="AE35" s="92"/>
+      <c r="AF35" s="92"/>
+      <c r="AG35" s="92"/>
+      <c r="AH35" s="92"/>
+      <c r="AI35" s="92"/>
+      <c r="AJ35" s="92"/>
+      <c r="AK35" s="92"/>
+      <c r="AL35" s="92"/>
+      <c r="AM35" s="92"/>
+      <c r="AN35" s="92"/>
+      <c r="AO35" s="92"/>
+      <c r="AP35" s="92"/>
+      <c r="AQ35" s="92"/>
+      <c r="AR35" s="92"/>
+      <c r="AS35" s="92"/>
+      <c r="AT35" s="92"/>
+      <c r="AU35" s="92"/>
+      <c r="AV35" s="92"/>
+      <c r="AW35" s="92"/>
+      <c r="AX35" s="92"/>
+      <c r="AY35" s="92"/>
+      <c r="AZ35" s="92"/>
+      <c r="BA35" s="92"/>
+      <c r="BB35" s="92"/>
+      <c r="BC35" s="92"/>
+      <c r="BD35" s="92"/>
+      <c r="BE35" s="92"/>
+      <c r="BF35" s="92"/>
+      <c r="BG35" s="92"/>
+      <c r="BH35" s="92"/>
+      <c r="BI35" s="92"/>
+      <c r="BJ35" s="92"/>
+      <c r="BK35" s="92"/>
+      <c r="BL35" s="92"/>
     </row>
     <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AR3:AX3"/>
-    <mergeCell ref="AY3:BE3"/>
-    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="W3:AC3"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4769,23 +4880,15 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:V3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AR3:AX3"/>
+    <mergeCell ref="AY3:BE3"/>
+    <mergeCell ref="BF3:BL3"/>
   </mergeCells>
-  <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D34">
-    <cfRule type="dataBar" priority="27">
+  <phoneticPr fontId="31" type="noConversion"/>
+  <conditionalFormatting sqref="D7:D35">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4799,74 +4902,87 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BL13">
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL18 I20:BL20">
-    <cfRule type="expression" dxfId="16" priority="8">
+  <conditionalFormatting sqref="I15:BL18 I21:BL21">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BL24 I26:K26 M26:BL26 I25:J25 L25:BL25">
-    <cfRule type="expression" dxfId="14" priority="6">
+  <conditionalFormatting sqref="I23:BL25 I27:K27 M27:BL27 I26:J26 L26:BL26">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BL31 I32:AR32 AV32:BL32 AT32">
-    <cfRule type="expression" dxfId="12" priority="40">
+  <conditionalFormatting sqref="I29:BL32 I33:AR33 AV33:BL33 AT33">
+    <cfRule type="expression" dxfId="15" priority="43">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="44" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:K26 M26:BL26 I25:J25 L25:BL25 I27:BL31 I32:AR32 AV32:BL32 AT32 I4:BL18 I20:BL24">
-    <cfRule type="expression" dxfId="10" priority="5">
+  <conditionalFormatting sqref="I27:K27 M27:BL27 I26:J26 L26:BL26 I28:BL32 I33:AR33 AV33:BL33 AT33 I4:BL18 I21:BL25">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:BL3">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="8" priority="44">
+  <conditionalFormatting sqref="K26">
+    <cfRule type="expression" dxfId="11" priority="47">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="48" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="6" priority="47">
+  <conditionalFormatting sqref="K26">
+    <cfRule type="expression" dxfId="9" priority="50">
       <formula>AND(TODAY()&gt;=L$5, TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU32">
-    <cfRule type="expression" dxfId="5" priority="50">
+  <conditionalFormatting sqref="AU33">
+    <cfRule type="expression" dxfId="8" priority="53">
       <formula>AND(task_start&lt;=AS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AS$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="54" stopIfTrue="1">
       <formula>AND(task_end&gt;=AS$5,task_start&lt;AT$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU32">
-    <cfRule type="expression" dxfId="3" priority="55">
+  <conditionalFormatting sqref="AU33">
+    <cfRule type="expression" dxfId="6" priority="58">
       <formula>AND(TODAY()&gt;=AS$5, TODAY()&lt;AT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:BL19">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:BL19">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:BL20">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4874,7 +4990,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:BL19">
+  <conditionalFormatting sqref="I20:BL20">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
@@ -4922,7 +5038,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D34</xm:sqref>
+          <xm:sqref>D7:D35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4944,103 +5060,103 @@
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="96" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="99"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="98" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="99" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="6" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="100" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="99" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="6" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="101" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="98" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="99" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="6" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="101" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="98" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="99" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="99" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="104"/>
+      <c r="A17" s="102"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="104"/>
+      <c r="A18" s="102"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="104"/>
+      <c r="A19" s="102"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="104"/>
+      <c r="A20" s="102"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="104"/>
+      <c r="A21" s="102"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="104"/>
+      <c r="A22" s="102"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
+      <c r="A23" s="102"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="104"/>
+      <c r="A24" s="102"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5061,6 +5177,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F010965E38DD9C4C9BE78EF37B7A5F63" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e5a01bfcf6a1a5eee5a5ca1585b5a1a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00e6d9bda136d3704b372a6b2e4b23e5" ns3:_="">
     <xsd:import namespace="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca"/>
@@ -5198,15 +5323,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
@@ -5224,6 +5340,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A800D70D-3EC9-4DB9-B9D8-9E383CE8B438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5241,14 +5365,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Project Spyn Gantt Chart.xlsx
+++ b/Project Spyn Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tydng\Desktop\FSE-100-Team-4-Sheibanian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C05D2-C092-4D75-96FE-7F8BAAE4775C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7751C0F5-A460-4372-9D13-118D5DCB9080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>Project SPYN</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>Integrate Crash Sensor Into Car</t>
+  </si>
+  <si>
+    <t>Full Autonomous Run</t>
+  </si>
+  <si>
+    <t>Work onweight distribution of Car</t>
   </si>
 </sst>
 </file>
@@ -253,7 +259,7 @@
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,12 +307,6 @@
       <name val="Arial Black"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -810,7 +810,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="2" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -833,13 +833,12 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,40 +848,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -898,41 +897,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -944,73 +943,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1019,28 +1018,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1049,40 +1048,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="10" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1091,71 +1090,71 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1173,7 +1172,43 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="34">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1554,15 +1589,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="30"/>
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="totalRow" dxfId="28"/>
-      <tableStyleElement type="firstColumn" dxfId="27"/>
-      <tableStyleElement type="lastColumn" dxfId="26"/>
-      <tableStyleElement type="firstRowStripe" dxfId="25"/>
-      <tableStyleElement type="secondRowStripe" dxfId="24"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="totalRow" dxfId="31"/>
+      <tableStyleElement type="firstColumn" dxfId="30"/>
+      <tableStyleElement type="lastColumn" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="26"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="25"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1919,13 +1954,13 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="12" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="11" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
@@ -1937,14 +1972,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A1" s="13"/>
-      <c r="B1" s="95" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
       <c r="H1" s="1"/>
       <c r="I1" s="111" t="s">
         <v>1</v>
@@ -1955,7 +1990,7 @@
       <c r="M1" s="112"/>
       <c r="N1" s="112"/>
       <c r="O1" s="112"/>
-      <c r="P1" s="21"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="110">
         <v>45202</v>
       </c>
@@ -1970,15 +2005,15 @@
       <c r="Z1" s="109"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="18"/>
       <c r="I2" s="111" t="s">
         <v>4</v>
       </c>
@@ -1988,7 +2023,7 @@
       <c r="M2" s="112"/>
       <c r="N2" s="112"/>
       <c r="O2" s="112"/>
-      <c r="P2" s="21"/>
+      <c r="P2" s="20"/>
       <c r="Q2" s="108">
         <v>1</v>
       </c>
@@ -2002,2868 +2037,2954 @@
       <c r="Y2" s="109"/>
       <c r="Z2" s="109"/>
     </row>
-    <row r="3" spans="1:64" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="1:64" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="I3" s="103" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="I3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="103" t="s">
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="103" t="s">
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="103" t="s">
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="114"/>
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="103" t="s">
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="104"/>
-      <c r="AM3" s="104"/>
-      <c r="AN3" s="104"/>
-      <c r="AO3" s="104"/>
-      <c r="AP3" s="104"/>
-      <c r="AQ3" s="104"/>
-      <c r="AR3" s="103" t="s">
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="114"/>
+      <c r="AN3" s="114"/>
+      <c r="AO3" s="114"/>
+      <c r="AP3" s="114"/>
+      <c r="AQ3" s="114"/>
+      <c r="AR3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="AS3" s="104"/>
-      <c r="AT3" s="104"/>
-      <c r="AU3" s="104"/>
-      <c r="AV3" s="104"/>
-      <c r="AW3" s="104"/>
-      <c r="AX3" s="104"/>
-      <c r="AY3" s="103" t="s">
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="114"/>
+      <c r="AV3" s="114"/>
+      <c r="AW3" s="114"/>
+      <c r="AX3" s="114"/>
+      <c r="AY3" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="AZ3" s="104"/>
-      <c r="BA3" s="104"/>
-      <c r="BB3" s="104"/>
-      <c r="BC3" s="104"/>
-      <c r="BD3" s="104"/>
-      <c r="BE3" s="104"/>
-      <c r="BF3" s="103" t="s">
+      <c r="AZ3" s="114"/>
+      <c r="BA3" s="114"/>
+      <c r="BB3" s="114"/>
+      <c r="BC3" s="114"/>
+      <c r="BD3" s="114"/>
+      <c r="BE3" s="114"/>
+      <c r="BF3" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="BG3" s="104"/>
-      <c r="BH3" s="104"/>
-      <c r="BI3" s="104"/>
-      <c r="BJ3" s="104"/>
-      <c r="BK3" s="104"/>
-      <c r="BL3" s="104"/>
-    </row>
-    <row r="4" spans="1:64" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="26" t="s">
+      <c r="BG3" s="114"/>
+      <c r="BH3" s="114"/>
+      <c r="BI3" s="114"/>
+      <c r="BJ3" s="114"/>
+      <c r="BK3" s="114"/>
+      <c r="BL3" s="114"/>
+    </row>
+    <row r="4" spans="1:64" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="I4" s="103">
+      <c r="E4" s="26"/>
+      <c r="I4" s="113">
         <f>I5</f>
         <v>45201</v>
       </c>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104">
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114">
         <f>P5</f>
         <v>45208</v>
       </c>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104">
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="114">
         <f>W5</f>
         <v>45215</v>
       </c>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104">
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114">
         <f>AD5</f>
         <v>45222</v>
       </c>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104">
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="114">
         <f>AK5</f>
         <v>45229</v>
       </c>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104">
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="114"/>
+      <c r="AN4" s="114"/>
+      <c r="AO4" s="114"/>
+      <c r="AP4" s="114"/>
+      <c r="AQ4" s="114"/>
+      <c r="AR4" s="114">
         <f>AR5</f>
         <v>45236</v>
       </c>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104">
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="114"/>
+      <c r="AU4" s="114"/>
+      <c r="AV4" s="114"/>
+      <c r="AW4" s="114"/>
+      <c r="AX4" s="114"/>
+      <c r="AY4" s="114">
         <f>AY5</f>
         <v>45243</v>
       </c>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104">
+      <c r="AZ4" s="114"/>
+      <c r="BA4" s="114"/>
+      <c r="BB4" s="114"/>
+      <c r="BC4" s="114"/>
+      <c r="BD4" s="114"/>
+      <c r="BE4" s="114"/>
+      <c r="BF4" s="114">
         <f>BF5</f>
         <v>45250</v>
       </c>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="105"/>
-    </row>
-    <row r="5" spans="1:64" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113"/>
-      <c r="B5" s="114" t="s">
+      <c r="BG4" s="114"/>
+      <c r="BH4" s="114"/>
+      <c r="BI4" s="114"/>
+      <c r="BJ4" s="114"/>
+      <c r="BK4" s="114"/>
+      <c r="BL4" s="115"/>
+    </row>
+    <row r="5" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="102"/>
+      <c r="B5" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="27">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45201</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <f>I5+1</f>
         <v>45202</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="27">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
         <v>45203</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="27">
         <f t="shared" si="0"/>
         <v>45204</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="27">
         <f t="shared" si="0"/>
         <v>45205</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="27">
         <f t="shared" si="0"/>
         <v>45206</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="28">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="29">
         <f>O5+1</f>
         <v>45208</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="27">
         <f>P5+1</f>
         <v>45209</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="27">
         <f t="shared" si="0"/>
         <v>45210</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="27">
         <f t="shared" si="0"/>
         <v>45211</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="27">
         <f t="shared" si="0"/>
         <v>45212</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="27">
         <f t="shared" si="0"/>
         <v>45213</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="28">
         <f t="shared" si="0"/>
         <v>45214</v>
       </c>
-      <c r="W5" s="30">
+      <c r="W5" s="29">
         <f>V5+1</f>
         <v>45215</v>
       </c>
-      <c r="X5" s="28">
+      <c r="X5" s="27">
         <f>W5+1</f>
         <v>45216</v>
       </c>
-      <c r="Y5" s="28">
+      <c r="Y5" s="27">
         <f t="shared" si="0"/>
         <v>45217</v>
       </c>
-      <c r="Z5" s="28">
+      <c r="Z5" s="27">
         <f t="shared" si="0"/>
         <v>45218</v>
       </c>
-      <c r="AA5" s="28">
+      <c r="AA5" s="27">
         <f t="shared" si="0"/>
         <v>45219</v>
       </c>
-      <c r="AB5" s="28">
+      <c r="AB5" s="27">
         <f t="shared" si="0"/>
         <v>45220</v>
       </c>
-      <c r="AC5" s="29">
+      <c r="AC5" s="28">
         <f t="shared" si="0"/>
         <v>45221</v>
       </c>
-      <c r="AD5" s="30">
+      <c r="AD5" s="29">
         <f>AC5+1</f>
         <v>45222</v>
       </c>
-      <c r="AE5" s="28">
+      <c r="AE5" s="27">
         <f>AD5+1</f>
         <v>45223</v>
       </c>
-      <c r="AF5" s="28">
+      <c r="AF5" s="27">
         <f t="shared" si="0"/>
         <v>45224</v>
       </c>
-      <c r="AG5" s="28">
+      <c r="AG5" s="27">
         <f t="shared" si="0"/>
         <v>45225</v>
       </c>
-      <c r="AH5" s="28">
+      <c r="AH5" s="27">
         <f t="shared" si="0"/>
         <v>45226</v>
       </c>
-      <c r="AI5" s="28">
+      <c r="AI5" s="27">
         <f t="shared" si="0"/>
         <v>45227</v>
       </c>
-      <c r="AJ5" s="29">
+      <c r="AJ5" s="28">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
-      <c r="AK5" s="30">
+      <c r="AK5" s="29">
         <f>AJ5+1</f>
         <v>45229</v>
       </c>
-      <c r="AL5" s="28">
+      <c r="AL5" s="27">
         <f>AK5+1</f>
         <v>45230</v>
       </c>
-      <c r="AM5" s="28">
+      <c r="AM5" s="27">
         <f t="shared" si="0"/>
         <v>45231</v>
       </c>
-      <c r="AN5" s="28">
+      <c r="AN5" s="27">
         <f t="shared" si="0"/>
         <v>45232</v>
       </c>
-      <c r="AO5" s="28">
+      <c r="AO5" s="27">
         <f t="shared" si="0"/>
         <v>45233</v>
       </c>
-      <c r="AP5" s="28">
+      <c r="AP5" s="27">
         <f t="shared" si="0"/>
         <v>45234</v>
       </c>
-      <c r="AQ5" s="29">
+      <c r="AQ5" s="28">
         <f t="shared" si="0"/>
         <v>45235</v>
       </c>
-      <c r="AR5" s="30">
+      <c r="AR5" s="29">
         <f>AQ5+1</f>
         <v>45236</v>
       </c>
-      <c r="AS5" s="28">
+      <c r="AS5" s="27">
         <f>AR5+1</f>
         <v>45237</v>
       </c>
-      <c r="AT5" s="28">
+      <c r="AT5" s="27">
         <f t="shared" si="0"/>
         <v>45238</v>
       </c>
-      <c r="AU5" s="28">
+      <c r="AU5" s="27">
         <f t="shared" si="0"/>
         <v>45239</v>
       </c>
-      <c r="AV5" s="28">
+      <c r="AV5" s="27">
         <f t="shared" si="0"/>
         <v>45240</v>
       </c>
-      <c r="AW5" s="28">
+      <c r="AW5" s="27">
         <f t="shared" si="0"/>
         <v>45241</v>
       </c>
-      <c r="AX5" s="29">
+      <c r="AX5" s="28">
         <f t="shared" si="0"/>
         <v>45242</v>
       </c>
-      <c r="AY5" s="30">
+      <c r="AY5" s="29">
         <f>AX5+1</f>
         <v>45243</v>
       </c>
-      <c r="AZ5" s="28">
+      <c r="AZ5" s="27">
         <f>AY5+1</f>
         <v>45244</v>
       </c>
-      <c r="BA5" s="28">
+      <c r="BA5" s="27">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45245</v>
       </c>
-      <c r="BB5" s="28">
+      <c r="BB5" s="27">
         <f t="shared" si="1"/>
         <v>45246</v>
       </c>
-      <c r="BC5" s="28">
+      <c r="BC5" s="27">
         <f t="shared" si="1"/>
         <v>45247</v>
       </c>
-      <c r="BD5" s="28">
+      <c r="BD5" s="27">
         <f t="shared" si="1"/>
         <v>45248</v>
       </c>
-      <c r="BE5" s="29">
+      <c r="BE5" s="28">
         <f t="shared" si="1"/>
         <v>45249</v>
       </c>
-      <c r="BF5" s="30">
+      <c r="BF5" s="29">
         <f>BE5+1</f>
         <v>45250</v>
       </c>
-      <c r="BG5" s="28">
+      <c r="BG5" s="27">
         <f>BF5+1</f>
         <v>45251</v>
       </c>
-      <c r="BH5" s="28">
+      <c r="BH5" s="27">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45252</v>
       </c>
-      <c r="BI5" s="28">
+      <c r="BI5" s="27">
         <f t="shared" si="2"/>
         <v>45253</v>
       </c>
-      <c r="BJ5" s="28">
+      <c r="BJ5" s="27">
         <f t="shared" si="2"/>
         <v>45254</v>
       </c>
-      <c r="BK5" s="28">
+      <c r="BK5" s="27">
         <f t="shared" si="2"/>
         <v>45255</v>
       </c>
-      <c r="BL5" s="28">
+      <c r="BL5" s="27">
         <f t="shared" si="2"/>
         <v>45256</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="I6" s="31" t="str">
+    <row r="6" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="102"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="I6" s="30" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="L6" s="32" t="str">
+      <c r="L6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="M6" s="32" t="str">
+      <c r="M6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="N6" s="32" t="str">
+      <c r="N6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="O6" s="32" t="str">
+      <c r="O6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="P6" s="32" t="str">
+      <c r="P6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="Q6" s="32" t="str">
+      <c r="Q6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="R6" s="32" t="str">
+      <c r="R6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="S6" s="32" t="str">
+      <c r="S6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="T6" s="32" t="str">
+      <c r="T6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="U6" s="32" t="str">
+      <c r="U6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="V6" s="32" t="str">
+      <c r="V6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="W6" s="32" t="str">
+      <c r="W6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="X6" s="32" t="str">
+      <c r="X6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="Y6" s="32" t="str">
+      <c r="Y6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="Z6" s="32" t="str">
+      <c r="Z6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AA6" s="32" t="str">
+      <c r="AA6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="AB6" s="32" t="str">
+      <c r="AB6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AC6" s="32" t="str">
+      <c r="AC6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AD6" s="32" t="str">
+      <c r="AD6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="AE6" s="32" t="str">
+      <c r="AE6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AF6" s="32" t="str">
+      <c r="AF6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="AG6" s="32" t="str">
+      <c r="AG6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AH6" s="32" t="str">
+      <c r="AH6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="AI6" s="32" t="str">
+      <c r="AI6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AJ6" s="32" t="str">
+      <c r="AJ6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AK6" s="32" t="str">
+      <c r="AK6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="AL6" s="32" t="str">
+      <c r="AL6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AM6" s="32" t="str">
+      <c r="AM6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="AN6" s="32" t="str">
+      <c r="AN6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AO6" s="32" t="str">
+      <c r="AO6" s="31" t="str">
         <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="AP6" s="32" t="str">
+      <c r="AP6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AQ6" s="32" t="str">
+      <c r="AQ6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AR6" s="32" t="str">
+      <c r="AR6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AS6" s="32" t="str">
+      <c r="AS6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AT6" s="32" t="str">
+      <c r="AT6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AU6" s="32" t="str">
+      <c r="AU6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AV6" s="32" t="str">
+      <c r="AV6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AW6" s="32" t="str">
+      <c r="AW6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AX6" s="32" t="str">
+      <c r="AX6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AY6" s="32" t="str">
+      <c r="AY6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AZ6" s="32" t="str">
+      <c r="AZ6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BA6" s="32" t="str">
+      <c r="BA6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="BB6" s="32" t="str">
+      <c r="BB6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BC6" s="32" t="str">
+      <c r="BC6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="BD6" s="32" t="str">
+      <c r="BD6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BE6" s="32" t="str">
+      <c r="BE6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BF6" s="32" t="str">
+      <c r="BF6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="BG6" s="32" t="str">
+      <c r="BG6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BH6" s="32" t="str">
+      <c r="BH6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="BI6" s="32" t="str">
+      <c r="BI6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BJ6" s="32" t="str">
+      <c r="BJ6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="BK6" s="32" t="str">
+      <c r="BK6" s="31" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BL6" s="33" t="str">
+      <c r="BL6" s="32" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" s="23" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:64" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="H7" s="23" t="str">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="H7" s="22" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="36"/>
-      <c r="AP7" s="36"/>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="36"/>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="36"/>
-      <c r="AV7" s="36"/>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="36"/>
-      <c r="AY7" s="36"/>
-      <c r="AZ7" s="36"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="36"/>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="36"/>
-      <c r="BK7" s="36"/>
-      <c r="BL7" s="36"/>
-    </row>
-    <row r="8" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="37" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="35"/>
+      <c r="AQ7" s="35"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="35"/>
+      <c r="BC7" s="35"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="35"/>
+      <c r="BF7" s="35"/>
+      <c r="BG7" s="35"/>
+      <c r="BH7" s="35"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="35"/>
+      <c r="BL7" s="35"/>
+    </row>
+    <row r="8" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="4" t="str">
-        <f t="shared" ref="H8:H35" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="3" t="str">
+        <f t="shared" ref="H8:H36" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
-      <c r="AV8" s="42"/>
-      <c r="AW8" s="42"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="42"/>
-      <c r="AZ8" s="42"/>
-      <c r="BA8" s="42"/>
-      <c r="BB8" s="42"/>
-      <c r="BC8" s="42"/>
-      <c r="BD8" s="42"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="42"/>
-      <c r="BG8" s="42"/>
-      <c r="BH8" s="42"/>
-      <c r="BI8" s="42"/>
-      <c r="BJ8" s="42"/>
-      <c r="BK8" s="42"/>
-      <c r="BL8" s="42"/>
-    </row>
-    <row r="9" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="44" t="s">
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="41"/>
+      <c r="AM8" s="41"/>
+      <c r="AN8" s="41"/>
+      <c r="AO8" s="41"/>
+      <c r="AP8" s="41"/>
+      <c r="AQ8" s="41"/>
+      <c r="AR8" s="41"/>
+      <c r="AS8" s="41"/>
+      <c r="AT8" s="41"/>
+      <c r="AU8" s="41"/>
+      <c r="AV8" s="41"/>
+      <c r="AW8" s="41"/>
+      <c r="AX8" s="41"/>
+      <c r="AY8" s="41"/>
+      <c r="AZ8" s="41"/>
+      <c r="BA8" s="41"/>
+      <c r="BB8" s="41"/>
+      <c r="BC8" s="41"/>
+      <c r="BD8" s="41"/>
+      <c r="BE8" s="41"/>
+      <c r="BF8" s="41"/>
+      <c r="BG8" s="41"/>
+      <c r="BH8" s="41"/>
+      <c r="BI8" s="41"/>
+      <c r="BJ8" s="41"/>
+      <c r="BK8" s="41"/>
+      <c r="BL8" s="41"/>
+    </row>
+    <row r="9" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>1</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <f>Project_Start</f>
         <v>45202</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <f>E9+3</f>
         <v>45205</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="4">
+      <c r="G9" s="13"/>
+      <c r="H9" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
-      <c r="AV9" s="48"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="48"/>
-      <c r="BB9" s="48"/>
-      <c r="BC9" s="48"/>
-      <c r="BD9" s="48"/>
-      <c r="BE9" s="48"/>
-      <c r="BF9" s="48"/>
-      <c r="BG9" s="48"/>
-      <c r="BH9" s="48"/>
-      <c r="BI9" s="48"/>
-      <c r="BJ9" s="48"/>
-      <c r="BK9" s="48"/>
-      <c r="BL9" s="48"/>
-    </row>
-    <row r="10" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="49" t="s">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="47"/>
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="47"/>
+      <c r="AQ9" s="47"/>
+      <c r="AR9" s="47"/>
+      <c r="AS9" s="47"/>
+      <c r="AT9" s="47"/>
+      <c r="AU9" s="47"/>
+      <c r="AV9" s="47"/>
+      <c r="AW9" s="47"/>
+      <c r="AX9" s="47"/>
+      <c r="AY9" s="47"/>
+      <c r="AZ9" s="47"/>
+      <c r="BA9" s="47"/>
+      <c r="BB9" s="47"/>
+      <c r="BC9" s="47"/>
+      <c r="BD9" s="47"/>
+      <c r="BE9" s="47"/>
+      <c r="BF9" s="47"/>
+      <c r="BG9" s="47"/>
+      <c r="BH9" s="47"/>
+      <c r="BI9" s="47"/>
+      <c r="BJ9" s="47"/>
+      <c r="BK9" s="47"/>
+      <c r="BL9" s="47"/>
+    </row>
+    <row r="10" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="50">
         <v>1</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="46">
         <f>Project_Start</f>
         <v>45202</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <f>E10+3</f>
         <v>45205</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="4">
+      <c r="G10" s="13"/>
+      <c r="H10" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="48"/>
-      <c r="AR10" s="48"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="48"/>
-      <c r="AV10" s="48"/>
-      <c r="AW10" s="48"/>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="48"/>
-      <c r="AZ10" s="48"/>
-      <c r="BA10" s="48"/>
-      <c r="BB10" s="48"/>
-      <c r="BC10" s="48"/>
-      <c r="BD10" s="48"/>
-      <c r="BE10" s="48"/>
-      <c r="BF10" s="48"/>
-      <c r="BG10" s="48"/>
-      <c r="BH10" s="48"/>
-      <c r="BI10" s="48"/>
-      <c r="BJ10" s="48"/>
-      <c r="BK10" s="48"/>
-      <c r="BL10" s="48"/>
-    </row>
-    <row r="11" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="49" t="s">
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="47"/>
+      <c r="AL10" s="47"/>
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="47"/>
+      <c r="AQ10" s="47"/>
+      <c r="AR10" s="47"/>
+      <c r="AS10" s="47"/>
+      <c r="AT10" s="47"/>
+      <c r="AU10" s="47"/>
+      <c r="AV10" s="47"/>
+      <c r="AW10" s="47"/>
+      <c r="AX10" s="47"/>
+      <c r="AY10" s="47"/>
+      <c r="AZ10" s="47"/>
+      <c r="BA10" s="47"/>
+      <c r="BB10" s="47"/>
+      <c r="BC10" s="47"/>
+      <c r="BD10" s="47"/>
+      <c r="BE10" s="47"/>
+      <c r="BF10" s="47"/>
+      <c r="BG10" s="47"/>
+      <c r="BH10" s="47"/>
+      <c r="BI10" s="47"/>
+      <c r="BJ10" s="47"/>
+      <c r="BK10" s="47"/>
+      <c r="BL10" s="47"/>
+    </row>
+    <row r="11" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="50">
         <v>1</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="51">
         <f>F10</f>
         <v>45205</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="51">
         <f>E11+4</f>
         <v>45209</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="4">
+      <c r="G11" s="13"/>
+      <c r="H11" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="48"/>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="48"/>
-      <c r="BB11" s="48"/>
-      <c r="BC11" s="48"/>
-      <c r="BD11" s="48"/>
-      <c r="BE11" s="48"/>
-      <c r="BF11" s="48"/>
-      <c r="BG11" s="48"/>
-      <c r="BH11" s="48"/>
-      <c r="BI11" s="48"/>
-      <c r="BJ11" s="48"/>
-      <c r="BK11" s="48"/>
-      <c r="BL11" s="48"/>
-    </row>
-    <row r="12" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="49" t="s">
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="47"/>
+      <c r="AS11" s="47"/>
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="47"/>
+      <c r="AV11" s="47"/>
+      <c r="AW11" s="47"/>
+      <c r="AX11" s="47"/>
+      <c r="AY11" s="47"/>
+      <c r="AZ11" s="47"/>
+      <c r="BA11" s="47"/>
+      <c r="BB11" s="47"/>
+      <c r="BC11" s="47"/>
+      <c r="BD11" s="47"/>
+      <c r="BE11" s="47"/>
+      <c r="BF11" s="47"/>
+      <c r="BG11" s="47"/>
+      <c r="BH11" s="47"/>
+      <c r="BI11" s="47"/>
+      <c r="BJ11" s="47"/>
+      <c r="BK11" s="47"/>
+      <c r="BL11" s="47"/>
+    </row>
+    <row r="12" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="50">
         <v>1</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="51">
         <f>F11</f>
         <v>45209</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="51">
         <f>E12+2</f>
         <v>45211</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="4">
+      <c r="G12" s="13"/>
+      <c r="H12" s="3">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="48"/>
-      <c r="AV12" s="48"/>
-      <c r="AW12" s="48"/>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="48"/>
-      <c r="AZ12" s="48"/>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
-      <c r="BD12" s="48"/>
-      <c r="BE12" s="48"/>
-      <c r="BF12" s="48"/>
-      <c r="BG12" s="48"/>
-      <c r="BH12" s="48"/>
-      <c r="BI12" s="48"/>
-      <c r="BJ12" s="48"/>
-      <c r="BK12" s="48"/>
-      <c r="BL12" s="48"/>
-    </row>
-    <row r="13" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="49" t="s">
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="47"/>
+      <c r="AL12" s="47"/>
+      <c r="AM12" s="47"/>
+      <c r="AN12" s="47"/>
+      <c r="AO12" s="47"/>
+      <c r="AP12" s="47"/>
+      <c r="AQ12" s="47"/>
+      <c r="AR12" s="47"/>
+      <c r="AS12" s="47"/>
+      <c r="AT12" s="47"/>
+      <c r="AU12" s="47"/>
+      <c r="AV12" s="47"/>
+      <c r="AW12" s="47"/>
+      <c r="AX12" s="47"/>
+      <c r="AY12" s="47"/>
+      <c r="AZ12" s="47"/>
+      <c r="BA12" s="47"/>
+      <c r="BB12" s="47"/>
+      <c r="BC12" s="47"/>
+      <c r="BD12" s="47"/>
+      <c r="BE12" s="47"/>
+      <c r="BF12" s="47"/>
+      <c r="BG12" s="47"/>
+      <c r="BH12" s="47"/>
+      <c r="BI12" s="47"/>
+      <c r="BJ12" s="47"/>
+      <c r="BK12" s="47"/>
+      <c r="BL12" s="47"/>
+    </row>
+    <row r="13" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="50">
         <v>1</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="51">
         <v>45204</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="51">
         <f>E13+2</f>
         <v>45206</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="4">
+      <c r="G13" s="13"/>
+      <c r="H13" s="3">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
-      <c r="BD13" s="48"/>
-      <c r="BE13" s="48"/>
-      <c r="BF13" s="48"/>
-      <c r="BG13" s="48"/>
-      <c r="BH13" s="48"/>
-      <c r="BI13" s="48"/>
-      <c r="BJ13" s="48"/>
-      <c r="BK13" s="48"/>
-      <c r="BL13" s="48"/>
-    </row>
-    <row r="14" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="54" t="s">
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="47"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="47"/>
+      <c r="AN13" s="47"/>
+      <c r="AO13" s="47"/>
+      <c r="AP13" s="47"/>
+      <c r="AQ13" s="47"/>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="47"/>
+      <c r="AT13" s="47"/>
+      <c r="AU13" s="47"/>
+      <c r="AV13" s="47"/>
+      <c r="AW13" s="47"/>
+      <c r="AX13" s="47"/>
+      <c r="AY13" s="47"/>
+      <c r="AZ13" s="47"/>
+      <c r="BA13" s="47"/>
+      <c r="BB13" s="47"/>
+      <c r="BC13" s="47"/>
+      <c r="BD13" s="47"/>
+      <c r="BE13" s="47"/>
+      <c r="BF13" s="47"/>
+      <c r="BG13" s="47"/>
+      <c r="BH13" s="47"/>
+      <c r="BI13" s="47"/>
+      <c r="BJ13" s="47"/>
+      <c r="BK13" s="47"/>
+      <c r="BL13" s="47"/>
+    </row>
+    <row r="14" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="4" t="str">
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="59" t="s">
+    <row r="15" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="60">
         <v>0.6</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="61">
         <f>E13+7</f>
         <v>45211</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="61">
         <f>E15+13</f>
         <v>45224</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="4">
+      <c r="G15" s="13"/>
+      <c r="H15" s="3">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="48"/>
-      <c r="AV15" s="48"/>
-      <c r="AW15" s="48"/>
-      <c r="AX15" s="48"/>
-      <c r="AY15" s="48"/>
-      <c r="AZ15" s="48"/>
-      <c r="BA15" s="48"/>
-      <c r="BB15" s="48"/>
-      <c r="BC15" s="48"/>
-      <c r="BD15" s="48"/>
-      <c r="BE15" s="48"/>
-      <c r="BF15" s="48"/>
-      <c r="BG15" s="48"/>
-      <c r="BH15" s="48"/>
-      <c r="BI15" s="48"/>
-      <c r="BJ15" s="48"/>
-      <c r="BK15" s="48"/>
-      <c r="BL15" s="48"/>
-    </row>
-    <row r="16" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="59" t="s">
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="47"/>
+      <c r="AK15" s="47"/>
+      <c r="AL15" s="47"/>
+      <c r="AM15" s="47"/>
+      <c r="AN15" s="47"/>
+      <c r="AO15" s="47"/>
+      <c r="AP15" s="47"/>
+      <c r="AQ15" s="47"/>
+      <c r="AR15" s="47"/>
+      <c r="AS15" s="47"/>
+      <c r="AT15" s="47"/>
+      <c r="AU15" s="47"/>
+      <c r="AV15" s="47"/>
+      <c r="AW15" s="47"/>
+      <c r="AX15" s="47"/>
+      <c r="AY15" s="47"/>
+      <c r="AZ15" s="47"/>
+      <c r="BA15" s="47"/>
+      <c r="BB15" s="47"/>
+      <c r="BC15" s="47"/>
+      <c r="BD15" s="47"/>
+      <c r="BE15" s="47"/>
+      <c r="BF15" s="47"/>
+      <c r="BG15" s="47"/>
+      <c r="BH15" s="47"/>
+      <c r="BI15" s="47"/>
+      <c r="BJ15" s="47"/>
+      <c r="BK15" s="47"/>
+      <c r="BL15" s="47"/>
+    </row>
+    <row r="16" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="61">
-        <v>0.85</v>
-      </c>
-      <c r="E16" s="62">
+      <c r="D16" s="60">
+        <v>1</v>
+      </c>
+      <c r="E16" s="61">
         <v>45211</v>
       </c>
-      <c r="F16" s="62">
-        <f>E16+10</f>
-        <v>45221</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="4">
+      <c r="F16" s="61">
+        <f>E16+16</f>
+        <v>45227</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="3">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="48"/>
-      <c r="AV16" s="48"/>
-      <c r="AW16" s="48"/>
-      <c r="AX16" s="48"/>
-      <c r="AY16" s="48"/>
-      <c r="AZ16" s="48"/>
-      <c r="BA16" s="48"/>
-      <c r="BB16" s="48"/>
-      <c r="BC16" s="48"/>
-      <c r="BD16" s="48"/>
-      <c r="BE16" s="48"/>
-      <c r="BF16" s="48"/>
-      <c r="BG16" s="48"/>
-      <c r="BH16" s="48"/>
-      <c r="BI16" s="48"/>
-      <c r="BJ16" s="48"/>
-      <c r="BK16" s="48"/>
-      <c r="BL16" s="48"/>
-    </row>
-    <row r="17" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="47"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="47"/>
+      <c r="AN16" s="47"/>
+      <c r="AO16" s="47"/>
+      <c r="AP16" s="47"/>
+      <c r="AQ16" s="47"/>
+      <c r="AR16" s="47"/>
+      <c r="AS16" s="47"/>
+      <c r="AT16" s="47"/>
+      <c r="AU16" s="47"/>
+      <c r="AV16" s="47"/>
+      <c r="AW16" s="47"/>
+      <c r="AX16" s="47"/>
+      <c r="AY16" s="47"/>
+      <c r="AZ16" s="47"/>
+      <c r="BA16" s="47"/>
+      <c r="BB16" s="47"/>
+      <c r="BC16" s="47"/>
+      <c r="BD16" s="47"/>
+      <c r="BE16" s="47"/>
+      <c r="BF16" s="47"/>
+      <c r="BG16" s="47"/>
+      <c r="BH16" s="47"/>
+      <c r="BI16" s="47"/>
+      <c r="BJ16" s="47"/>
+      <c r="BK16" s="47"/>
+      <c r="BL16" s="47"/>
+    </row>
+    <row r="17" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="60">
         <v>1</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="61">
         <f>E15</f>
         <v>45211</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="61">
         <f>E17+12</f>
         <v>45223</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="4">
+      <c r="G17" s="13"/>
+      <c r="H17" s="3">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="48"/>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="48"/>
-      <c r="AV17" s="48"/>
-      <c r="AW17" s="48"/>
-      <c r="AX17" s="48"/>
-      <c r="AY17" s="48"/>
-      <c r="AZ17" s="48"/>
-      <c r="BA17" s="48"/>
-      <c r="BB17" s="48"/>
-      <c r="BC17" s="48"/>
-      <c r="BD17" s="48"/>
-      <c r="BE17" s="48"/>
-      <c r="BF17" s="48"/>
-      <c r="BG17" s="48"/>
-      <c r="BH17" s="48"/>
-      <c r="BI17" s="48"/>
-      <c r="BJ17" s="48"/>
-      <c r="BK17" s="48"/>
-      <c r="BL17" s="48"/>
-    </row>
-    <row r="18" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="59" t="s">
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="47"/>
+      <c r="AL17" s="47"/>
+      <c r="AM17" s="47"/>
+      <c r="AN17" s="47"/>
+      <c r="AO17" s="47"/>
+      <c r="AP17" s="47"/>
+      <c r="AQ17" s="47"/>
+      <c r="AR17" s="47"/>
+      <c r="AS17" s="47"/>
+      <c r="AT17" s="47"/>
+      <c r="AU17" s="47"/>
+      <c r="AV17" s="47"/>
+      <c r="AW17" s="47"/>
+      <c r="AX17" s="47"/>
+      <c r="AY17" s="47"/>
+      <c r="AZ17" s="47"/>
+      <c r="BA17" s="47"/>
+      <c r="BB17" s="47"/>
+      <c r="BC17" s="47"/>
+      <c r="BD17" s="47"/>
+      <c r="BE17" s="47"/>
+      <c r="BF17" s="47"/>
+      <c r="BG17" s="47"/>
+      <c r="BH17" s="47"/>
+      <c r="BI17" s="47"/>
+      <c r="BJ17" s="47"/>
+      <c r="BK17" s="47"/>
+      <c r="BL17" s="47"/>
+    </row>
+    <row r="18" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="60">
         <v>1</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="61">
         <f>E17</f>
         <v>45211</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="61">
         <f>E18+14</f>
         <v>45225</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="4">
+      <c r="G18" s="13"/>
+      <c r="H18" s="3">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="48"/>
-      <c r="AS18" s="48"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="48"/>
-      <c r="AV18" s="48"/>
-      <c r="AW18" s="48"/>
-      <c r="AX18" s="48"/>
-      <c r="AY18" s="48"/>
-      <c r="AZ18" s="48"/>
-      <c r="BA18" s="48"/>
-      <c r="BB18" s="48"/>
-      <c r="BC18" s="48"/>
-      <c r="BD18" s="48"/>
-      <c r="BE18" s="48"/>
-      <c r="BF18" s="48"/>
-      <c r="BG18" s="48"/>
-      <c r="BH18" s="48"/>
-      <c r="BI18" s="48"/>
-      <c r="BJ18" s="48"/>
-      <c r="BK18" s="48"/>
-      <c r="BL18" s="48"/>
-    </row>
-    <row r="19" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="59" t="s">
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="47"/>
+      <c r="AL18" s="47"/>
+      <c r="AM18" s="47"/>
+      <c r="AN18" s="47"/>
+      <c r="AO18" s="47"/>
+      <c r="AP18" s="47"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="47"/>
+      <c r="AS18" s="47"/>
+      <c r="AT18" s="47"/>
+      <c r="AU18" s="47"/>
+      <c r="AV18" s="47"/>
+      <c r="AW18" s="47"/>
+      <c r="AX18" s="47"/>
+      <c r="AY18" s="47"/>
+      <c r="AZ18" s="47"/>
+      <c r="BA18" s="47"/>
+      <c r="BB18" s="47"/>
+      <c r="BC18" s="47"/>
+      <c r="BD18" s="47"/>
+      <c r="BE18" s="47"/>
+      <c r="BF18" s="47"/>
+      <c r="BG18" s="47"/>
+      <c r="BH18" s="47"/>
+      <c r="BI18" s="47"/>
+      <c r="BJ18" s="47"/>
+      <c r="BK18" s="47"/>
+      <c r="BL18" s="47"/>
+    </row>
+    <row r="19" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="60">
         <v>1</v>
       </c>
-      <c r="E19" s="62">
+      <c r="E19" s="61">
         <f>E17-2</f>
         <v>45209</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="61">
         <f>E19+9</f>
         <v>45218</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="4">
+      <c r="G19" s="13"/>
+      <c r="H19" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="48"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="48"/>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="48"/>
-      <c r="AV19" s="48"/>
-      <c r="AW19" s="48"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="48"/>
-      <c r="AZ19" s="48"/>
-      <c r="BA19" s="48"/>
-      <c r="BB19" s="48"/>
-      <c r="BC19" s="48"/>
-      <c r="BD19" s="48"/>
-      <c r="BE19" s="48"/>
-      <c r="BF19" s="48"/>
-      <c r="BG19" s="48"/>
-      <c r="BH19" s="48"/>
-      <c r="BI19" s="48"/>
-      <c r="BJ19" s="48"/>
-      <c r="BK19" s="48"/>
-      <c r="BL19" s="48"/>
-    </row>
-    <row r="20" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="59" t="s">
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="47"/>
+      <c r="AZ19" s="47"/>
+      <c r="BA19" s="47"/>
+      <c r="BB19" s="47"/>
+      <c r="BC19" s="47"/>
+      <c r="BD19" s="47"/>
+      <c r="BE19" s="47"/>
+      <c r="BF19" s="47"/>
+      <c r="BG19" s="47"/>
+      <c r="BH19" s="47"/>
+      <c r="BI19" s="47"/>
+      <c r="BJ19" s="47"/>
+      <c r="BK19" s="47"/>
+      <c r="BL19" s="47"/>
+    </row>
+    <row r="20" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="61">
-        <v>0.8</v>
-      </c>
-      <c r="E20" s="62">
+      <c r="D20" s="60">
+        <v>1</v>
+      </c>
+      <c r="E20" s="61">
         <f>E17-2</f>
         <v>45209</v>
       </c>
-      <c r="F20" s="62">
-        <f>E20+20</f>
+      <c r="F20" s="61">
+        <f>E20+18</f>
+        <v>45227</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="3">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="47"/>
+      <c r="AP20" s="47"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="47"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="47"/>
+      <c r="AV20" s="47"/>
+      <c r="AW20" s="47"/>
+      <c r="AX20" s="47"/>
+      <c r="AY20" s="47"/>
+      <c r="AZ20" s="47"/>
+      <c r="BA20" s="47"/>
+      <c r="BB20" s="47"/>
+      <c r="BC20" s="47"/>
+      <c r="BD20" s="47"/>
+      <c r="BE20" s="47"/>
+      <c r="BF20" s="47"/>
+      <c r="BG20" s="47"/>
+      <c r="BH20" s="47"/>
+      <c r="BI20" s="47"/>
+      <c r="BJ20" s="47"/>
+      <c r="BK20" s="47"/>
+      <c r="BL20" s="47"/>
+    </row>
+    <row r="21" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="61">
+        <f>E18-2</f>
+        <v>45209</v>
+      </c>
+      <c r="F21" s="61">
+        <f>E21+20</f>
         <v>45229</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="4">
+      <c r="G21" s="13"/>
+      <c r="H21" s="3">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="48"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="48"/>
-      <c r="AR20" s="48"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="48"/>
-      <c r="AV20" s="48"/>
-      <c r="AW20" s="48"/>
-      <c r="AX20" s="48"/>
-      <c r="AY20" s="48"/>
-      <c r="AZ20" s="48"/>
-      <c r="BA20" s="48"/>
-      <c r="BB20" s="48"/>
-      <c r="BC20" s="48"/>
-      <c r="BD20" s="48"/>
-      <c r="BE20" s="48"/>
-      <c r="BF20" s="48"/>
-      <c r="BG20" s="48"/>
-      <c r="BH20" s="48"/>
-      <c r="BI20" s="48"/>
-      <c r="BJ20" s="48"/>
-      <c r="BK20" s="48"/>
-      <c r="BL20" s="48"/>
-    </row>
-    <row r="21" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="60" t="s">
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="47"/>
+      <c r="AM21" s="47"/>
+      <c r="AN21" s="47"/>
+      <c r="AO21" s="47"/>
+      <c r="AP21" s="47"/>
+      <c r="AQ21" s="47"/>
+      <c r="AR21" s="47"/>
+      <c r="AS21" s="47"/>
+      <c r="AT21" s="47"/>
+      <c r="AU21" s="47"/>
+      <c r="AV21" s="47"/>
+      <c r="AW21" s="47"/>
+      <c r="AX21" s="47"/>
+      <c r="AY21" s="47"/>
+      <c r="AZ21" s="47"/>
+      <c r="BA21" s="47"/>
+      <c r="BB21" s="47"/>
+      <c r="BC21" s="47"/>
+      <c r="BD21" s="47"/>
+      <c r="BE21" s="47"/>
+      <c r="BF21" s="47"/>
+      <c r="BG21" s="47"/>
+      <c r="BH21" s="47"/>
+      <c r="BI21" s="47"/>
+      <c r="BJ21" s="47"/>
+      <c r="BK21" s="47"/>
+      <c r="BL21" s="47"/>
+    </row>
+    <row r="22" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="E21" s="62">
-        <f>E18-2</f>
-        <v>45209</v>
-      </c>
-      <c r="F21" s="62">
-        <f>E21+20</f>
-        <v>45229</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="4">
+      <c r="D22" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="61">
+        <f>E19-2</f>
+        <v>45207</v>
+      </c>
+      <c r="F22" s="61">
+        <f>E22+28</f>
+        <v>45235</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="3">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="47"/>
+      <c r="AJ22" s="47"/>
+      <c r="AK22" s="47"/>
+      <c r="AL22" s="47"/>
+      <c r="AM22" s="47"/>
+      <c r="AN22" s="47"/>
+      <c r="AO22" s="47"/>
+      <c r="AP22" s="47"/>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="47"/>
+      <c r="AS22" s="47"/>
+      <c r="AT22" s="47"/>
+      <c r="AU22" s="47"/>
+      <c r="AV22" s="47"/>
+      <c r="AW22" s="47"/>
+      <c r="AX22" s="47"/>
+      <c r="AY22" s="47"/>
+      <c r="AZ22" s="47"/>
+      <c r="BA22" s="47"/>
+      <c r="BB22" s="47"/>
+      <c r="BC22" s="47"/>
+      <c r="BD22" s="47"/>
+      <c r="BE22" s="47"/>
+      <c r="BF22" s="47"/>
+      <c r="BG22" s="47"/>
+      <c r="BH22" s="47"/>
+      <c r="BI22" s="47"/>
+      <c r="BJ22" s="47"/>
+      <c r="BK22" s="47"/>
+      <c r="BL22" s="47"/>
+    </row>
+    <row r="23" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="67"/>
+      <c r="AI23" s="67"/>
+      <c r="AJ23" s="67"/>
+      <c r="AK23" s="67"/>
+      <c r="AL23" s="67"/>
+      <c r="AM23" s="67"/>
+      <c r="AN23" s="67"/>
+      <c r="AO23" s="67"/>
+      <c r="AP23" s="67"/>
+      <c r="AQ23" s="67"/>
+      <c r="AR23" s="67"/>
+      <c r="AS23" s="67"/>
+      <c r="AT23" s="67"/>
+      <c r="AU23" s="67"/>
+      <c r="AV23" s="67"/>
+      <c r="AW23" s="67"/>
+      <c r="AX23" s="67"/>
+      <c r="AY23" s="67"/>
+      <c r="AZ23" s="67"/>
+      <c r="BA23" s="67"/>
+      <c r="BB23" s="67"/>
+      <c r="BC23" s="67"/>
+      <c r="BD23" s="67"/>
+      <c r="BE23" s="67"/>
+      <c r="BF23" s="67"/>
+      <c r="BG23" s="67"/>
+      <c r="BH23" s="67"/>
+      <c r="BI23" s="67"/>
+      <c r="BJ23" s="67"/>
+      <c r="BK23" s="67"/>
+      <c r="BL23" s="67"/>
+    </row>
+    <row r="24" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="70">
+        <v>0</v>
+      </c>
+      <c r="E24" s="71">
+        <f>$E$9+15</f>
+        <v>45217</v>
+      </c>
+      <c r="F24" s="71">
+        <f>E24+5</f>
+        <v>45222</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="47"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="47"/>
+      <c r="AO24" s="47"/>
+      <c r="AP24" s="47"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="47"/>
+      <c r="AS24" s="47"/>
+      <c r="AT24" s="47"/>
+      <c r="AU24" s="47"/>
+      <c r="AV24" s="47"/>
+      <c r="AW24" s="47"/>
+      <c r="AX24" s="47"/>
+      <c r="AY24" s="47"/>
+      <c r="AZ24" s="47"/>
+      <c r="BA24" s="47"/>
+      <c r="BB24" s="47"/>
+      <c r="BC24" s="47"/>
+      <c r="BD24" s="47"/>
+      <c r="BE24" s="47"/>
+      <c r="BF24" s="47"/>
+      <c r="BG24" s="47"/>
+      <c r="BH24" s="47"/>
+      <c r="BI24" s="47"/>
+      <c r="BJ24" s="47"/>
+      <c r="BK24" s="47"/>
+      <c r="BL24" s="47"/>
+    </row>
+    <row r="25" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="70">
+        <v>0</v>
+      </c>
+      <c r="E25" s="71">
+        <f t="shared" ref="E25:E28" si="6">$E$9+15</f>
+        <v>45217</v>
+      </c>
+      <c r="F25" s="71">
+        <v>45215</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="3">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="47"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="47"/>
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="47"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="47"/>
+      <c r="AS25" s="47"/>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="47"/>
+      <c r="AY25" s="47"/>
+      <c r="AZ25" s="47"/>
+      <c r="BA25" s="47"/>
+      <c r="BB25" s="47"/>
+      <c r="BC25" s="47"/>
+      <c r="BD25" s="47"/>
+      <c r="BE25" s="47"/>
+      <c r="BF25" s="47"/>
+      <c r="BG25" s="47"/>
+      <c r="BH25" s="47"/>
+      <c r="BI25" s="47"/>
+      <c r="BJ25" s="47"/>
+      <c r="BK25" s="47"/>
+      <c r="BL25" s="47"/>
+    </row>
+    <row r="26" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="70">
+        <v>0.65</v>
+      </c>
+      <c r="E26" s="71">
+        <f t="shared" si="6"/>
+        <v>45217</v>
+      </c>
+      <c r="F26" s="71">
+        <v>45237</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="3">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="48"/>
-      <c r="AN21" s="48"/>
-      <c r="AO21" s="48"/>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="48"/>
-      <c r="AR21" s="48"/>
-      <c r="AS21" s="48"/>
-      <c r="AT21" s="48"/>
-      <c r="AU21" s="48"/>
-      <c r="AV21" s="48"/>
-      <c r="AW21" s="48"/>
-      <c r="AX21" s="48"/>
-      <c r="AY21" s="48"/>
-      <c r="AZ21" s="48"/>
-      <c r="BA21" s="48"/>
-      <c r="BB21" s="48"/>
-      <c r="BC21" s="48"/>
-      <c r="BD21" s="48"/>
-      <c r="BE21" s="48"/>
-      <c r="BF21" s="48"/>
-      <c r="BG21" s="48"/>
-      <c r="BH21" s="48"/>
-      <c r="BI21" s="48"/>
-      <c r="BJ21" s="48"/>
-      <c r="BK21" s="48"/>
-      <c r="BL21" s="48"/>
-    </row>
-    <row r="22" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="4" t="str">
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="47"/>
+      <c r="AN26" s="47"/>
+      <c r="AO26" s="47"/>
+      <c r="AP26" s="47"/>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="47"/>
+      <c r="AS26" s="47"/>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="47"/>
+      <c r="AV26" s="47"/>
+      <c r="AW26" s="47"/>
+      <c r="AX26" s="47"/>
+      <c r="AY26" s="47"/>
+      <c r="AZ26" s="47"/>
+      <c r="BA26" s="47"/>
+      <c r="BB26" s="47"/>
+      <c r="BC26" s="47"/>
+      <c r="BD26" s="47"/>
+      <c r="BE26" s="47"/>
+      <c r="BF26" s="47"/>
+      <c r="BG26" s="47"/>
+      <c r="BH26" s="47"/>
+      <c r="BI26" s="47"/>
+      <c r="BJ26" s="47"/>
+      <c r="BK26" s="47"/>
+      <c r="BL26" s="47"/>
+    </row>
+    <row r="27" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="70">
+        <v>0</v>
+      </c>
+      <c r="E27" s="71">
+        <f t="shared" si="6"/>
+        <v>45217</v>
+      </c>
+      <c r="F27" s="71">
+        <f>E27+4</f>
+        <v>45221</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="47"/>
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="47"/>
+      <c r="AL27" s="47"/>
+      <c r="AM27" s="47"/>
+      <c r="AN27" s="47"/>
+      <c r="AO27" s="47"/>
+      <c r="AP27" s="47"/>
+      <c r="AQ27" s="47"/>
+      <c r="AR27" s="47"/>
+      <c r="AS27" s="47"/>
+      <c r="AT27" s="47"/>
+      <c r="AU27" s="47"/>
+      <c r="AV27" s="47"/>
+      <c r="AW27" s="47"/>
+      <c r="AX27" s="47"/>
+      <c r="AY27" s="47"/>
+      <c r="AZ27" s="47"/>
+      <c r="BA27" s="47"/>
+      <c r="BB27" s="47"/>
+      <c r="BC27" s="47"/>
+      <c r="BD27" s="47"/>
+      <c r="BE27" s="47"/>
+      <c r="BF27" s="47"/>
+      <c r="BG27" s="47"/>
+      <c r="BH27" s="47"/>
+      <c r="BI27" s="47"/>
+      <c r="BJ27" s="47"/>
+      <c r="BK27" s="47"/>
+      <c r="BL27" s="47"/>
+    </row>
+    <row r="28" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="70">
+        <v>0.45</v>
+      </c>
+      <c r="E28" s="71">
+        <f t="shared" si="6"/>
+        <v>45217</v>
+      </c>
+      <c r="F28" s="71">
+        <f>E28+15</f>
+        <v>45232</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="3">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="47"/>
+      <c r="AM28" s="47"/>
+      <c r="AN28" s="47"/>
+      <c r="AO28" s="47"/>
+      <c r="AP28" s="47"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="47"/>
+      <c r="AS28" s="47"/>
+      <c r="AT28" s="47"/>
+      <c r="AU28" s="47"/>
+      <c r="AV28" s="47"/>
+      <c r="AW28" s="47"/>
+      <c r="AX28" s="47"/>
+      <c r="AY28" s="47"/>
+      <c r="AZ28" s="47"/>
+      <c r="BA28" s="47"/>
+      <c r="BB28" s="47"/>
+      <c r="BC28" s="47"/>
+      <c r="BD28" s="47"/>
+      <c r="BE28" s="47"/>
+      <c r="BF28" s="47"/>
+      <c r="BG28" s="47"/>
+      <c r="BH28" s="47"/>
+      <c r="BI28" s="47"/>
+      <c r="BJ28" s="47"/>
+      <c r="BK28" s="47"/>
+      <c r="BL28" s="47"/>
+    </row>
+    <row r="29" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="68"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="68"/>
-      <c r="AI22" s="68"/>
-      <c r="AJ22" s="68"/>
-      <c r="AK22" s="68"/>
-      <c r="AL22" s="68"/>
-      <c r="AM22" s="68"/>
-      <c r="AN22" s="68"/>
-      <c r="AO22" s="68"/>
-      <c r="AP22" s="68"/>
-      <c r="AQ22" s="68"/>
-      <c r="AR22" s="68"/>
-      <c r="AS22" s="68"/>
-      <c r="AT22" s="68"/>
-      <c r="AU22" s="68"/>
-      <c r="AV22" s="68"/>
-      <c r="AW22" s="68"/>
-      <c r="AX22" s="68"/>
-      <c r="AY22" s="68"/>
-      <c r="AZ22" s="68"/>
-      <c r="BA22" s="68"/>
-      <c r="BB22" s="68"/>
-      <c r="BC22" s="68"/>
-      <c r="BD22" s="68"/>
-      <c r="BE22" s="68"/>
-      <c r="BF22" s="68"/>
-      <c r="BG22" s="68"/>
-      <c r="BH22" s="68"/>
-      <c r="BI22" s="68"/>
-      <c r="BJ22" s="68"/>
-      <c r="BK22" s="68"/>
-      <c r="BL22" s="68"/>
-    </row>
-    <row r="23" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="70" t="s">
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="77"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="77"/>
+      <c r="AE29" s="77"/>
+      <c r="AF29" s="77"/>
+      <c r="AG29" s="77"/>
+      <c r="AH29" s="77"/>
+      <c r="AI29" s="77"/>
+      <c r="AJ29" s="77"/>
+      <c r="AK29" s="77"/>
+      <c r="AL29" s="77"/>
+      <c r="AM29" s="77"/>
+      <c r="AN29" s="77"/>
+      <c r="AO29" s="77"/>
+      <c r="AP29" s="77"/>
+      <c r="AQ29" s="77"/>
+      <c r="AR29" s="77"/>
+      <c r="AS29" s="77"/>
+      <c r="AT29" s="77"/>
+      <c r="AU29" s="77"/>
+      <c r="AV29" s="77"/>
+      <c r="AW29" s="77"/>
+      <c r="AX29" s="77"/>
+      <c r="AY29" s="77"/>
+      <c r="AZ29" s="77"/>
+      <c r="BA29" s="77"/>
+      <c r="BB29" s="77"/>
+      <c r="BC29" s="77"/>
+      <c r="BD29" s="77"/>
+      <c r="BE29" s="77"/>
+      <c r="BF29" s="77"/>
+      <c r="BG29" s="77"/>
+      <c r="BH29" s="77"/>
+      <c r="BI29" s="77"/>
+      <c r="BJ29" s="77"/>
+      <c r="BK29" s="77"/>
+      <c r="BL29" s="77"/>
+    </row>
+    <row r="30" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="80">
+        <v>0</v>
+      </c>
+      <c r="E30" s="81">
+        <v>45219</v>
+      </c>
+      <c r="F30" s="81">
+        <f>E30+3</f>
+        <v>45222</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="47"/>
+      <c r="AH30" s="47"/>
+      <c r="AI30" s="47"/>
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="47"/>
+      <c r="AL30" s="47"/>
+      <c r="AM30" s="47"/>
+      <c r="AN30" s="47"/>
+      <c r="AO30" s="47"/>
+      <c r="AP30" s="47"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
+      <c r="AS30" s="47"/>
+      <c r="AT30" s="47"/>
+      <c r="AU30" s="47"/>
+      <c r="AV30" s="47"/>
+      <c r="AW30" s="47"/>
+      <c r="AX30" s="47"/>
+      <c r="AY30" s="47"/>
+      <c r="AZ30" s="47"/>
+      <c r="BA30" s="47"/>
+      <c r="BB30" s="47"/>
+      <c r="BC30" s="47"/>
+      <c r="BD30" s="47"/>
+      <c r="BE30" s="47"/>
+      <c r="BF30" s="47"/>
+      <c r="BG30" s="47"/>
+      <c r="BH30" s="47"/>
+      <c r="BI30" s="47"/>
+      <c r="BJ30" s="47"/>
+      <c r="BK30" s="47"/>
+      <c r="BL30" s="47"/>
+    </row>
+    <row r="31" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="80">
+        <v>0</v>
+      </c>
+      <c r="E31" s="81">
+        <f>F30</f>
+        <v>45222</v>
+      </c>
+      <c r="F31" s="81">
+        <f>E31+4</f>
+        <v>45226</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
+      <c r="AS31" s="47"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="47"/>
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+      <c r="AX31" s="47"/>
+      <c r="AY31" s="47"/>
+      <c r="AZ31" s="47"/>
+      <c r="BA31" s="47"/>
+      <c r="BB31" s="47"/>
+      <c r="BC31" s="47"/>
+      <c r="BD31" s="47"/>
+      <c r="BE31" s="47"/>
+      <c r="BF31" s="47"/>
+      <c r="BG31" s="47"/>
+      <c r="BH31" s="47"/>
+      <c r="BI31" s="47"/>
+      <c r="BJ31" s="47"/>
+      <c r="BK31" s="47"/>
+      <c r="BL31" s="47"/>
+    </row>
+    <row r="32" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="80">
+        <v>0</v>
+      </c>
+      <c r="E32" s="81">
+        <f>F31+1</f>
+        <v>45227</v>
+      </c>
+      <c r="F32" s="81">
+        <f>E32+3</f>
+        <v>45230</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="47"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="47"/>
+      <c r="AH32" s="47"/>
+      <c r="AI32" s="47"/>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="47"/>
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="47"/>
+      <c r="AO32" s="47"/>
+      <c r="AP32" s="47"/>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="47"/>
+      <c r="AS32" s="47"/>
+      <c r="AT32" s="47"/>
+      <c r="AU32" s="47"/>
+      <c r="AV32" s="47"/>
+      <c r="AW32" s="47"/>
+      <c r="AX32" s="47"/>
+      <c r="AY32" s="47"/>
+      <c r="AZ32" s="47"/>
+      <c r="BA32" s="47"/>
+      <c r="BB32" s="47"/>
+      <c r="BC32" s="47"/>
+      <c r="BD32" s="47"/>
+      <c r="BE32" s="47"/>
+      <c r="BF32" s="47"/>
+      <c r="BG32" s="47"/>
+      <c r="BH32" s="47"/>
+      <c r="BI32" s="47"/>
+      <c r="BJ32" s="47"/>
+      <c r="BK32" s="47"/>
+      <c r="BL32" s="47"/>
+    </row>
+    <row r="33" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="80">
+        <v>0</v>
+      </c>
+      <c r="E33" s="81">
+        <f>E30+5</f>
+        <v>45224</v>
+      </c>
+      <c r="F33" s="81">
+        <f>E33+3</f>
+        <v>45227</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="47"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="47"/>
+      <c r="AH33" s="47"/>
+      <c r="AI33" s="47"/>
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="47"/>
+      <c r="AL33" s="47"/>
+      <c r="AM33" s="47"/>
+      <c r="AN33" s="47"/>
+      <c r="AO33" s="47"/>
+      <c r="AP33" s="47"/>
+      <c r="AQ33" s="47"/>
+      <c r="AR33" s="47"/>
+      <c r="AS33" s="47"/>
+      <c r="AT33" s="47"/>
+      <c r="AU33" s="47"/>
+      <c r="AV33" s="47"/>
+      <c r="AW33" s="47"/>
+      <c r="AX33" s="47"/>
+      <c r="AY33" s="47"/>
+      <c r="AZ33" s="47"/>
+      <c r="BA33" s="47"/>
+      <c r="BB33" s="47"/>
+      <c r="BC33" s="47"/>
+      <c r="BD33" s="47"/>
+      <c r="BE33" s="47"/>
+      <c r="BF33" s="47"/>
+      <c r="BG33" s="47"/>
+      <c r="BH33" s="47"/>
+      <c r="BI33" s="47"/>
+      <c r="BJ33" s="47"/>
+      <c r="BK33" s="47"/>
+      <c r="BL33" s="47"/>
+    </row>
+    <row r="34" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="71">
+      <c r="D34" s="80">
         <v>0</v>
       </c>
-      <c r="E23" s="72">
-        <f>$E$9+15</f>
-        <v>45217</v>
-      </c>
-      <c r="F23" s="72">
-        <f>E23+5</f>
-        <v>45222</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="4">
+      <c r="E34" s="81">
+        <f>E30+7</f>
+        <v>45226</v>
+      </c>
+      <c r="F34" s="81">
+        <f>E34+5</f>
+        <v>45231</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="48"/>
-      <c r="AR23" s="48"/>
-      <c r="AS23" s="48"/>
-      <c r="AT23" s="48"/>
-      <c r="AU23" s="48"/>
-      <c r="AV23" s="48"/>
-      <c r="AW23" s="48"/>
-      <c r="AX23" s="48"/>
-      <c r="AY23" s="48"/>
-      <c r="AZ23" s="48"/>
-      <c r="BA23" s="48"/>
-      <c r="BB23" s="48"/>
-      <c r="BC23" s="48"/>
-      <c r="BD23" s="48"/>
-      <c r="BE23" s="48"/>
-      <c r="BF23" s="48"/>
-      <c r="BG23" s="48"/>
-      <c r="BH23" s="48"/>
-      <c r="BI23" s="48"/>
-      <c r="BJ23" s="48"/>
-      <c r="BK23" s="48"/>
-      <c r="BL23" s="48"/>
-    </row>
-    <row r="24" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="71">
-        <v>0</v>
-      </c>
-      <c r="E24" s="72">
-        <f t="shared" ref="E24:E27" si="6">$E$9+15</f>
-        <v>45217</v>
-      </c>
-      <c r="F24" s="72">
-        <v>45215</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="4">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="48"/>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="48"/>
-      <c r="AR24" s="48"/>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="48"/>
-      <c r="AU24" s="48"/>
-      <c r="AV24" s="48"/>
-      <c r="AW24" s="48"/>
-      <c r="AX24" s="48"/>
-      <c r="AY24" s="48"/>
-      <c r="AZ24" s="48"/>
-      <c r="BA24" s="48"/>
-      <c r="BB24" s="48"/>
-      <c r="BC24" s="48"/>
-      <c r="BD24" s="48"/>
-      <c r="BE24" s="48"/>
-      <c r="BF24" s="48"/>
-      <c r="BG24" s="48"/>
-      <c r="BH24" s="48"/>
-      <c r="BI24" s="48"/>
-      <c r="BJ24" s="48"/>
-      <c r="BK24" s="48"/>
-      <c r="BL24" s="48"/>
-    </row>
-    <row r="25" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="71">
-        <v>0.95</v>
-      </c>
-      <c r="E25" s="72">
-        <f t="shared" si="6"/>
-        <v>45217</v>
-      </c>
-      <c r="F25" s="72">
-        <v>45225</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="4">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="48"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="48"/>
-      <c r="AS25" s="48"/>
-      <c r="AT25" s="48"/>
-      <c r="AU25" s="48"/>
-      <c r="AV25" s="48"/>
-      <c r="AW25" s="48"/>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="48"/>
-      <c r="AZ25" s="48"/>
-      <c r="BA25" s="48"/>
-      <c r="BB25" s="48"/>
-      <c r="BC25" s="48"/>
-      <c r="BD25" s="48"/>
-      <c r="BE25" s="48"/>
-      <c r="BF25" s="48"/>
-      <c r="BG25" s="48"/>
-      <c r="BH25" s="48"/>
-      <c r="BI25" s="48"/>
-      <c r="BJ25" s="48"/>
-      <c r="BK25" s="48"/>
-      <c r="BL25" s="48"/>
-    </row>
-    <row r="26" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="71">
-        <v>0</v>
-      </c>
-      <c r="E26" s="72">
-        <f t="shared" si="6"/>
-        <v>45217</v>
-      </c>
-      <c r="F26" s="72">
-        <f>E26+4</f>
-        <v>45221</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="4">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="48"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="48"/>
-      <c r="AS26" s="48"/>
-      <c r="AT26" s="48"/>
-      <c r="AU26" s="48"/>
-      <c r="AV26" s="48"/>
-      <c r="AW26" s="48"/>
-      <c r="AX26" s="48"/>
-      <c r="AY26" s="48"/>
-      <c r="AZ26" s="48"/>
-      <c r="BA26" s="48"/>
-      <c r="BB26" s="48"/>
-      <c r="BC26" s="48"/>
-      <c r="BD26" s="48"/>
-      <c r="BE26" s="48"/>
-      <c r="BF26" s="48"/>
-      <c r="BG26" s="48"/>
-      <c r="BH26" s="48"/>
-      <c r="BI26" s="48"/>
-      <c r="BJ26" s="48"/>
-      <c r="BK26" s="48"/>
-      <c r="BL26" s="48"/>
-    </row>
-    <row r="27" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="71">
-        <v>0.45</v>
-      </c>
-      <c r="E27" s="72">
-        <f t="shared" si="6"/>
-        <v>45217</v>
-      </c>
-      <c r="F27" s="72">
-        <f>E27+15</f>
-        <v>45232</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="4">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="48"/>
-      <c r="AS27" s="48"/>
-      <c r="AT27" s="48"/>
-      <c r="AU27" s="48"/>
-      <c r="AV27" s="48"/>
-      <c r="AW27" s="48"/>
-      <c r="AX27" s="48"/>
-      <c r="AY27" s="48"/>
-      <c r="AZ27" s="48"/>
-      <c r="BA27" s="48"/>
-      <c r="BB27" s="48"/>
-      <c r="BC27" s="48"/>
-      <c r="BD27" s="48"/>
-      <c r="BE27" s="48"/>
-      <c r="BF27" s="48"/>
-      <c r="BG27" s="48"/>
-      <c r="BH27" s="48"/>
-      <c r="BI27" s="48"/>
-      <c r="BJ27" s="48"/>
-      <c r="BK27" s="48"/>
-      <c r="BL27" s="48"/>
-    </row>
-    <row r="28" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="4" t="str">
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="47"/>
+      <c r="AC34" s="47"/>
+      <c r="AD34" s="47"/>
+      <c r="AE34" s="47"/>
+      <c r="AF34" s="47"/>
+      <c r="AG34" s="47"/>
+      <c r="AH34" s="47"/>
+      <c r="AI34" s="47"/>
+      <c r="AJ34" s="47"/>
+      <c r="AK34" s="47"/>
+      <c r="AL34" s="47"/>
+      <c r="AM34" s="47"/>
+      <c r="AN34" s="47"/>
+      <c r="AO34" s="47"/>
+      <c r="AP34" s="47"/>
+      <c r="AQ34" s="47"/>
+      <c r="AR34" s="47"/>
+      <c r="AS34" s="42"/>
+      <c r="AT34" s="47"/>
+      <c r="AU34" s="47"/>
+      <c r="AV34" s="47"/>
+      <c r="AW34" s="47"/>
+      <c r="AX34" s="47"/>
+      <c r="AY34" s="47"/>
+      <c r="AZ34" s="47"/>
+      <c r="BA34" s="47"/>
+      <c r="BB34" s="47"/>
+      <c r="BC34" s="47"/>
+      <c r="BD34" s="47"/>
+      <c r="BE34" s="47"/>
+      <c r="BF34" s="47"/>
+      <c r="BG34" s="47"/>
+      <c r="BH34" s="47"/>
+      <c r="BI34" s="47"/>
+      <c r="BJ34" s="47"/>
+      <c r="BK34" s="47"/>
+      <c r="BL34" s="47"/>
+    </row>
+    <row r="35" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="82"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="78"/>
-      <c r="AC28" s="78"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="78"/>
-      <c r="AF28" s="78"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="78"/>
-      <c r="AJ28" s="78"/>
-      <c r="AK28" s="78"/>
-      <c r="AL28" s="78"/>
-      <c r="AM28" s="78"/>
-      <c r="AN28" s="78"/>
-      <c r="AO28" s="78"/>
-      <c r="AP28" s="78"/>
-      <c r="AQ28" s="78"/>
-      <c r="AR28" s="78"/>
-      <c r="AS28" s="78"/>
-      <c r="AT28" s="78"/>
-      <c r="AU28" s="78"/>
-      <c r="AV28" s="78"/>
-      <c r="AW28" s="78"/>
-      <c r="AX28" s="78"/>
-      <c r="AY28" s="78"/>
-      <c r="AZ28" s="78"/>
-      <c r="BA28" s="78"/>
-      <c r="BB28" s="78"/>
-      <c r="BC28" s="78"/>
-      <c r="BD28" s="78"/>
-      <c r="BE28" s="78"/>
-      <c r="BF28" s="78"/>
-      <c r="BG28" s="78"/>
-      <c r="BH28" s="78"/>
-      <c r="BI28" s="78"/>
-      <c r="BJ28" s="78"/>
-      <c r="BK28" s="78"/>
-      <c r="BL28" s="78"/>
-    </row>
-    <row r="29" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="81">
-        <v>0</v>
-      </c>
-      <c r="E29" s="82">
-        <v>45219</v>
-      </c>
-      <c r="F29" s="82">
-        <f>E29+3</f>
-        <v>45222</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="4">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="48"/>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="48"/>
-      <c r="AN29" s="48"/>
-      <c r="AO29" s="48"/>
-      <c r="AP29" s="48"/>
-      <c r="AQ29" s="48"/>
-      <c r="AR29" s="48"/>
-      <c r="AS29" s="48"/>
-      <c r="AT29" s="48"/>
-      <c r="AU29" s="48"/>
-      <c r="AV29" s="48"/>
-      <c r="AW29" s="48"/>
-      <c r="AX29" s="48"/>
-      <c r="AY29" s="48"/>
-      <c r="AZ29" s="48"/>
-      <c r="BA29" s="48"/>
-      <c r="BB29" s="48"/>
-      <c r="BC29" s="48"/>
-      <c r="BD29" s="48"/>
-      <c r="BE29" s="48"/>
-      <c r="BF29" s="48"/>
-      <c r="BG29" s="48"/>
-      <c r="BH29" s="48"/>
-      <c r="BI29" s="48"/>
-      <c r="BJ29" s="48"/>
-      <c r="BK29" s="48"/>
-      <c r="BL29" s="48"/>
-    </row>
-    <row r="30" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="81">
-        <v>0</v>
-      </c>
-      <c r="E30" s="82">
-        <f>F29</f>
-        <v>45222</v>
-      </c>
-      <c r="F30" s="82">
-        <f>E30+4</f>
-        <v>45226</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="4">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="48"/>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="48"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
-      <c r="AL30" s="48"/>
-      <c r="AM30" s="48"/>
-      <c r="AN30" s="48"/>
-      <c r="AO30" s="48"/>
-      <c r="AP30" s="48"/>
-      <c r="AQ30" s="48"/>
-      <c r="AR30" s="48"/>
-      <c r="AS30" s="48"/>
-      <c r="AT30" s="48"/>
-      <c r="AU30" s="48"/>
-      <c r="AV30" s="48"/>
-      <c r="AW30" s="48"/>
-      <c r="AX30" s="48"/>
-      <c r="AY30" s="48"/>
-      <c r="AZ30" s="48"/>
-      <c r="BA30" s="48"/>
-      <c r="BB30" s="48"/>
-      <c r="BC30" s="48"/>
-      <c r="BD30" s="48"/>
-      <c r="BE30" s="48"/>
-      <c r="BF30" s="48"/>
-      <c r="BG30" s="48"/>
-      <c r="BH30" s="48"/>
-      <c r="BI30" s="48"/>
-      <c r="BJ30" s="48"/>
-      <c r="BK30" s="48"/>
-      <c r="BL30" s="48"/>
-    </row>
-    <row r="31" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="81">
-        <v>0</v>
-      </c>
-      <c r="E31" s="82">
-        <f>F30+1</f>
-        <v>45227</v>
-      </c>
-      <c r="F31" s="82">
-        <f>E31+3</f>
-        <v>45230</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="4">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="48"/>
-      <c r="AN31" s="48"/>
-      <c r="AO31" s="48"/>
-      <c r="AP31" s="48"/>
-      <c r="AQ31" s="48"/>
-      <c r="AR31" s="48"/>
-      <c r="AS31" s="48"/>
-      <c r="AT31" s="48"/>
-      <c r="AU31" s="48"/>
-      <c r="AV31" s="48"/>
-      <c r="AW31" s="48"/>
-      <c r="AX31" s="48"/>
-      <c r="AY31" s="48"/>
-      <c r="AZ31" s="48"/>
-      <c r="BA31" s="48"/>
-      <c r="BB31" s="48"/>
-      <c r="BC31" s="48"/>
-      <c r="BD31" s="48"/>
-      <c r="BE31" s="48"/>
-      <c r="BF31" s="48"/>
-      <c r="BG31" s="48"/>
-      <c r="BH31" s="48"/>
-      <c r="BI31" s="48"/>
-      <c r="BJ31" s="48"/>
-      <c r="BK31" s="48"/>
-      <c r="BL31" s="48"/>
-    </row>
-    <row r="32" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="81">
-        <v>0</v>
-      </c>
-      <c r="E32" s="82">
-        <f>E29+5</f>
-        <v>45224</v>
-      </c>
-      <c r="F32" s="82">
-        <f>E32+3</f>
-        <v>45227</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="4">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="48"/>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="48"/>
-      <c r="AM32" s="48"/>
-      <c r="AN32" s="48"/>
-      <c r="AO32" s="48"/>
-      <c r="AP32" s="48"/>
-      <c r="AQ32" s="48"/>
-      <c r="AR32" s="48"/>
-      <c r="AS32" s="48"/>
-      <c r="AT32" s="48"/>
-      <c r="AU32" s="48"/>
-      <c r="AV32" s="48"/>
-      <c r="AW32" s="48"/>
-      <c r="AX32" s="48"/>
-      <c r="AY32" s="48"/>
-      <c r="AZ32" s="48"/>
-      <c r="BA32" s="48"/>
-      <c r="BB32" s="48"/>
-      <c r="BC32" s="48"/>
-      <c r="BD32" s="48"/>
-      <c r="BE32" s="48"/>
-      <c r="BF32" s="48"/>
-      <c r="BG32" s="48"/>
-      <c r="BH32" s="48"/>
-      <c r="BI32" s="48"/>
-      <c r="BJ32" s="48"/>
-      <c r="BK32" s="48"/>
-      <c r="BL32" s="48"/>
-    </row>
-    <row r="33" spans="1:64" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="81">
-        <v>0</v>
-      </c>
-      <c r="E33" s="82">
-        <f>E29+7</f>
-        <v>45226</v>
-      </c>
-      <c r="F33" s="82">
-        <f>E33+5</f>
-        <v>45231</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="4">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="48"/>
-      <c r="AM33" s="48"/>
-      <c r="AN33" s="48"/>
-      <c r="AO33" s="48"/>
-      <c r="AP33" s="48"/>
-      <c r="AQ33" s="48"/>
-      <c r="AR33" s="48"/>
-      <c r="AT33" s="48"/>
-      <c r="AU33" s="48"/>
-      <c r="AV33" s="48"/>
-      <c r="AW33" s="48"/>
-      <c r="AX33" s="48"/>
-      <c r="AY33" s="48"/>
-      <c r="AZ33" s="48"/>
-      <c r="BA33" s="48"/>
-      <c r="BB33" s="48"/>
-      <c r="BC33" s="48"/>
-      <c r="BD33" s="48"/>
-      <c r="BE33" s="48"/>
-      <c r="BF33" s="48"/>
-      <c r="BG33" s="48"/>
-      <c r="BH33" s="48"/>
-      <c r="BI33" s="48"/>
-      <c r="BJ33" s="48"/>
-      <c r="BK33" s="48"/>
-      <c r="BL33" s="48"/>
-    </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="4" t="str">
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="41"/>
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="41"/>
+      <c r="AP35" s="41"/>
+      <c r="AQ35" s="41"/>
+      <c r="AR35" s="41"/>
+      <c r="AS35" s="41"/>
+      <c r="AT35" s="41"/>
+      <c r="AU35" s="41"/>
+      <c r="AV35" s="41"/>
+      <c r="AW35" s="41"/>
+      <c r="AX35" s="41"/>
+      <c r="AY35" s="41"/>
+      <c r="AZ35" s="41"/>
+      <c r="BA35" s="41"/>
+      <c r="BB35" s="41"/>
+      <c r="BC35" s="41"/>
+      <c r="BD35" s="41"/>
+      <c r="BE35" s="41"/>
+      <c r="BF35" s="41"/>
+      <c r="BG35" s="41"/>
+      <c r="BH35" s="41"/>
+      <c r="BI35" s="41"/>
+      <c r="BJ35" s="41"/>
+      <c r="BK35" s="41"/>
+      <c r="BL35" s="41"/>
+    </row>
+    <row r="36" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="87"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="42"/>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="42"/>
-      <c r="AJ34" s="42"/>
-      <c r="AK34" s="42"/>
-      <c r="AL34" s="42"/>
-      <c r="AM34" s="42"/>
-      <c r="AN34" s="42"/>
-      <c r="AO34" s="42"/>
-      <c r="AP34" s="42"/>
-      <c r="AQ34" s="42"/>
-      <c r="AR34" s="42"/>
-      <c r="AS34" s="42"/>
-      <c r="AT34" s="42"/>
-      <c r="AU34" s="42"/>
-      <c r="AV34" s="42"/>
-      <c r="AW34" s="42"/>
-      <c r="AX34" s="42"/>
-      <c r="AY34" s="42"/>
-      <c r="AZ34" s="42"/>
-      <c r="BA34" s="42"/>
-      <c r="BB34" s="42"/>
-      <c r="BC34" s="42"/>
-      <c r="BD34" s="42"/>
-      <c r="BE34" s="42"/>
-      <c r="BF34" s="42"/>
-      <c r="BG34" s="42"/>
-      <c r="BH34" s="42"/>
-      <c r="BI34" s="42"/>
-      <c r="BJ34" s="42"/>
-      <c r="BK34" s="42"/>
-      <c r="BL34" s="42"/>
-    </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="92"/>
-      <c r="U35" s="92"/>
-      <c r="V35" s="92"/>
-      <c r="W35" s="92"/>
-      <c r="X35" s="92"/>
-      <c r="Y35" s="92"/>
-      <c r="Z35" s="92"/>
-      <c r="AA35" s="92"/>
-      <c r="AB35" s="92"/>
-      <c r="AC35" s="92"/>
-      <c r="AD35" s="92"/>
-      <c r="AE35" s="92"/>
-      <c r="AF35" s="92"/>
-      <c r="AG35" s="92"/>
-      <c r="AH35" s="92"/>
-      <c r="AI35" s="92"/>
-      <c r="AJ35" s="92"/>
-      <c r="AK35" s="92"/>
-      <c r="AL35" s="92"/>
-      <c r="AM35" s="92"/>
-      <c r="AN35" s="92"/>
-      <c r="AO35" s="92"/>
-      <c r="AP35" s="92"/>
-      <c r="AQ35" s="92"/>
-      <c r="AR35" s="92"/>
-      <c r="AS35" s="92"/>
-      <c r="AT35" s="92"/>
-      <c r="AU35" s="92"/>
-      <c r="AV35" s="92"/>
-      <c r="AW35" s="92"/>
-      <c r="AX35" s="92"/>
-      <c r="AY35" s="92"/>
-      <c r="AZ35" s="92"/>
-      <c r="BA35" s="92"/>
-      <c r="BB35" s="92"/>
-      <c r="BC35" s="92"/>
-      <c r="BD35" s="92"/>
-      <c r="BE35" s="92"/>
-      <c r="BF35" s="92"/>
-      <c r="BG35" s="92"/>
-      <c r="BH35" s="92"/>
-      <c r="BI35" s="92"/>
-      <c r="BJ35" s="92"/>
-      <c r="BK35" s="92"/>
-      <c r="BL35" s="92"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="3"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="91"/>
+      <c r="T36" s="91"/>
+      <c r="U36" s="91"/>
+      <c r="V36" s="91"/>
+      <c r="W36" s="91"/>
+      <c r="X36" s="91"/>
+      <c r="Y36" s="91"/>
+      <c r="Z36" s="91"/>
+      <c r="AA36" s="91"/>
+      <c r="AB36" s="91"/>
+      <c r="AC36" s="91"/>
+      <c r="AD36" s="91"/>
+      <c r="AE36" s="91"/>
+      <c r="AF36" s="91"/>
+      <c r="AG36" s="91"/>
+      <c r="AH36" s="91"/>
+      <c r="AI36" s="91"/>
+      <c r="AJ36" s="91"/>
+      <c r="AK36" s="91"/>
+      <c r="AL36" s="91"/>
+      <c r="AM36" s="91"/>
+      <c r="AN36" s="91"/>
+      <c r="AO36" s="91"/>
+      <c r="AP36" s="91"/>
+      <c r="AQ36" s="91"/>
+      <c r="AR36" s="91"/>
+      <c r="AS36" s="91"/>
+      <c r="AT36" s="91"/>
+      <c r="AU36" s="91"/>
+      <c r="AV36" s="91"/>
+      <c r="AW36" s="91"/>
+      <c r="AX36" s="91"/>
+      <c r="AY36" s="91"/>
+      <c r="AZ36" s="91"/>
+      <c r="BA36" s="91"/>
+      <c r="BB36" s="91"/>
+      <c r="BC36" s="91"/>
+      <c r="BD36" s="91"/>
+      <c r="BE36" s="91"/>
+      <c r="BF36" s="91"/>
+      <c r="BG36" s="91"/>
+      <c r="BH36" s="91"/>
+      <c r="BI36" s="91"/>
+      <c r="BJ36" s="91"/>
+      <c r="BK36" s="91"/>
+      <c r="BL36" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AR3:AX3"/>
+    <mergeCell ref="AY3:BE3"/>
+    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="Q2:Z2"/>
     <mergeCell ref="Q1:Z1"/>
@@ -4872,23 +4993,15 @@
     <mergeCell ref="I3:O3"/>
     <mergeCell ref="P3:V3"/>
     <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AR3:AX3"/>
-    <mergeCell ref="AY3:BE3"/>
-    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D35">
-    <cfRule type="dataBar" priority="30">
+  <phoneticPr fontId="30" type="noConversion"/>
+  <conditionalFormatting sqref="D7:D36">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4902,74 +5015,87 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BL13">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="24" priority="16">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL18 I21:BL21">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="22" priority="14">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:BL25 I27:K27 M27:BL27 I26:J26 L26:BL26">
-    <cfRule type="expression" dxfId="17" priority="9">
+  <conditionalFormatting sqref="I24:BL26 I28:K28 M28:BL28 I27:J27 L27:BL27">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BL32 I33:AR33 AV33:BL33 AT33">
-    <cfRule type="expression" dxfId="15" priority="43">
+  <conditionalFormatting sqref="I30:BL33 I34:AR34 AV34:BL34 AT34">
+    <cfRule type="expression" dxfId="18" priority="46">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:K27 M27:BL27 I26:J26 L26:BL26 I28:BL32 I33:AR33 AV33:BL33 AT33 I4:BL18 I21:BL25">
-    <cfRule type="expression" dxfId="13" priority="8">
+  <conditionalFormatting sqref="I28:K28 M28:BL28 I27:J27 L27:BL27 I29:BL33 I34:AR34 AV34:BL34 AT34 I4:BL18 I21:BL21 I23:BL26">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:BL3">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="11" priority="47">
+  <conditionalFormatting sqref="K27">
+    <cfRule type="expression" dxfId="14" priority="50">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="51" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="9" priority="50">
+  <conditionalFormatting sqref="K27">
+    <cfRule type="expression" dxfId="12" priority="53">
       <formula>AND(TODAY()&gt;=L$5, TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU33">
-    <cfRule type="expression" dxfId="8" priority="53">
+  <conditionalFormatting sqref="AU34">
+    <cfRule type="expression" dxfId="11" priority="56">
       <formula>AND(task_start&lt;=AS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AS$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="57" stopIfTrue="1">
       <formula>AND(task_end&gt;=AS$5,task_start&lt;AT$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU33">
-    <cfRule type="expression" dxfId="6" priority="58">
+  <conditionalFormatting sqref="AU34">
+    <cfRule type="expression" dxfId="9" priority="61">
       <formula>AND(TODAY()&gt;=AS$5, TODAY()&lt;AT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:BL19">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:BL19">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:BL20">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4977,12 +5103,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:BL19">
+  <conditionalFormatting sqref="I20:BL20">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:BL20">
+  <conditionalFormatting sqref="I22:BL22">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4990,7 +5116,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:BL20">
+  <conditionalFormatting sqref="I22:BL22">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
@@ -5038,7 +5164,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D35</xm:sqref>
+          <xm:sqref>D7:D36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5054,109 +5180,109 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87" style="6" customWidth="1"/>
+    <col min="1" max="1" width="87" style="5" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:2" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:2" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97"/>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A4" s="98" t="s">
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="96"/>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A4" s="97" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="98" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="97" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:2" s="5" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="99" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:2" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A8" s="97" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="98" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="101" t="s">
+    <row r="10" spans="1:2" s="5" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="100" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A11" s="98" t="s">
+    <row r="11" spans="1:2" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A11" s="97" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="98" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="6" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="101" t="s">
+    <row r="13" spans="1:2" s="5" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="100" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A14" s="98" t="s">
+    <row r="14" spans="1:2" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A14" s="97" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="98" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="98" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="102"/>
+      <c r="A17" s="101"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="102"/>
+      <c r="A18" s="101"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="102"/>
+      <c r="A19" s="101"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="102"/>
+      <c r="A20" s="101"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="102"/>
+      <c r="A21" s="101"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="102"/>
+      <c r="A22" s="101"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="102"/>
+      <c r="A23" s="101"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="102"/>
+      <c r="A24" s="101"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5177,15 +5303,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F010965E38DD9C4C9BE78EF37B7A5F63" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e5a01bfcf6a1a5eee5a5ca1585b5a1a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00e6d9bda136d3704b372a6b2e4b23e5" ns3:_="">
     <xsd:import namespace="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca"/>
@@ -5323,6 +5440,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
@@ -5340,14 +5466,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A800D70D-3EC9-4DB9-B9D8-9E383CE8B438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5365,6 +5483,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Project Spyn Gantt Chart.xlsx
+++ b/Project Spyn Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tydng\Desktop\FSE-100-Team-4-Sheibanian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7751C0F5-A460-4372-9D13-118D5DCB9080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3832A88B-1E0B-4526-9EDC-7ED7FA365562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -245,7 +245,7 @@
     <t>Full Autonomous Run</t>
   </si>
   <si>
-    <t>Work onweight distribution of Car</t>
+    <t>Work on weight distribution of Car</t>
   </si>
 </sst>
 </file>
@@ -1120,22 +1120,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1147,14 +1144,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1954,8 +1954,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1981,28 +1981,28 @@
       <c r="E1" s="16"/>
       <c r="F1" s="17"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="111" t="s">
+      <c r="I1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
       <c r="P1" s="20"/>
-      <c r="Q1" s="110">
+      <c r="Q1" s="109">
         <v>45202</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="92" t="s">
@@ -2014,28 +2014,28 @@
       <c r="D2" s="18"/>
       <c r="E2" s="19"/>
       <c r="F2" s="18"/>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="108">
+      <c r="Q2" s="107">
         <v>1</v>
       </c>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
     </row>
     <row r="3" spans="1:64" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -2044,78 +2044,78 @@
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
-      <c r="I3" s="113" t="s">
+      <c r="I3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="113" t="s">
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="113" t="s">
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="113" t="s">
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="113" t="s">
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="114"/>
-      <c r="AN3" s="114"/>
-      <c r="AO3" s="114"/>
-      <c r="AP3" s="114"/>
-      <c r="AQ3" s="114"/>
-      <c r="AR3" s="113" t="s">
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="103"/>
+      <c r="AO3" s="103"/>
+      <c r="AP3" s="103"/>
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="AS3" s="114"/>
-      <c r="AT3" s="114"/>
-      <c r="AU3" s="114"/>
-      <c r="AV3" s="114"/>
-      <c r="AW3" s="114"/>
-      <c r="AX3" s="114"/>
-      <c r="AY3" s="113" t="s">
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="AZ3" s="114"/>
-      <c r="BA3" s="114"/>
-      <c r="BB3" s="114"/>
-      <c r="BC3" s="114"/>
-      <c r="BD3" s="114"/>
-      <c r="BE3" s="114"/>
-      <c r="BF3" s="113" t="s">
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="103"/>
+      <c r="BC3" s="103"/>
+      <c r="BD3" s="103"/>
+      <c r="BE3" s="103"/>
+      <c r="BF3" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="BG3" s="114"/>
-      <c r="BH3" s="114"/>
-      <c r="BI3" s="114"/>
-      <c r="BJ3" s="114"/>
-      <c r="BK3" s="114"/>
-      <c r="BL3" s="114"/>
+      <c r="BG3" s="103"/>
+      <c r="BH3" s="103"/>
+      <c r="BI3" s="103"/>
+      <c r="BJ3" s="103"/>
+      <c r="BK3" s="103"/>
+      <c r="BL3" s="103"/>
     </row>
     <row r="4" spans="1:64" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -2123,102 +2123,102 @@
         <v>14</v>
       </c>
       <c r="E4" s="26"/>
-      <c r="I4" s="113">
+      <c r="I4" s="102">
         <f>I5</f>
         <v>45201</v>
       </c>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114">
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103">
         <f>P5</f>
         <v>45208</v>
       </c>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114">
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103">
         <f>W5</f>
         <v>45215</v>
       </c>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114">
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103">
         <f>AD5</f>
         <v>45222</v>
       </c>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="114"/>
-      <c r="AJ4" s="114"/>
-      <c r="AK4" s="114">
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103">
         <f>AK5</f>
         <v>45229</v>
       </c>
-      <c r="AL4" s="114"/>
-      <c r="AM4" s="114"/>
-      <c r="AN4" s="114"/>
-      <c r="AO4" s="114"/>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="114"/>
-      <c r="AR4" s="114">
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="103">
         <f>AR5</f>
         <v>45236</v>
       </c>
-      <c r="AS4" s="114"/>
-      <c r="AT4" s="114"/>
-      <c r="AU4" s="114"/>
-      <c r="AV4" s="114"/>
-      <c r="AW4" s="114"/>
-      <c r="AX4" s="114"/>
-      <c r="AY4" s="114">
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="103"/>
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103">
         <f>AY5</f>
         <v>45243</v>
       </c>
-      <c r="AZ4" s="114"/>
-      <c r="BA4" s="114"/>
-      <c r="BB4" s="114"/>
-      <c r="BC4" s="114"/>
-      <c r="BD4" s="114"/>
-      <c r="BE4" s="114"/>
-      <c r="BF4" s="114">
+      <c r="AZ4" s="103"/>
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103"/>
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="103">
         <f>BF5</f>
         <v>45250</v>
       </c>
-      <c r="BG4" s="114"/>
-      <c r="BH4" s="114"/>
-      <c r="BI4" s="114"/>
-      <c r="BJ4" s="114"/>
-      <c r="BK4" s="114"/>
-      <c r="BL4" s="115"/>
+      <c r="BG4" s="103"/>
+      <c r="BH4" s="103"/>
+      <c r="BI4" s="103"/>
+      <c r="BJ4" s="103"/>
+      <c r="BK4" s="103"/>
+      <c r="BL4" s="104"/>
     </row>
     <row r="5" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102"/>
-      <c r="B5" s="103" t="s">
+      <c r="A5" s="112"/>
+      <c r="B5" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="105" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="27">
@@ -2447,8 +2447,8 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="104"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="106"/>
       <c r="D6" s="106"/>
       <c r="E6" s="106"/>
@@ -3813,7 +3813,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="60">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E22" s="61">
         <f>E19-2</f>
@@ -4126,19 +4126,19 @@
         <v>28</v>
       </c>
       <c r="D26" s="70">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="E26" s="71">
         <f t="shared" si="6"/>
         <v>45217</v>
       </c>
       <c r="F26" s="71">
-        <v>45237</v>
+        <v>45243</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="3">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I26" s="47"/>
       <c r="J26" s="47"/>
@@ -4972,11 +4972,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AR3:AX3"/>
-    <mergeCell ref="AY3:BE3"/>
-    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="W3:AC3"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4985,19 +4993,11 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:V3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AR3:AX3"/>
+    <mergeCell ref="AY3:BE3"/>
+    <mergeCell ref="BF3:BL3"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="D7:D36">
@@ -5303,6 +5303,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F010965E38DD9C4C9BE78EF37B7A5F63" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e5a01bfcf6a1a5eee5a5ca1585b5a1a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00e6d9bda136d3704b372a6b2e4b23e5" ns3:_="">
     <xsd:import namespace="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca"/>
@@ -5440,15 +5449,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
@@ -5466,6 +5466,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A800D70D-3EC9-4DB9-B9D8-9E383CE8B438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5483,14 +5491,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Project Spyn Gantt Chart.xlsx
+++ b/Project Spyn Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tydng\Desktop\FSE-100-Team-4-Sheibanian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3832A88B-1E0B-4526-9EDC-7ED7FA365562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDD6701-491D-40FD-B09C-FEC4EFBA9BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1120,19 +1120,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1144,17 +1147,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1954,7 +1954,7 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1981,28 +1981,28 @@
       <c r="E1" s="16"/>
       <c r="F1" s="17"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="110" t="s">
+      <c r="I1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
       <c r="P1" s="20"/>
-      <c r="Q1" s="109">
+      <c r="Q1" s="110">
         <v>45202</v>
       </c>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="92" t="s">
@@ -2014,28 +2014,28 @@
       <c r="D2" s="18"/>
       <c r="E2" s="19"/>
       <c r="F2" s="18"/>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="107">
+      <c r="Q2" s="108">
         <v>1</v>
       </c>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
     </row>
     <row r="3" spans="1:64" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -2044,78 +2044,78 @@
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
-      <c r="I3" s="102" t="s">
+      <c r="I3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="102" t="s">
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="102" t="s">
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="102" t="s">
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="114"/>
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="102" t="s">
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="103"/>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="103"/>
-      <c r="AP3" s="103"/>
-      <c r="AQ3" s="103"/>
-      <c r="AR3" s="102" t="s">
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="114"/>
+      <c r="AN3" s="114"/>
+      <c r="AO3" s="114"/>
+      <c r="AP3" s="114"/>
+      <c r="AQ3" s="114"/>
+      <c r="AR3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="103"/>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="102" t="s">
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="114"/>
+      <c r="AV3" s="114"/>
+      <c r="AW3" s="114"/>
+      <c r="AX3" s="114"/>
+      <c r="AY3" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="103"/>
-      <c r="BC3" s="103"/>
-      <c r="BD3" s="103"/>
-      <c r="BE3" s="103"/>
-      <c r="BF3" s="102" t="s">
+      <c r="AZ3" s="114"/>
+      <c r="BA3" s="114"/>
+      <c r="BB3" s="114"/>
+      <c r="BC3" s="114"/>
+      <c r="BD3" s="114"/>
+      <c r="BE3" s="114"/>
+      <c r="BF3" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="BG3" s="103"/>
-      <c r="BH3" s="103"/>
-      <c r="BI3" s="103"/>
-      <c r="BJ3" s="103"/>
-      <c r="BK3" s="103"/>
-      <c r="BL3" s="103"/>
+      <c r="BG3" s="114"/>
+      <c r="BH3" s="114"/>
+      <c r="BI3" s="114"/>
+      <c r="BJ3" s="114"/>
+      <c r="BK3" s="114"/>
+      <c r="BL3" s="114"/>
     </row>
     <row r="4" spans="1:64" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -2123,102 +2123,102 @@
         <v>14</v>
       </c>
       <c r="E4" s="26"/>
-      <c r="I4" s="102">
+      <c r="I4" s="113">
         <f>I5</f>
         <v>45201</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103">
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114">
         <f>P5</f>
         <v>45208</v>
       </c>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103">
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="114">
         <f>W5</f>
         <v>45215</v>
       </c>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103">
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114">
         <f>AD5</f>
         <v>45222</v>
       </c>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103">
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="114">
         <f>AK5</f>
         <v>45229</v>
       </c>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="103">
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="114"/>
+      <c r="AN4" s="114"/>
+      <c r="AO4" s="114"/>
+      <c r="AP4" s="114"/>
+      <c r="AQ4" s="114"/>
+      <c r="AR4" s="114">
         <f>AR5</f>
         <v>45236</v>
       </c>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="103"/>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103">
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="114"/>
+      <c r="AU4" s="114"/>
+      <c r="AV4" s="114"/>
+      <c r="AW4" s="114"/>
+      <c r="AX4" s="114"/>
+      <c r="AY4" s="114">
         <f>AY5</f>
         <v>45243</v>
       </c>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="103"/>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="103">
+      <c r="AZ4" s="114"/>
+      <c r="BA4" s="114"/>
+      <c r="BB4" s="114"/>
+      <c r="BC4" s="114"/>
+      <c r="BD4" s="114"/>
+      <c r="BE4" s="114"/>
+      <c r="BF4" s="114">
         <f>BF5</f>
         <v>45250</v>
       </c>
-      <c r="BG4" s="103"/>
-      <c r="BH4" s="103"/>
-      <c r="BI4" s="103"/>
-      <c r="BJ4" s="103"/>
-      <c r="BK4" s="103"/>
-      <c r="BL4" s="104"/>
+      <c r="BG4" s="114"/>
+      <c r="BH4" s="114"/>
+      <c r="BI4" s="114"/>
+      <c r="BJ4" s="114"/>
+      <c r="BK4" s="114"/>
+      <c r="BL4" s="115"/>
     </row>
     <row r="5" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="107" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="27">
@@ -2447,8 +2447,8 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="114"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="106"/>
       <c r="D6" s="106"/>
       <c r="E6" s="106"/>
@@ -3732,7 +3732,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="60">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="61">
         <f>E18-2</f>
@@ -3965,7 +3965,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="70">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E24" s="71">
         <f>$E$9+15</f>
@@ -4046,19 +4046,19 @@
         <v>2</v>
       </c>
       <c r="D25" s="70">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E25" s="71">
         <f t="shared" ref="E25:E28" si="6">$E$9+15</f>
         <v>45217</v>
       </c>
       <c r="F25" s="71">
-        <v>45215</v>
+        <v>45250</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="3">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="I25" s="47"/>
       <c r="J25" s="47"/>
@@ -4133,12 +4133,12 @@
         <v>45217</v>
       </c>
       <c r="F26" s="71">
-        <v>45243</v>
+        <v>45250</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="3">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I26" s="47"/>
       <c r="J26" s="47"/>
@@ -4206,7 +4206,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="70">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E27" s="71">
         <f t="shared" si="6"/>
@@ -4972,11 +4972,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AR3:AX3"/>
+    <mergeCell ref="AY3:BE3"/>
+    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="Q2:Z2"/>
     <mergeCell ref="Q1:Z1"/>
@@ -4985,19 +4993,11 @@
     <mergeCell ref="I3:O3"/>
     <mergeCell ref="P3:V3"/>
     <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AR3:AX3"/>
-    <mergeCell ref="AY3:BE3"/>
-    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="D7:D36">
@@ -5303,15 +5303,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F010965E38DD9C4C9BE78EF37B7A5F63" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e5a01bfcf6a1a5eee5a5ca1585b5a1a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00e6d9bda136d3704b372a6b2e4b23e5" ns3:_="">
     <xsd:import namespace="3e43f44c-3f4d-46ba-91a0-7c8ec4d7a2ca"/>
@@ -5449,6 +5440,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
@@ -5466,14 +5466,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A800D70D-3EC9-4DB9-B9D8-9E383CE8B438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5491,6 +5483,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>